--- a/ЗАВОДЫ/Останкино/2025/заказы/Ташкент/2025/10,25/06,10,25 Ост КИ Ташкент/дв 06,10,25 тшрсч ост ки от Лыгина.xlsx
+++ b/ЗАВОДЫ/Останкино/2025/заказы/Ташкент/2025/10,25/06,10,25 Ост КИ Ташкент/дв 06,10,25 тшрсч ост ки от Лыгина.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\РАБОЧИЙ СТОЛ\06,10,25 Ост КИ Ташкент\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\2025_05\ЗАВОДЫ\Останкино\2025\заказы\Ташкент\2025\10,25\06,10,25 Ост КИ Ташкент\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ACF9EDD-38A4-44C5-A552-C832C9A4CC78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFBDA6F0-F6B8-4910-9D50-FA1EB6BEEFF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,11 +17,13 @@
   </sheets>
   <externalReferences>
     <externalReference r:id="rId2"/>
+    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet!$A$3:$AH$36</definedName>
   </definedNames>
-  <calcPr calcId="181029" refMode="R1C1"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -417,7 +419,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -433,6 +435,8 @@
     <xf numFmtId="164" fontId="5" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="4" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Arial10px" xfId="1" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -1998,6 +2002,836 @@
           </cell>
           <cell r="U36" t="str">
             <v>не взяли на сертификацию</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Лист1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="A1" t="str">
+            <v>1С</v>
+          </cell>
+          <cell r="B1">
+            <v>2</v>
+          </cell>
+        </row>
+        <row r="2">
+          <cell r="A2" t="str">
+            <v>4079 СЕРВЕЛАТ КОПЧЕНЫЙ НА БУКЕ в/к в/у_СНГ</v>
+          </cell>
+          <cell r="B2">
+            <v>1001304237159</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="A3" t="str">
+            <v>4087   СЕРВЕЛАТ КОПЧЕНЫЙ НА БУКЕ в/к в/К 0,35</v>
+          </cell>
+          <cell r="B3">
+            <v>1001304237158</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="A4" t="str">
+            <v>5096   СЕРВЕЛАТ КРЕМЛЕВСКИЙ в/к в/у_СНГ</v>
+          </cell>
+          <cell r="B4">
+            <v>1001300456946</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="A5" t="str">
+            <v>6072 ЭКСТРА Папа может вар п/о 0.4кг_UZ</v>
+          </cell>
+          <cell r="B5">
+            <v>1001012506354</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="A6" t="str">
+            <v>6075 МЯСНАЯ Папа может вар п/о_UZ</v>
+          </cell>
+          <cell r="B6">
+            <v>1001012484405</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="A7" t="str">
+            <v>6076 МЯСНАЯ Папа может вар п/о 0.4кг_UZ</v>
+          </cell>
+          <cell r="B7">
+            <v>1001012486334</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="A8" t="str">
+            <v>6078 ФИЛЕЙНАЯ Папа может вар п/о_UZ</v>
+          </cell>
+          <cell r="B8">
+            <v>1001012564335</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="A9" t="str">
+            <v>6080 ЭКСТРА ФИЛЕЙНЫЕ сос п/о мгс 1.5*2_UZ</v>
+          </cell>
+          <cell r="B9">
+            <v>1001012503220</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="A10" t="str">
+            <v>7070 СОЧНЫЕ ПМ сос п/о мгс 1.5*4_А_50с  ОСТАНКИНО</v>
+          </cell>
+          <cell r="B10">
+            <v>1001022377070</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="A11" t="str">
+            <v>6088 СОЧНЫЕ сос п/о мгс 1*6_UZ</v>
+          </cell>
+          <cell r="B11">
+            <v>1001022377070</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>6091 АРОМАТНАЯ с/к в/у_UZ</v>
+          </cell>
+          <cell r="B12">
+            <v>1001061971146</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
+            <v>6092 АРОМАТНАЯ с/к в/у 1/250 8шт_UZ</v>
+          </cell>
+          <cell r="B13">
+            <v>1001061975738</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="A14" t="str">
+            <v>6093 САЛЯМИ ИТАЛЬЯНСКАЯ с/к в/у 1/250 8шт_UZ</v>
+          </cell>
+          <cell r="B14">
+            <v>1001060764993</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="A15" t="str">
+            <v>6094 ЮБИЛЕЙНАЯ с/к в/у_UZ</v>
+          </cell>
+          <cell r="B15">
+            <v>1001062474154</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="A16" t="str">
+            <v>6095 ЮБИЛЕЙНАЯ с/к в/у 1/250 8шт_UZ</v>
+          </cell>
+          <cell r="B16">
+            <v>1001062475739</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="A17" t="str">
+            <v>7187 ГРУДИНКА ПРЕМИУМ к/в мл/к в/у 0.3кг_50с  ОСТАНКИНО</v>
+          </cell>
+          <cell r="B17">
+            <v>1001085637187</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="A18" t="str">
+            <v>6277 ГРУДИНКА ОСОБAЯ к/в мл/к в/у 0.3кг_45с</v>
+          </cell>
+          <cell r="B18">
+            <v>1001085636200</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="A19" t="str">
+            <v>6346 ФИЛЕЙНАЯ Папа может вар п/о 0.5кг_СНГ  ОСТАНКИНО</v>
+          </cell>
+          <cell r="B19">
+            <v>1001012566346</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="A20" t="str">
+            <v>7058 ШПИКАЧКИ СОЧНЫЕ С БЕКОНОМ п/о мгс 1*3_60с  ОСТАНКИНО</v>
+          </cell>
+          <cell r="B20">
+            <v>1001035277058</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="A21" t="str">
+            <v>6652 ШПИКАЧКИ СОЧНЫЕ С БЕКОНОМ п/о мгс 1*3  ОСТАНКИНО</v>
+          </cell>
+          <cell r="B21">
+            <v>1001035277058</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="A22" t="str">
+            <v>7075 МОЛОЧ.ПРЕМИУМ ПМ сос п/о мгс 1.5*4_О_50с  ОСТАНКИНО</v>
+          </cell>
+          <cell r="B22">
+            <v>1001022657075</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="A23" t="str">
+            <v>6853 МОЛОЧНЫЕ ПРЕМИУМ ПМ сос п/о мгс 1*6  ОСТАНКИНО</v>
+          </cell>
+          <cell r="B23">
+            <v>1001022657075</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="A24" t="str">
+            <v>5608 СЕРВЕЛАТ ФИНСКИЙ в/к в/у срез 0.35кг_СНГ</v>
+          </cell>
+          <cell r="B24">
+            <v>1001301876698</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="A25" t="str">
+            <v>6787 СЕРВЕЛАТ КРЕМЛЕВСКИЙ в/к в/у 0.33кг 8шт.  ОСТАНКИНО</v>
+          </cell>
+          <cell r="B25">
+            <v>1001300456787</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="A26" t="str">
+            <v>СЕРВЕЛАТ КРЕМЛЕВСКИЙ в/к в/у 0.33кг 8шт.</v>
+          </cell>
+          <cell r="B26">
+            <v>1001300456787</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="A27" t="str">
+            <v>6787 СЕРВЕЛАТ КРЕМЛЕВСКИЙ в/к в/у 0.33кг 8шт.  ОСТАНКИНО</v>
+          </cell>
+          <cell r="B27">
+            <v>1001300456787</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28" t="str">
+            <v>ЭКСТРА Папа может вар п/о_СНГ</v>
+          </cell>
+          <cell r="B28">
+            <v>1001012503220</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="A29" t="str">
+            <v>СОЧНЫЕ ПМ сос п/о мгс 0.41кг_СНГ_50с</v>
+          </cell>
+          <cell r="B29">
+            <v>1001022377067</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="A30" t="str">
+            <v>7067 СОЧНЫЕ ПМ сос п/о мгс 0.41кг_СНГ_50с  ОСТАНКИНО</v>
+          </cell>
+          <cell r="B30">
+            <v>1001022377067</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="A31" t="str">
+            <v>ГОВЯЖЬЯ Папа может вар п/о 0.4кг 8шт.</v>
+          </cell>
+          <cell r="B31">
+            <v>1001012426268</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="A32" t="str">
+            <v>6268 ГОВЯЖЬЯ Папа может вар п/о 0.4кг 8шт.  ОСТАНКИНО</v>
+          </cell>
+          <cell r="B32">
+            <v>1001012426268</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="A33" t="str">
+            <v>ФИЛЕЙНЫЕ Папа Может сос ц/о мгс 0.4кг</v>
+          </cell>
+          <cell r="B33">
+            <v>1001022556837</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="A34" t="str">
+            <v>6837 ФИЛЕЙНЫЕ Папа Может сос ц/о мгс 0.4кг  ОСТАНКИНО</v>
+          </cell>
+          <cell r="B34">
+            <v>1001022556837</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="A35" t="str">
+            <v>МЯСНЫЕ С ГОВЯД.ПМ сос п/о мгс 0.4кг_50с</v>
+          </cell>
+          <cell r="B35">
+            <v>1001025507077</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="A36" t="str">
+            <v>7077 МЯСНЫЕ С ГОВЯД.ПМ сос п/о мгс 0.4кг_50с ОСТАНКИНО</v>
+          </cell>
+          <cell r="B36">
+            <v>1001025507077</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="A37" t="str">
+            <v>БЕКОН Останкино с/к с/н в/у 1/180_СНГ_50</v>
+          </cell>
+          <cell r="B37">
+            <v>1001223297104</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="A38" t="str">
+            <v>7104 БЕКОН Останкино с/к с/н в/у 1/180_СНГ_50 ОСТАНКИНО</v>
+          </cell>
+          <cell r="B38">
+            <v>1001223297104</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="A39" t="str">
+            <v>ШПИКАЧКИ СОЧНЫЕ С БЕК. п/о мгс 0.3кг_60с</v>
+          </cell>
+          <cell r="B39">
+            <v>1001035277059</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="A40" t="str">
+            <v>7059 ШПИКАЧКИ СОЧНЫЕ С БЕК. п/о мгс 0.3кг_60с  ОСТАНКИНО</v>
+          </cell>
+          <cell r="B40">
+            <v>1001035277059</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="A41" t="str">
+            <v>РУБЛЕНЫЕ сос ц/о мгс 0.36кг 6шт.</v>
+          </cell>
+          <cell r="B41">
+            <v>1001023696765</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="A42" t="str">
+            <v>6765 РУБЛЕНЫЕ сос ц/о мгс 0.36кг 6шт.  ОСТАНКИНО</v>
+          </cell>
+          <cell r="B42">
+            <v>1001023696765</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="A43" t="str">
+            <v>СЕРВЕЛАТ ЕВРОПЕЙСКИЙ в/к в/у 0.33кг 8шт.</v>
+          </cell>
+          <cell r="B43">
+            <v>1001300366807</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="A44" t="str">
+            <v>6807 СЕРВЕЛАТ ЕВРОПЕЙСКИЙ в/к в/у 0.33кг 8шт.  ОСТАНКИНО</v>
+          </cell>
+          <cell r="B44">
+            <v>1001300366807</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="A45" t="str">
+            <v>ГОВЯЖЬЯ Папа может вар п/о</v>
+          </cell>
+          <cell r="B45">
+            <v>1001012426220</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="A46" t="str">
+            <v>6220 ГОВЯЖЬЯ Папа может вар п/о  ОСТАНКИНО</v>
+          </cell>
+          <cell r="B46">
+            <v>1001012426220</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="A47" t="str">
+            <v>СЕРВЕЛАТ ОХОТНИЧИЙ ПМ в/к в/у 0.28кг_СНГ</v>
+          </cell>
+          <cell r="B47">
+            <v>1001303987333</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="A48" t="str">
+            <v>7333 СЕРВЕЛАТ ОХОТНИЧИЙ ПМ в/к в/у 0.28кг_СНГ  ОСТАНКИНО</v>
+          </cell>
+          <cell r="B48">
+            <v>1001303987333</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="A49" t="str">
+            <v>БОЯРСКАЯ ПМ п/к в/у 0.28кг_СНГ</v>
+          </cell>
+          <cell r="B49">
+            <v>1001301777332</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="машины"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="1">
+          <cell r="D1">
+            <v>130500100</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="D6" t="str">
+            <v xml:space="preserve">Москва :  </v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="D7" t="str">
+            <v>Тип заказа:</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="D9" t="str">
+            <v>Код материала</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="D11">
+            <v>1001013957231</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="D12">
+            <v>1001013956859</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="D13">
+            <v>1001010855247</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="D14">
+            <v>1001010105246</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="D15">
+            <v>1001010106325</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="D16">
+            <v>1001012486334</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="D17">
+            <v>1001012484405</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="D18">
+            <v>1001012634408</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="D19">
+            <v>1001012566345</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="D20">
+            <v>1001012564335</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="D21">
+            <v>1001012506354</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="D22">
+            <v>1001012505851</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="D23">
+            <v>1001010014555</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="D24">
+            <v>1001010116327</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="D25">
+            <v>1001015646861</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="D26">
+            <v>1001012426268</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="D27">
+            <v>1001015676877</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="D28">
+            <v>1001015686878</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="D30">
+            <v>1001023696765</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="D31">
+            <v>1001025176768</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="D32">
+            <v>1001025486770</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="D33">
+            <v>1001021966602</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="D34">
+            <v>1001022246713</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="D35">
+            <v>1001022246240</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="D36">
+            <v>1001020837151</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="D37">
+            <v>1001022656854</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="D38">
+            <v>1001022657075</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="D39">
+            <v>1001022725819</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="D40">
+            <v>1001025507255</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="D41">
+            <v>1001025507271</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="D42">
+            <v>1001022466726</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="D43">
+            <v>1001020836759</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="D44">
+            <v>1001022377064</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="D45">
+            <v>1001022377067</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="D46">
+            <v>1001022377070</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="D47">
+            <v>1001022726303</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="D48">
+            <v>1001022557244</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="D49">
+            <v>1001022556254</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="D50">
+            <v>1001022556837</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="D52">
+            <v>1001032736549</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="D53">
+            <v>1001033856609</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="D54">
+            <v>1001035277059</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="D55">
+            <v>1001035277058</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="D56">
+            <v>1001031076548</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="D57">
+            <v>1001034065698</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="D59">
+            <v>1001302277174</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="D60">
+            <v>1001303107241</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="D61">
+            <v>1001302347176</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="D63">
+            <v>1001304237158</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="D64">
+            <v>1001304237159</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="D65">
+            <v>1001304507230</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="D66">
+            <v>1001300366790</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="D67">
+            <v>1001305306566</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="D68">
+            <v>1001305197238</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="D69">
+            <v>1001305316565</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="D70">
+            <v>1001303987162</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="D71">
+            <v>1001303987165</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="D72">
+            <v>1001301876698</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="D73">
+            <v>1001051875607</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="D74">
+            <v>1001300456787</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="D75">
+            <v>1001300456946</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="D77">
+            <v>1001061975738</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="D78">
+            <v>1001063145708</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="D79">
+            <v>1001060764993</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="D80">
+            <v>1001202506453</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="D81">
+            <v>1001062504117</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="D82">
+            <v>1001190765681</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="D83">
+            <v>1001062475739</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="D84">
+            <v>1001061971146</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="D85">
+            <v>1001062474154</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="D86">
+            <v>1001203146835</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="D88">
+            <v>1001094053215</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="D89">
+            <v>1001092485452</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="D91">
+            <v>1001080345074</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="D92">
+            <v>1001083446207</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="D93">
+            <v>1001084217089</v>
+          </cell>
+        </row>
+        <row r="94">
+          <cell r="D94">
+            <v>1001085637187</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="D95">
+            <v>1001223297104</v>
           </cell>
         </row>
       </sheetData>
@@ -2297,7 +3131,7 @@
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="X1" sqref="X1"/>
+      <selection pane="bottomRight" activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2317,7 +3151,10 @@
     <col min="23" max="32" width="6" customWidth="1"/>
     <col min="33" max="33" width="34.85546875" customWidth="1"/>
     <col min="34" max="34" width="7" customWidth="1"/>
-    <col min="35" max="50" width="3" customWidth="1"/>
+    <col min="35" max="35" width="3" customWidth="1"/>
+    <col min="36" max="36" width="14.42578125" style="16" bestFit="1" customWidth="1"/>
+    <col min="37" max="37" width="16" customWidth="1"/>
+    <col min="38" max="50" width="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:50" x14ac:dyDescent="0.25">
@@ -2356,7 +3193,7 @@
       <c r="AG1" s="1"/>
       <c r="AH1" s="1"/>
       <c r="AI1" s="1"/>
-      <c r="AJ1" s="1"/>
+      <c r="AJ1" s="15"/>
       <c r="AK1" s="1"/>
       <c r="AL1" s="1"/>
       <c r="AM1" s="1"/>
@@ -2408,7 +3245,7 @@
       <c r="AG2" s="1"/>
       <c r="AH2" s="1"/>
       <c r="AI2" s="1"/>
-      <c r="AJ2" s="1"/>
+      <c r="AJ2" s="15"/>
       <c r="AK2" s="1"/>
       <c r="AL2" s="1"/>
       <c r="AM2" s="1"/>
@@ -2528,7 +3365,7 @@
         <v>22</v>
       </c>
       <c r="AI3" s="1"/>
-      <c r="AJ3" s="1"/>
+      <c r="AJ3" s="15"/>
       <c r="AK3" s="1"/>
       <c r="AL3" s="1"/>
       <c r="AM3" s="1"/>
@@ -2608,7 +3445,7 @@
       <c r="AG4" s="1"/>
       <c r="AH4" s="1"/>
       <c r="AI4" s="1"/>
-      <c r="AJ4" s="1"/>
+      <c r="AJ4" s="15"/>
       <c r="AK4" s="1"/>
       <c r="AL4" s="1"/>
       <c r="AM4" s="1"/>
@@ -2726,7 +3563,7 @@
         <v>4926.4000000000005</v>
       </c>
       <c r="AI5" s="1"/>
-      <c r="AJ5" s="1"/>
+      <c r="AJ5" s="15"/>
       <c r="AK5" s="1"/>
       <c r="AL5" s="1"/>
       <c r="AM5" s="1"/>
@@ -2839,8 +3676,14 @@
         <v>160</v>
       </c>
       <c r="AI6" s="1"/>
-      <c r="AJ6" s="1"/>
-      <c r="AK6" s="1"/>
+      <c r="AJ6" s="15">
+        <f>VLOOKUP(A6,[2]Лист1!$A:$B,2,0)</f>
+        <v>1001304237159</v>
+      </c>
+      <c r="AK6" s="1">
+        <f>VLOOKUP(AJ6,[3]машины!$D:$D,1,0)</f>
+        <v>1001304237159</v>
+      </c>
       <c r="AL6" s="1"/>
       <c r="AM6" s="1"/>
       <c r="AN6" s="1"/>
@@ -2952,8 +3795,14 @@
         <v>182</v>
       </c>
       <c r="AI7" s="1"/>
-      <c r="AJ7" s="1"/>
-      <c r="AK7" s="1"/>
+      <c r="AJ7" s="15">
+        <f>VLOOKUP(A7,[2]Лист1!$A:$B,2,0)</f>
+        <v>1001304237158</v>
+      </c>
+      <c r="AK7" s="1">
+        <f>VLOOKUP(AJ7,[3]машины!$D:$D,1,0)</f>
+        <v>1001304237158</v>
+      </c>
       <c r="AL7" s="1"/>
       <c r="AM7" s="1"/>
       <c r="AN7" s="1"/>
@@ -3065,8 +3914,14 @@
         <v>160</v>
       </c>
       <c r="AI8" s="1"/>
-      <c r="AJ8" s="1"/>
-      <c r="AK8" s="1"/>
+      <c r="AJ8" s="15">
+        <f>VLOOKUP(A8,[2]Лист1!$A:$B,2,0)</f>
+        <v>1001300456946</v>
+      </c>
+      <c r="AK8" s="1">
+        <f>VLOOKUP(AJ8,[3]машины!$D:$D,1,0)</f>
+        <v>1001300456946</v>
+      </c>
       <c r="AL8" s="1"/>
       <c r="AM8" s="1"/>
       <c r="AN8" s="1"/>
@@ -3178,8 +4033,14 @@
         <v>168</v>
       </c>
       <c r="AI9" s="1"/>
-      <c r="AJ9" s="1"/>
-      <c r="AK9" s="1"/>
+      <c r="AJ9" s="15">
+        <f>VLOOKUP(A9,[2]Лист1!$A:$B,2,0)</f>
+        <v>1001301876698</v>
+      </c>
+      <c r="AK9" s="1">
+        <f>VLOOKUP(AJ9,[3]машины!$D:$D,1,0)</f>
+        <v>1001301876698</v>
+      </c>
       <c r="AL9" s="1"/>
       <c r="AM9" s="1"/>
       <c r="AN9" s="1"/>
@@ -3281,7 +4142,7 @@
         <v>0</v>
       </c>
       <c r="AI10" s="1"/>
-      <c r="AJ10" s="1"/>
+      <c r="AJ10" s="15"/>
       <c r="AK10" s="1"/>
       <c r="AL10" s="1"/>
       <c r="AM10" s="1"/>
@@ -3399,8 +4260,14 @@
         <v>480</v>
       </c>
       <c r="AI11" s="1"/>
-      <c r="AJ11" s="1"/>
-      <c r="AK11" s="1"/>
+      <c r="AJ11" s="15">
+        <f>VLOOKUP(A11,[2]Лист1!$A:$B,2,0)</f>
+        <v>1001012506354</v>
+      </c>
+      <c r="AK11" s="1">
+        <f>VLOOKUP(AJ11,[3]машины!$D:$D,1,0)</f>
+        <v>1001012506354</v>
+      </c>
       <c r="AL11" s="1"/>
       <c r="AM11" s="1"/>
       <c r="AN11" s="1"/>
@@ -3510,8 +4377,14 @@
         <v>80</v>
       </c>
       <c r="AI12" s="1"/>
-      <c r="AJ12" s="1"/>
-      <c r="AK12" s="1"/>
+      <c r="AJ12" s="15">
+        <f>VLOOKUP(A12,[2]Лист1!$A:$B,2,0)</f>
+        <v>1001012484405</v>
+      </c>
+      <c r="AK12" s="1">
+        <f>VLOOKUP(AJ12,[3]машины!$D:$D,1,0)</f>
+        <v>1001012484405</v>
+      </c>
       <c r="AL12" s="1"/>
       <c r="AM12" s="1"/>
       <c r="AN12" s="1"/>
@@ -3623,8 +4496,14 @@
         <v>192</v>
       </c>
       <c r="AI13" s="1"/>
-      <c r="AJ13" s="1"/>
-      <c r="AK13" s="1"/>
+      <c r="AJ13" s="15">
+        <f>VLOOKUP(A13,[2]Лист1!$A:$B,2,0)</f>
+        <v>1001012486334</v>
+      </c>
+      <c r="AK13" s="1">
+        <f>VLOOKUP(AJ13,[3]машины!$D:$D,1,0)</f>
+        <v>1001012486334</v>
+      </c>
       <c r="AL13" s="1"/>
       <c r="AM13" s="1"/>
       <c r="AN13" s="1"/>
@@ -3736,8 +4615,14 @@
         <v>50</v>
       </c>
       <c r="AI14" s="1"/>
-      <c r="AJ14" s="1"/>
-      <c r="AK14" s="1"/>
+      <c r="AJ14" s="15">
+        <f>VLOOKUP(A14,[2]Лист1!$A:$B,2,0)</f>
+        <v>1001012564335</v>
+      </c>
+      <c r="AK14" s="1">
+        <f>VLOOKUP(AJ14,[3]машины!$D:$D,1,0)</f>
+        <v>1001012564335</v>
+      </c>
       <c r="AL14" s="1"/>
       <c r="AM14" s="1"/>
       <c r="AN14" s="1"/>
@@ -3841,8 +4726,14 @@
         <v>0</v>
       </c>
       <c r="AI15" s="1"/>
-      <c r="AJ15" s="1"/>
-      <c r="AK15" s="1"/>
+      <c r="AJ15" s="15">
+        <f>VLOOKUP(A15,[2]Лист1!$A:$B,2,0)</f>
+        <v>1001061971146</v>
+      </c>
+      <c r="AK15" s="1">
+        <f>VLOOKUP(AJ15,[3]машины!$D:$D,1,0)</f>
+        <v>1001061971146</v>
+      </c>
       <c r="AL15" s="1"/>
       <c r="AM15" s="1"/>
       <c r="AN15" s="1"/>
@@ -3952,8 +4843,14 @@
         <v>0</v>
       </c>
       <c r="AI16" s="1"/>
-      <c r="AJ16" s="1"/>
-      <c r="AK16" s="1"/>
+      <c r="AJ16" s="15">
+        <f>VLOOKUP(A16,[2]Лист1!$A:$B,2,0)</f>
+        <v>1001061975738</v>
+      </c>
+      <c r="AK16" s="1">
+        <f>VLOOKUP(AJ16,[3]машины!$D:$D,1,0)</f>
+        <v>1001061975738</v>
+      </c>
       <c r="AL16" s="1"/>
       <c r="AM16" s="1"/>
       <c r="AN16" s="1"/>
@@ -4065,8 +4962,14 @@
         <v>130</v>
       </c>
       <c r="AI17" s="1"/>
-      <c r="AJ17" s="1"/>
-      <c r="AK17" s="1"/>
+      <c r="AJ17" s="15">
+        <f>VLOOKUP(A17,[2]Лист1!$A:$B,2,0)</f>
+        <v>1001060764993</v>
+      </c>
+      <c r="AK17" s="1">
+        <f>VLOOKUP(AJ17,[3]машины!$D:$D,1,0)</f>
+        <v>1001060764993</v>
+      </c>
       <c r="AL17" s="1"/>
       <c r="AM17" s="1"/>
       <c r="AN17" s="1"/>
@@ -4176,8 +5079,14 @@
         <v>20</v>
       </c>
       <c r="AI18" s="1"/>
-      <c r="AJ18" s="1"/>
-      <c r="AK18" s="1"/>
+      <c r="AJ18" s="15">
+        <f>VLOOKUP(A18,[2]Лист1!$A:$B,2,0)</f>
+        <v>1001062474154</v>
+      </c>
+      <c r="AK18" s="1">
+        <f>VLOOKUP(AJ18,[3]машины!$D:$D,1,0)</f>
+        <v>1001062474154</v>
+      </c>
       <c r="AL18" s="1"/>
       <c r="AM18" s="1"/>
       <c r="AN18" s="1"/>
@@ -4291,8 +5200,14 @@
         <v>70</v>
       </c>
       <c r="AI19" s="1"/>
-      <c r="AJ19" s="1"/>
-      <c r="AK19" s="1"/>
+      <c r="AJ19" s="15">
+        <f>VLOOKUP(A19,[2]Лист1!$A:$B,2,0)</f>
+        <v>1001062475739</v>
+      </c>
+      <c r="AK19" s="1">
+        <f>VLOOKUP(AJ19,[3]машины!$D:$D,1,0)</f>
+        <v>1001062475739</v>
+      </c>
       <c r="AL19" s="1"/>
       <c r="AM19" s="1"/>
       <c r="AN19" s="1"/>
@@ -4407,8 +5322,14 @@
         <v>800</v>
       </c>
       <c r="AI20" s="1"/>
-      <c r="AJ20" s="1"/>
-      <c r="AK20" s="1"/>
+      <c r="AJ20" s="15">
+        <f>VLOOKUP(A20,[2]Лист1!$A:$B,2,0)</f>
+        <v>1001012566346</v>
+      </c>
+      <c r="AK20" s="1" t="e">
+        <f>VLOOKUP(AJ20,[3]машины!$D:$D,1,0)</f>
+        <v>#N/A</v>
+      </c>
       <c r="AL20" s="1"/>
       <c r="AM20" s="1"/>
       <c r="AN20" s="1"/>
@@ -4514,8 +5435,14 @@
         <v>108</v>
       </c>
       <c r="AI21" s="1"/>
-      <c r="AJ21" s="1"/>
-      <c r="AK21" s="1"/>
+      <c r="AJ21" s="15">
+        <f>VLOOKUP(A21,[2]Лист1!$A:$B,2,0)</f>
+        <v>1001023696765</v>
+      </c>
+      <c r="AK21" s="1">
+        <f>VLOOKUP(AJ21,[3]машины!$D:$D,1,0)</f>
+        <v>1001023696765</v>
+      </c>
       <c r="AL21" s="1"/>
       <c r="AM21" s="1"/>
       <c r="AN21" s="1"/>
@@ -4621,8 +5548,14 @@
         <v>105.60000000000001</v>
       </c>
       <c r="AI22" s="1"/>
-      <c r="AJ22" s="1"/>
-      <c r="AK22" s="1"/>
+      <c r="AJ22" s="15">
+        <f>VLOOKUP(A22,[2]Лист1!$A:$B,2,0)</f>
+        <v>1001300456787</v>
+      </c>
+      <c r="AK22" s="1">
+        <f>VLOOKUP(AJ22,[3]машины!$D:$D,1,0)</f>
+        <v>1001300456787</v>
+      </c>
       <c r="AL22" s="1"/>
       <c r="AM22" s="1"/>
       <c r="AN22" s="1"/>
@@ -4726,8 +5659,14 @@
         <v>105.60000000000001</v>
       </c>
       <c r="AI23" s="1"/>
-      <c r="AJ23" s="1"/>
-      <c r="AK23" s="1"/>
+      <c r="AJ23" s="15">
+        <f>VLOOKUP(A23,[2]Лист1!$A:$B,2,0)</f>
+        <v>1001300366807</v>
+      </c>
+      <c r="AK23" s="1" t="e">
+        <f>VLOOKUP(AJ23,[3]машины!$D:$D,1,0)</f>
+        <v>#N/A</v>
+      </c>
       <c r="AL23" s="1"/>
       <c r="AM23" s="1"/>
       <c r="AN23" s="1"/>
@@ -4833,8 +5772,14 @@
         <v>96</v>
       </c>
       <c r="AI24" s="1"/>
-      <c r="AJ24" s="1"/>
-      <c r="AK24" s="1"/>
+      <c r="AJ24" s="15">
+        <f>VLOOKUP(A24,[2]Лист1!$A:$B,2,0)</f>
+        <v>1001022556837</v>
+      </c>
+      <c r="AK24" s="1">
+        <f>VLOOKUP(AJ24,[3]машины!$D:$D,1,0)</f>
+        <v>1001022556837</v>
+      </c>
       <c r="AL24" s="1"/>
       <c r="AM24" s="1"/>
       <c r="AN24" s="1"/>
@@ -4946,8 +5891,14 @@
         <v>250</v>
       </c>
       <c r="AI25" s="1"/>
-      <c r="AJ25" s="1"/>
-      <c r="AK25" s="1"/>
+      <c r="AJ25" s="15">
+        <f>VLOOKUP(A25,[2]Лист1!$A:$B,2,0)</f>
+        <v>1001035277058</v>
+      </c>
+      <c r="AK25" s="1">
+        <f>VLOOKUP(AJ25,[3]машины!$D:$D,1,0)</f>
+        <v>1001035277058</v>
+      </c>
       <c r="AL25" s="1"/>
       <c r="AM25" s="1"/>
       <c r="AN25" s="1"/>
@@ -5055,8 +6006,14 @@
         <v>45</v>
       </c>
       <c r="AI26" s="1"/>
-      <c r="AJ26" s="1"/>
-      <c r="AK26" s="1"/>
+      <c r="AJ26" s="15">
+        <f>VLOOKUP(A26,[2]Лист1!$A:$B,2,0)</f>
+        <v>1001035277059</v>
+      </c>
+      <c r="AK26" s="1">
+        <f>VLOOKUP(AJ26,[3]машины!$D:$D,1,0)</f>
+        <v>1001035277059</v>
+      </c>
       <c r="AL26" s="1"/>
       <c r="AM26" s="1"/>
       <c r="AN26" s="1"/>
@@ -5164,8 +6121,14 @@
         <v>122.99999999999999</v>
       </c>
       <c r="AI27" s="1"/>
-      <c r="AJ27" s="1"/>
-      <c r="AK27" s="1"/>
+      <c r="AJ27" s="15">
+        <f>VLOOKUP(A27,[2]Лист1!$A:$B,2,0)</f>
+        <v>1001022377067</v>
+      </c>
+      <c r="AK27" s="1">
+        <f>VLOOKUP(AJ27,[3]машины!$D:$D,1,0)</f>
+        <v>1001022377067</v>
+      </c>
       <c r="AL27" s="1"/>
       <c r="AM27" s="1"/>
       <c r="AN27" s="1"/>
@@ -5277,8 +6240,14 @@
         <v>500</v>
       </c>
       <c r="AI28" s="1"/>
-      <c r="AJ28" s="1"/>
-      <c r="AK28" s="1"/>
+      <c r="AJ28" s="15">
+        <f>VLOOKUP(A28,[2]Лист1!$A:$B,2,0)</f>
+        <v>1001022377070</v>
+      </c>
+      <c r="AK28" s="1">
+        <f>VLOOKUP(AJ28,[3]машины!$D:$D,1,0)</f>
+        <v>1001022377070</v>
+      </c>
       <c r="AL28" s="1"/>
       <c r="AM28" s="1"/>
       <c r="AN28" s="1"/>
@@ -5390,8 +6359,14 @@
         <v>140</v>
       </c>
       <c r="AI29" s="1"/>
-      <c r="AJ29" s="1"/>
-      <c r="AK29" s="1"/>
+      <c r="AJ29" s="15">
+        <f>VLOOKUP(A29,[2]Лист1!$A:$B,2,0)</f>
+        <v>1001022657075</v>
+      </c>
+      <c r="AK29" s="1">
+        <f>VLOOKUP(AJ29,[3]машины!$D:$D,1,0)</f>
+        <v>1001022657075</v>
+      </c>
       <c r="AL29" s="1"/>
       <c r="AM29" s="1"/>
       <c r="AN29" s="1"/>
@@ -5499,8 +6474,14 @@
         <v>96</v>
       </c>
       <c r="AI30" s="1"/>
-      <c r="AJ30" s="1"/>
-      <c r="AK30" s="1"/>
+      <c r="AJ30" s="15">
+        <f>VLOOKUP(A30,[2]Лист1!$A:$B,2,0)</f>
+        <v>1001025507077</v>
+      </c>
+      <c r="AK30" s="1" t="e">
+        <f>VLOOKUP(AJ30,[3]машины!$D:$D,1,0)</f>
+        <v>#N/A</v>
+      </c>
       <c r="AL30" s="1"/>
       <c r="AM30" s="1"/>
       <c r="AN30" s="1"/>
@@ -5608,8 +6589,14 @@
         <v>57.599999999999994</v>
       </c>
       <c r="AI31" s="1"/>
-      <c r="AJ31" s="1"/>
-      <c r="AK31" s="1"/>
+      <c r="AJ31" s="15">
+        <f>VLOOKUP(A31,[2]Лист1!$A:$B,2,0)</f>
+        <v>1001223297104</v>
+      </c>
+      <c r="AK31" s="1">
+        <f>VLOOKUP(AJ31,[3]машины!$D:$D,1,0)</f>
+        <v>1001223297104</v>
+      </c>
       <c r="AL31" s="1"/>
       <c r="AM31" s="1"/>
       <c r="AN31" s="1"/>
@@ -5721,8 +6708,14 @@
         <v>540</v>
       </c>
       <c r="AI32" s="1"/>
-      <c r="AJ32" s="1"/>
-      <c r="AK32" s="1"/>
+      <c r="AJ32" s="15">
+        <f>VLOOKUP(A32,[2]Лист1!$A:$B,2,0)</f>
+        <v>1001085637187</v>
+      </c>
+      <c r="AK32" s="1">
+        <f>VLOOKUP(AJ32,[3]машины!$D:$D,1,0)</f>
+        <v>1001085637187</v>
+      </c>
       <c r="AL32" s="1"/>
       <c r="AM32" s="1"/>
       <c r="AN32" s="1"/>
@@ -5828,8 +6821,14 @@
         <v>89.600000000000009</v>
       </c>
       <c r="AI33" s="1"/>
-      <c r="AJ33" s="1"/>
-      <c r="AK33" s="1"/>
+      <c r="AJ33" s="15">
+        <f>VLOOKUP(A33,[2]Лист1!$A:$B,2,0)</f>
+        <v>1001303987333</v>
+      </c>
+      <c r="AK33" s="1" t="e">
+        <f>VLOOKUP(AJ33,[3]машины!$D:$D,1,0)</f>
+        <v>#N/A</v>
+      </c>
       <c r="AL33" s="1"/>
       <c r="AM33" s="1"/>
       <c r="AN33" s="1"/>
@@ -5931,8 +6930,14 @@
         <v>50</v>
       </c>
       <c r="AI34" s="1"/>
-      <c r="AJ34" s="1"/>
-      <c r="AK34" s="1"/>
+      <c r="AJ34" s="15">
+        <f>VLOOKUP(A34,[2]Лист1!$A:$B,2,0)</f>
+        <v>1001012426220</v>
+      </c>
+      <c r="AK34" s="1" t="e">
+        <f>VLOOKUP(AJ34,[3]машины!$D:$D,1,0)</f>
+        <v>#N/A</v>
+      </c>
       <c r="AL34" s="1"/>
       <c r="AM34" s="1"/>
       <c r="AN34" s="1"/>
@@ -6034,8 +7039,14 @@
         <v>128</v>
       </c>
       <c r="AI35" s="1"/>
-      <c r="AJ35" s="1"/>
-      <c r="AK35" s="1"/>
+      <c r="AJ35" s="15">
+        <f>VLOOKUP(A35,[2]Лист1!$A:$B,2,0)</f>
+        <v>1001012426268</v>
+      </c>
+      <c r="AK35" s="1">
+        <f>VLOOKUP(AJ35,[3]машины!$D:$D,1,0)</f>
+        <v>1001012426268</v>
+      </c>
       <c r="AL35" s="1"/>
       <c r="AM35" s="1"/>
       <c r="AN35" s="1"/>
@@ -6134,8 +7145,14 @@
         <v>0</v>
       </c>
       <c r="AI36" s="1"/>
-      <c r="AJ36" s="1"/>
-      <c r="AK36" s="1"/>
+      <c r="AJ36" s="15">
+        <f>VLOOKUP(A36,[2]Лист1!$A:$B,2,0)</f>
+        <v>1001301777332</v>
+      </c>
+      <c r="AK36" s="1" t="e">
+        <f>VLOOKUP(AJ36,[3]машины!$D:$D,1,0)</f>
+        <v>#N/A</v>
+      </c>
       <c r="AL36" s="1"/>
       <c r="AM36" s="1"/>
       <c r="AN36" s="1"/>
@@ -6186,7 +7203,7 @@
       <c r="AG37" s="1"/>
       <c r="AH37" s="1"/>
       <c r="AI37" s="1"/>
-      <c r="AJ37" s="1"/>
+      <c r="AJ37" s="15"/>
       <c r="AK37" s="1"/>
       <c r="AL37" s="1"/>
       <c r="AM37" s="1"/>
@@ -6238,7 +7255,7 @@
       <c r="AG38" s="1"/>
       <c r="AH38" s="1"/>
       <c r="AI38" s="1"/>
-      <c r="AJ38" s="1"/>
+      <c r="AJ38" s="15"/>
       <c r="AK38" s="1"/>
       <c r="AL38" s="1"/>
       <c r="AM38" s="1"/>
@@ -6290,7 +7307,7 @@
       <c r="AG39" s="1"/>
       <c r="AH39" s="1"/>
       <c r="AI39" s="1"/>
-      <c r="AJ39" s="1"/>
+      <c r="AJ39" s="15"/>
       <c r="AK39" s="1"/>
       <c r="AL39" s="1"/>
       <c r="AM39" s="1"/>
@@ -6342,7 +7359,7 @@
       <c r="AG40" s="1"/>
       <c r="AH40" s="1"/>
       <c r="AI40" s="1"/>
-      <c r="AJ40" s="1"/>
+      <c r="AJ40" s="15"/>
       <c r="AK40" s="1"/>
       <c r="AL40" s="1"/>
       <c r="AM40" s="1"/>
@@ -6394,7 +7411,7 @@
       <c r="AG41" s="1"/>
       <c r="AH41" s="1"/>
       <c r="AI41" s="1"/>
-      <c r="AJ41" s="1"/>
+      <c r="AJ41" s="15"/>
       <c r="AK41" s="1"/>
       <c r="AL41" s="1"/>
       <c r="AM41" s="1"/>
@@ -6446,7 +7463,7 @@
       <c r="AG42" s="1"/>
       <c r="AH42" s="1"/>
       <c r="AI42" s="1"/>
-      <c r="AJ42" s="1"/>
+      <c r="AJ42" s="15"/>
       <c r="AK42" s="1"/>
       <c r="AL42" s="1"/>
       <c r="AM42" s="1"/>
@@ -6498,7 +7515,7 @@
       <c r="AG43" s="1"/>
       <c r="AH43" s="1"/>
       <c r="AI43" s="1"/>
-      <c r="AJ43" s="1"/>
+      <c r="AJ43" s="15"/>
       <c r="AK43" s="1"/>
       <c r="AL43" s="1"/>
       <c r="AM43" s="1"/>
@@ -6550,7 +7567,7 @@
       <c r="AG44" s="1"/>
       <c r="AH44" s="1"/>
       <c r="AI44" s="1"/>
-      <c r="AJ44" s="1"/>
+      <c r="AJ44" s="15"/>
       <c r="AK44" s="1"/>
       <c r="AL44" s="1"/>
       <c r="AM44" s="1"/>
@@ -6602,7 +7619,7 @@
       <c r="AG45" s="1"/>
       <c r="AH45" s="1"/>
       <c r="AI45" s="1"/>
-      <c r="AJ45" s="1"/>
+      <c r="AJ45" s="15"/>
       <c r="AK45" s="1"/>
       <c r="AL45" s="1"/>
       <c r="AM45" s="1"/>
@@ -6654,7 +7671,7 @@
       <c r="AG46" s="1"/>
       <c r="AH46" s="1"/>
       <c r="AI46" s="1"/>
-      <c r="AJ46" s="1"/>
+      <c r="AJ46" s="15"/>
       <c r="AK46" s="1"/>
       <c r="AL46" s="1"/>
       <c r="AM46" s="1"/>
@@ -6706,7 +7723,7 @@
       <c r="AG47" s="1"/>
       <c r="AH47" s="1"/>
       <c r="AI47" s="1"/>
-      <c r="AJ47" s="1"/>
+      <c r="AJ47" s="15"/>
       <c r="AK47" s="1"/>
       <c r="AL47" s="1"/>
       <c r="AM47" s="1"/>
@@ -6758,7 +7775,7 @@
       <c r="AG48" s="1"/>
       <c r="AH48" s="1"/>
       <c r="AI48" s="1"/>
-      <c r="AJ48" s="1"/>
+      <c r="AJ48" s="15"/>
       <c r="AK48" s="1"/>
       <c r="AL48" s="1"/>
       <c r="AM48" s="1"/>
@@ -6810,7 +7827,7 @@
       <c r="AG49" s="1"/>
       <c r="AH49" s="1"/>
       <c r="AI49" s="1"/>
-      <c r="AJ49" s="1"/>
+      <c r="AJ49" s="15"/>
       <c r="AK49" s="1"/>
       <c r="AL49" s="1"/>
       <c r="AM49" s="1"/>
@@ -6862,7 +7879,7 @@
       <c r="AG50" s="1"/>
       <c r="AH50" s="1"/>
       <c r="AI50" s="1"/>
-      <c r="AJ50" s="1"/>
+      <c r="AJ50" s="15"/>
       <c r="AK50" s="1"/>
       <c r="AL50" s="1"/>
       <c r="AM50" s="1"/>
@@ -6914,7 +7931,7 @@
       <c r="AG51" s="1"/>
       <c r="AH51" s="1"/>
       <c r="AI51" s="1"/>
-      <c r="AJ51" s="1"/>
+      <c r="AJ51" s="15"/>
       <c r="AK51" s="1"/>
       <c r="AL51" s="1"/>
       <c r="AM51" s="1"/>
@@ -6966,7 +7983,7 @@
       <c r="AG52" s="1"/>
       <c r="AH52" s="1"/>
       <c r="AI52" s="1"/>
-      <c r="AJ52" s="1"/>
+      <c r="AJ52" s="15"/>
       <c r="AK52" s="1"/>
       <c r="AL52" s="1"/>
       <c r="AM52" s="1"/>
@@ -7018,7 +8035,7 @@
       <c r="AG53" s="1"/>
       <c r="AH53" s="1"/>
       <c r="AI53" s="1"/>
-      <c r="AJ53" s="1"/>
+      <c r="AJ53" s="15"/>
       <c r="AK53" s="1"/>
       <c r="AL53" s="1"/>
       <c r="AM53" s="1"/>
@@ -7070,7 +8087,7 @@
       <c r="AG54" s="1"/>
       <c r="AH54" s="1"/>
       <c r="AI54" s="1"/>
-      <c r="AJ54" s="1"/>
+      <c r="AJ54" s="15"/>
       <c r="AK54" s="1"/>
       <c r="AL54" s="1"/>
       <c r="AM54" s="1"/>
@@ -7122,7 +8139,7 @@
       <c r="AG55" s="1"/>
       <c r="AH55" s="1"/>
       <c r="AI55" s="1"/>
-      <c r="AJ55" s="1"/>
+      <c r="AJ55" s="15"/>
       <c r="AK55" s="1"/>
       <c r="AL55" s="1"/>
       <c r="AM55" s="1"/>
@@ -7174,7 +8191,7 @@
       <c r="AG56" s="1"/>
       <c r="AH56" s="1"/>
       <c r="AI56" s="1"/>
-      <c r="AJ56" s="1"/>
+      <c r="AJ56" s="15"/>
       <c r="AK56" s="1"/>
       <c r="AL56" s="1"/>
       <c r="AM56" s="1"/>
@@ -7226,7 +8243,7 @@
       <c r="AG57" s="1"/>
       <c r="AH57" s="1"/>
       <c r="AI57" s="1"/>
-      <c r="AJ57" s="1"/>
+      <c r="AJ57" s="15"/>
       <c r="AK57" s="1"/>
       <c r="AL57" s="1"/>
       <c r="AM57" s="1"/>
@@ -7278,7 +8295,7 @@
       <c r="AG58" s="1"/>
       <c r="AH58" s="1"/>
       <c r="AI58" s="1"/>
-      <c r="AJ58" s="1"/>
+      <c r="AJ58" s="15"/>
       <c r="AK58" s="1"/>
       <c r="AL58" s="1"/>
       <c r="AM58" s="1"/>
@@ -7330,7 +8347,7 @@
       <c r="AG59" s="1"/>
       <c r="AH59" s="1"/>
       <c r="AI59" s="1"/>
-      <c r="AJ59" s="1"/>
+      <c r="AJ59" s="15"/>
       <c r="AK59" s="1"/>
       <c r="AL59" s="1"/>
       <c r="AM59" s="1"/>
@@ -7382,7 +8399,7 @@
       <c r="AG60" s="1"/>
       <c r="AH60" s="1"/>
       <c r="AI60" s="1"/>
-      <c r="AJ60" s="1"/>
+      <c r="AJ60" s="15"/>
       <c r="AK60" s="1"/>
       <c r="AL60" s="1"/>
       <c r="AM60" s="1"/>
@@ -7434,7 +8451,7 @@
       <c r="AG61" s="1"/>
       <c r="AH61" s="1"/>
       <c r="AI61" s="1"/>
-      <c r="AJ61" s="1"/>
+      <c r="AJ61" s="15"/>
       <c r="AK61" s="1"/>
       <c r="AL61" s="1"/>
       <c r="AM61" s="1"/>
@@ -7486,7 +8503,7 @@
       <c r="AG62" s="1"/>
       <c r="AH62" s="1"/>
       <c r="AI62" s="1"/>
-      <c r="AJ62" s="1"/>
+      <c r="AJ62" s="15"/>
       <c r="AK62" s="1"/>
       <c r="AL62" s="1"/>
       <c r="AM62" s="1"/>
@@ -7538,7 +8555,7 @@
       <c r="AG63" s="1"/>
       <c r="AH63" s="1"/>
       <c r="AI63" s="1"/>
-      <c r="AJ63" s="1"/>
+      <c r="AJ63" s="15"/>
       <c r="AK63" s="1"/>
       <c r="AL63" s="1"/>
       <c r="AM63" s="1"/>
@@ -7590,7 +8607,7 @@
       <c r="AG64" s="1"/>
       <c r="AH64" s="1"/>
       <c r="AI64" s="1"/>
-      <c r="AJ64" s="1"/>
+      <c r="AJ64" s="15"/>
       <c r="AK64" s="1"/>
       <c r="AL64" s="1"/>
       <c r="AM64" s="1"/>
@@ -7642,7 +8659,7 @@
       <c r="AG65" s="1"/>
       <c r="AH65" s="1"/>
       <c r="AI65" s="1"/>
-      <c r="AJ65" s="1"/>
+      <c r="AJ65" s="15"/>
       <c r="AK65" s="1"/>
       <c r="AL65" s="1"/>
       <c r="AM65" s="1"/>
@@ -7694,7 +8711,7 @@
       <c r="AG66" s="1"/>
       <c r="AH66" s="1"/>
       <c r="AI66" s="1"/>
-      <c r="AJ66" s="1"/>
+      <c r="AJ66" s="15"/>
       <c r="AK66" s="1"/>
       <c r="AL66" s="1"/>
       <c r="AM66" s="1"/>
@@ -7746,7 +8763,7 @@
       <c r="AG67" s="1"/>
       <c r="AH67" s="1"/>
       <c r="AI67" s="1"/>
-      <c r="AJ67" s="1"/>
+      <c r="AJ67" s="15"/>
       <c r="AK67" s="1"/>
       <c r="AL67" s="1"/>
       <c r="AM67" s="1"/>
@@ -7798,7 +8815,7 @@
       <c r="AG68" s="1"/>
       <c r="AH68" s="1"/>
       <c r="AI68" s="1"/>
-      <c r="AJ68" s="1"/>
+      <c r="AJ68" s="15"/>
       <c r="AK68" s="1"/>
       <c r="AL68" s="1"/>
       <c r="AM68" s="1"/>
@@ -7850,7 +8867,7 @@
       <c r="AG69" s="1"/>
       <c r="AH69" s="1"/>
       <c r="AI69" s="1"/>
-      <c r="AJ69" s="1"/>
+      <c r="AJ69" s="15"/>
       <c r="AK69" s="1"/>
       <c r="AL69" s="1"/>
       <c r="AM69" s="1"/>
@@ -7902,7 +8919,7 @@
       <c r="AG70" s="1"/>
       <c r="AH70" s="1"/>
       <c r="AI70" s="1"/>
-      <c r="AJ70" s="1"/>
+      <c r="AJ70" s="15"/>
       <c r="AK70" s="1"/>
       <c r="AL70" s="1"/>
       <c r="AM70" s="1"/>
@@ -7954,7 +8971,7 @@
       <c r="AG71" s="1"/>
       <c r="AH71" s="1"/>
       <c r="AI71" s="1"/>
-      <c r="AJ71" s="1"/>
+      <c r="AJ71" s="15"/>
       <c r="AK71" s="1"/>
       <c r="AL71" s="1"/>
       <c r="AM71" s="1"/>
@@ -8006,7 +9023,7 @@
       <c r="AG72" s="1"/>
       <c r="AH72" s="1"/>
       <c r="AI72" s="1"/>
-      <c r="AJ72" s="1"/>
+      <c r="AJ72" s="15"/>
       <c r="AK72" s="1"/>
       <c r="AL72" s="1"/>
       <c r="AM72" s="1"/>
@@ -8058,7 +9075,7 @@
       <c r="AG73" s="1"/>
       <c r="AH73" s="1"/>
       <c r="AI73" s="1"/>
-      <c r="AJ73" s="1"/>
+      <c r="AJ73" s="15"/>
       <c r="AK73" s="1"/>
       <c r="AL73" s="1"/>
       <c r="AM73" s="1"/>
@@ -8110,7 +9127,7 @@
       <c r="AG74" s="1"/>
       <c r="AH74" s="1"/>
       <c r="AI74" s="1"/>
-      <c r="AJ74" s="1"/>
+      <c r="AJ74" s="15"/>
       <c r="AK74" s="1"/>
       <c r="AL74" s="1"/>
       <c r="AM74" s="1"/>
@@ -8162,7 +9179,7 @@
       <c r="AG75" s="1"/>
       <c r="AH75" s="1"/>
       <c r="AI75" s="1"/>
-      <c r="AJ75" s="1"/>
+      <c r="AJ75" s="15"/>
       <c r="AK75" s="1"/>
       <c r="AL75" s="1"/>
       <c r="AM75" s="1"/>
@@ -8214,7 +9231,7 @@
       <c r="AG76" s="1"/>
       <c r="AH76" s="1"/>
       <c r="AI76" s="1"/>
-      <c r="AJ76" s="1"/>
+      <c r="AJ76" s="15"/>
       <c r="AK76" s="1"/>
       <c r="AL76" s="1"/>
       <c r="AM76" s="1"/>
@@ -8266,7 +9283,7 @@
       <c r="AG77" s="1"/>
       <c r="AH77" s="1"/>
       <c r="AI77" s="1"/>
-      <c r="AJ77" s="1"/>
+      <c r="AJ77" s="15"/>
       <c r="AK77" s="1"/>
       <c r="AL77" s="1"/>
       <c r="AM77" s="1"/>
@@ -8318,7 +9335,7 @@
       <c r="AG78" s="1"/>
       <c r="AH78" s="1"/>
       <c r="AI78" s="1"/>
-      <c r="AJ78" s="1"/>
+      <c r="AJ78" s="15"/>
       <c r="AK78" s="1"/>
       <c r="AL78" s="1"/>
       <c r="AM78" s="1"/>
@@ -8370,7 +9387,7 @@
       <c r="AG79" s="1"/>
       <c r="AH79" s="1"/>
       <c r="AI79" s="1"/>
-      <c r="AJ79" s="1"/>
+      <c r="AJ79" s="15"/>
       <c r="AK79" s="1"/>
       <c r="AL79" s="1"/>
       <c r="AM79" s="1"/>
@@ -8422,7 +9439,7 @@
       <c r="AG80" s="1"/>
       <c r="AH80" s="1"/>
       <c r="AI80" s="1"/>
-      <c r="AJ80" s="1"/>
+      <c r="AJ80" s="15"/>
       <c r="AK80" s="1"/>
       <c r="AL80" s="1"/>
       <c r="AM80" s="1"/>
@@ -8474,7 +9491,7 @@
       <c r="AG81" s="1"/>
       <c r="AH81" s="1"/>
       <c r="AI81" s="1"/>
-      <c r="AJ81" s="1"/>
+      <c r="AJ81" s="15"/>
       <c r="AK81" s="1"/>
       <c r="AL81" s="1"/>
       <c r="AM81" s="1"/>
@@ -8526,7 +9543,7 @@
       <c r="AG82" s="1"/>
       <c r="AH82" s="1"/>
       <c r="AI82" s="1"/>
-      <c r="AJ82" s="1"/>
+      <c r="AJ82" s="15"/>
       <c r="AK82" s="1"/>
       <c r="AL82" s="1"/>
       <c r="AM82" s="1"/>
@@ -8578,7 +9595,7 @@
       <c r="AG83" s="1"/>
       <c r="AH83" s="1"/>
       <c r="AI83" s="1"/>
-      <c r="AJ83" s="1"/>
+      <c r="AJ83" s="15"/>
       <c r="AK83" s="1"/>
       <c r="AL83" s="1"/>
       <c r="AM83" s="1"/>
@@ -8630,7 +9647,7 @@
       <c r="AG84" s="1"/>
       <c r="AH84" s="1"/>
       <c r="AI84" s="1"/>
-      <c r="AJ84" s="1"/>
+      <c r="AJ84" s="15"/>
       <c r="AK84" s="1"/>
       <c r="AL84" s="1"/>
       <c r="AM84" s="1"/>
@@ -8682,7 +9699,7 @@
       <c r="AG85" s="1"/>
       <c r="AH85" s="1"/>
       <c r="AI85" s="1"/>
-      <c r="AJ85" s="1"/>
+      <c r="AJ85" s="15"/>
       <c r="AK85" s="1"/>
       <c r="AL85" s="1"/>
       <c r="AM85" s="1"/>
@@ -8734,7 +9751,7 @@
       <c r="AG86" s="1"/>
       <c r="AH86" s="1"/>
       <c r="AI86" s="1"/>
-      <c r="AJ86" s="1"/>
+      <c r="AJ86" s="15"/>
       <c r="AK86" s="1"/>
       <c r="AL86" s="1"/>
       <c r="AM86" s="1"/>
@@ -8786,7 +9803,7 @@
       <c r="AG87" s="1"/>
       <c r="AH87" s="1"/>
       <c r="AI87" s="1"/>
-      <c r="AJ87" s="1"/>
+      <c r="AJ87" s="15"/>
       <c r="AK87" s="1"/>
       <c r="AL87" s="1"/>
       <c r="AM87" s="1"/>
@@ -8838,7 +9855,7 @@
       <c r="AG88" s="1"/>
       <c r="AH88" s="1"/>
       <c r="AI88" s="1"/>
-      <c r="AJ88" s="1"/>
+      <c r="AJ88" s="15"/>
       <c r="AK88" s="1"/>
       <c r="AL88" s="1"/>
       <c r="AM88" s="1"/>
@@ -8890,7 +9907,7 @@
       <c r="AG89" s="1"/>
       <c r="AH89" s="1"/>
       <c r="AI89" s="1"/>
-      <c r="AJ89" s="1"/>
+      <c r="AJ89" s="15"/>
       <c r="AK89" s="1"/>
       <c r="AL89" s="1"/>
       <c r="AM89" s="1"/>
@@ -8942,7 +9959,7 @@
       <c r="AG90" s="1"/>
       <c r="AH90" s="1"/>
       <c r="AI90" s="1"/>
-      <c r="AJ90" s="1"/>
+      <c r="AJ90" s="15"/>
       <c r="AK90" s="1"/>
       <c r="AL90" s="1"/>
       <c r="AM90" s="1"/>
@@ -8994,7 +10011,7 @@
       <c r="AG91" s="1"/>
       <c r="AH91" s="1"/>
       <c r="AI91" s="1"/>
-      <c r="AJ91" s="1"/>
+      <c r="AJ91" s="15"/>
       <c r="AK91" s="1"/>
       <c r="AL91" s="1"/>
       <c r="AM91" s="1"/>
@@ -9046,7 +10063,7 @@
       <c r="AG92" s="1"/>
       <c r="AH92" s="1"/>
       <c r="AI92" s="1"/>
-      <c r="AJ92" s="1"/>
+      <c r="AJ92" s="15"/>
       <c r="AK92" s="1"/>
       <c r="AL92" s="1"/>
       <c r="AM92" s="1"/>
@@ -9098,7 +10115,7 @@
       <c r="AG93" s="1"/>
       <c r="AH93" s="1"/>
       <c r="AI93" s="1"/>
-      <c r="AJ93" s="1"/>
+      <c r="AJ93" s="15"/>
       <c r="AK93" s="1"/>
       <c r="AL93" s="1"/>
       <c r="AM93" s="1"/>
@@ -9150,7 +10167,7 @@
       <c r="AG94" s="1"/>
       <c r="AH94" s="1"/>
       <c r="AI94" s="1"/>
-      <c r="AJ94" s="1"/>
+      <c r="AJ94" s="15"/>
       <c r="AK94" s="1"/>
       <c r="AL94" s="1"/>
       <c r="AM94" s="1"/>
@@ -9202,7 +10219,7 @@
       <c r="AG95" s="1"/>
       <c r="AH95" s="1"/>
       <c r="AI95" s="1"/>
-      <c r="AJ95" s="1"/>
+      <c r="AJ95" s="15"/>
       <c r="AK95" s="1"/>
       <c r="AL95" s="1"/>
       <c r="AM95" s="1"/>
@@ -9254,7 +10271,7 @@
       <c r="AG96" s="1"/>
       <c r="AH96" s="1"/>
       <c r="AI96" s="1"/>
-      <c r="AJ96" s="1"/>
+      <c r="AJ96" s="15"/>
       <c r="AK96" s="1"/>
       <c r="AL96" s="1"/>
       <c r="AM96" s="1"/>
@@ -9306,7 +10323,7 @@
       <c r="AG97" s="1"/>
       <c r="AH97" s="1"/>
       <c r="AI97" s="1"/>
-      <c r="AJ97" s="1"/>
+      <c r="AJ97" s="15"/>
       <c r="AK97" s="1"/>
       <c r="AL97" s="1"/>
       <c r="AM97" s="1"/>
@@ -9358,7 +10375,7 @@
       <c r="AG98" s="1"/>
       <c r="AH98" s="1"/>
       <c r="AI98" s="1"/>
-      <c r="AJ98" s="1"/>
+      <c r="AJ98" s="15"/>
       <c r="AK98" s="1"/>
       <c r="AL98" s="1"/>
       <c r="AM98" s="1"/>
@@ -9410,7 +10427,7 @@
       <c r="AG99" s="1"/>
       <c r="AH99" s="1"/>
       <c r="AI99" s="1"/>
-      <c r="AJ99" s="1"/>
+      <c r="AJ99" s="15"/>
       <c r="AK99" s="1"/>
       <c r="AL99" s="1"/>
       <c r="AM99" s="1"/>
@@ -9462,7 +10479,7 @@
       <c r="AG100" s="1"/>
       <c r="AH100" s="1"/>
       <c r="AI100" s="1"/>
-      <c r="AJ100" s="1"/>
+      <c r="AJ100" s="15"/>
       <c r="AK100" s="1"/>
       <c r="AL100" s="1"/>
       <c r="AM100" s="1"/>
@@ -9514,7 +10531,7 @@
       <c r="AG101" s="1"/>
       <c r="AH101" s="1"/>
       <c r="AI101" s="1"/>
-      <c r="AJ101" s="1"/>
+      <c r="AJ101" s="15"/>
       <c r="AK101" s="1"/>
       <c r="AL101" s="1"/>
       <c r="AM101" s="1"/>
@@ -9566,7 +10583,7 @@
       <c r="AG102" s="1"/>
       <c r="AH102" s="1"/>
       <c r="AI102" s="1"/>
-      <c r="AJ102" s="1"/>
+      <c r="AJ102" s="15"/>
       <c r="AK102" s="1"/>
       <c r="AL102" s="1"/>
       <c r="AM102" s="1"/>
@@ -9618,7 +10635,7 @@
       <c r="AG103" s="1"/>
       <c r="AH103" s="1"/>
       <c r="AI103" s="1"/>
-      <c r="AJ103" s="1"/>
+      <c r="AJ103" s="15"/>
       <c r="AK103" s="1"/>
       <c r="AL103" s="1"/>
       <c r="AM103" s="1"/>
@@ -9670,7 +10687,7 @@
       <c r="AG104" s="1"/>
       <c r="AH104" s="1"/>
       <c r="AI104" s="1"/>
-      <c r="AJ104" s="1"/>
+      <c r="AJ104" s="15"/>
       <c r="AK104" s="1"/>
       <c r="AL104" s="1"/>
       <c r="AM104" s="1"/>
@@ -9722,7 +10739,7 @@
       <c r="AG105" s="1"/>
       <c r="AH105" s="1"/>
       <c r="AI105" s="1"/>
-      <c r="AJ105" s="1"/>
+      <c r="AJ105" s="15"/>
       <c r="AK105" s="1"/>
       <c r="AL105" s="1"/>
       <c r="AM105" s="1"/>
@@ -9774,7 +10791,7 @@
       <c r="AG106" s="1"/>
       <c r="AH106" s="1"/>
       <c r="AI106" s="1"/>
-      <c r="AJ106" s="1"/>
+      <c r="AJ106" s="15"/>
       <c r="AK106" s="1"/>
       <c r="AL106" s="1"/>
       <c r="AM106" s="1"/>
@@ -9826,7 +10843,7 @@
       <c r="AG107" s="1"/>
       <c r="AH107" s="1"/>
       <c r="AI107" s="1"/>
-      <c r="AJ107" s="1"/>
+      <c r="AJ107" s="15"/>
       <c r="AK107" s="1"/>
       <c r="AL107" s="1"/>
       <c r="AM107" s="1"/>
@@ -9878,7 +10895,7 @@
       <c r="AG108" s="1"/>
       <c r="AH108" s="1"/>
       <c r="AI108" s="1"/>
-      <c r="AJ108" s="1"/>
+      <c r="AJ108" s="15"/>
       <c r="AK108" s="1"/>
       <c r="AL108" s="1"/>
       <c r="AM108" s="1"/>
@@ -9930,7 +10947,7 @@
       <c r="AG109" s="1"/>
       <c r="AH109" s="1"/>
       <c r="AI109" s="1"/>
-      <c r="AJ109" s="1"/>
+      <c r="AJ109" s="15"/>
       <c r="AK109" s="1"/>
       <c r="AL109" s="1"/>
       <c r="AM109" s="1"/>
@@ -9982,7 +10999,7 @@
       <c r="AG110" s="1"/>
       <c r="AH110" s="1"/>
       <c r="AI110" s="1"/>
-      <c r="AJ110" s="1"/>
+      <c r="AJ110" s="15"/>
       <c r="AK110" s="1"/>
       <c r="AL110" s="1"/>
       <c r="AM110" s="1"/>
@@ -10034,7 +11051,7 @@
       <c r="AG111" s="1"/>
       <c r="AH111" s="1"/>
       <c r="AI111" s="1"/>
-      <c r="AJ111" s="1"/>
+      <c r="AJ111" s="15"/>
       <c r="AK111" s="1"/>
       <c r="AL111" s="1"/>
       <c r="AM111" s="1"/>
@@ -10086,7 +11103,7 @@
       <c r="AG112" s="1"/>
       <c r="AH112" s="1"/>
       <c r="AI112" s="1"/>
-      <c r="AJ112" s="1"/>
+      <c r="AJ112" s="15"/>
       <c r="AK112" s="1"/>
       <c r="AL112" s="1"/>
       <c r="AM112" s="1"/>
@@ -10138,7 +11155,7 @@
       <c r="AG113" s="1"/>
       <c r="AH113" s="1"/>
       <c r="AI113" s="1"/>
-      <c r="AJ113" s="1"/>
+      <c r="AJ113" s="15"/>
       <c r="AK113" s="1"/>
       <c r="AL113" s="1"/>
       <c r="AM113" s="1"/>
@@ -10190,7 +11207,7 @@
       <c r="AG114" s="1"/>
       <c r="AH114" s="1"/>
       <c r="AI114" s="1"/>
-      <c r="AJ114" s="1"/>
+      <c r="AJ114" s="15"/>
       <c r="AK114" s="1"/>
       <c r="AL114" s="1"/>
       <c r="AM114" s="1"/>
@@ -10242,7 +11259,7 @@
       <c r="AG115" s="1"/>
       <c r="AH115" s="1"/>
       <c r="AI115" s="1"/>
-      <c r="AJ115" s="1"/>
+      <c r="AJ115" s="15"/>
       <c r="AK115" s="1"/>
       <c r="AL115" s="1"/>
       <c r="AM115" s="1"/>
@@ -10294,7 +11311,7 @@
       <c r="AG116" s="1"/>
       <c r="AH116" s="1"/>
       <c r="AI116" s="1"/>
-      <c r="AJ116" s="1"/>
+      <c r="AJ116" s="15"/>
       <c r="AK116" s="1"/>
       <c r="AL116" s="1"/>
       <c r="AM116" s="1"/>
@@ -10346,7 +11363,7 @@
       <c r="AG117" s="1"/>
       <c r="AH117" s="1"/>
       <c r="AI117" s="1"/>
-      <c r="AJ117" s="1"/>
+      <c r="AJ117" s="15"/>
       <c r="AK117" s="1"/>
       <c r="AL117" s="1"/>
       <c r="AM117" s="1"/>
@@ -10398,7 +11415,7 @@
       <c r="AG118" s="1"/>
       <c r="AH118" s="1"/>
       <c r="AI118" s="1"/>
-      <c r="AJ118" s="1"/>
+      <c r="AJ118" s="15"/>
       <c r="AK118" s="1"/>
       <c r="AL118" s="1"/>
       <c r="AM118" s="1"/>
@@ -10450,7 +11467,7 @@
       <c r="AG119" s="1"/>
       <c r="AH119" s="1"/>
       <c r="AI119" s="1"/>
-      <c r="AJ119" s="1"/>
+      <c r="AJ119" s="15"/>
       <c r="AK119" s="1"/>
       <c r="AL119" s="1"/>
       <c r="AM119" s="1"/>
@@ -10502,7 +11519,7 @@
       <c r="AG120" s="1"/>
       <c r="AH120" s="1"/>
       <c r="AI120" s="1"/>
-      <c r="AJ120" s="1"/>
+      <c r="AJ120" s="15"/>
       <c r="AK120" s="1"/>
       <c r="AL120" s="1"/>
       <c r="AM120" s="1"/>
@@ -10554,7 +11571,7 @@
       <c r="AG121" s="1"/>
       <c r="AH121" s="1"/>
       <c r="AI121" s="1"/>
-      <c r="AJ121" s="1"/>
+      <c r="AJ121" s="15"/>
       <c r="AK121" s="1"/>
       <c r="AL121" s="1"/>
       <c r="AM121" s="1"/>
@@ -10606,7 +11623,7 @@
       <c r="AG122" s="1"/>
       <c r="AH122" s="1"/>
       <c r="AI122" s="1"/>
-      <c r="AJ122" s="1"/>
+      <c r="AJ122" s="15"/>
       <c r="AK122" s="1"/>
       <c r="AL122" s="1"/>
       <c r="AM122" s="1"/>
@@ -10658,7 +11675,7 @@
       <c r="AG123" s="1"/>
       <c r="AH123" s="1"/>
       <c r="AI123" s="1"/>
-      <c r="AJ123" s="1"/>
+      <c r="AJ123" s="15"/>
       <c r="AK123" s="1"/>
       <c r="AL123" s="1"/>
       <c r="AM123" s="1"/>
@@ -10710,7 +11727,7 @@
       <c r="AG124" s="1"/>
       <c r="AH124" s="1"/>
       <c r="AI124" s="1"/>
-      <c r="AJ124" s="1"/>
+      <c r="AJ124" s="15"/>
       <c r="AK124" s="1"/>
       <c r="AL124" s="1"/>
       <c r="AM124" s="1"/>
@@ -10762,7 +11779,7 @@
       <c r="AG125" s="1"/>
       <c r="AH125" s="1"/>
       <c r="AI125" s="1"/>
-      <c r="AJ125" s="1"/>
+      <c r="AJ125" s="15"/>
       <c r="AK125" s="1"/>
       <c r="AL125" s="1"/>
       <c r="AM125" s="1"/>
@@ -10814,7 +11831,7 @@
       <c r="AG126" s="1"/>
       <c r="AH126" s="1"/>
       <c r="AI126" s="1"/>
-      <c r="AJ126" s="1"/>
+      <c r="AJ126" s="15"/>
       <c r="AK126" s="1"/>
       <c r="AL126" s="1"/>
       <c r="AM126" s="1"/>
@@ -10866,7 +11883,7 @@
       <c r="AG127" s="1"/>
       <c r="AH127" s="1"/>
       <c r="AI127" s="1"/>
-      <c r="AJ127" s="1"/>
+      <c r="AJ127" s="15"/>
       <c r="AK127" s="1"/>
       <c r="AL127" s="1"/>
       <c r="AM127" s="1"/>
@@ -10918,7 +11935,7 @@
       <c r="AG128" s="1"/>
       <c r="AH128" s="1"/>
       <c r="AI128" s="1"/>
-      <c r="AJ128" s="1"/>
+      <c r="AJ128" s="15"/>
       <c r="AK128" s="1"/>
       <c r="AL128" s="1"/>
       <c r="AM128" s="1"/>
@@ -10970,7 +11987,7 @@
       <c r="AG129" s="1"/>
       <c r="AH129" s="1"/>
       <c r="AI129" s="1"/>
-      <c r="AJ129" s="1"/>
+      <c r="AJ129" s="15"/>
       <c r="AK129" s="1"/>
       <c r="AL129" s="1"/>
       <c r="AM129" s="1"/>
@@ -11022,7 +12039,7 @@
       <c r="AG130" s="1"/>
       <c r="AH130" s="1"/>
       <c r="AI130" s="1"/>
-      <c r="AJ130" s="1"/>
+      <c r="AJ130" s="15"/>
       <c r="AK130" s="1"/>
       <c r="AL130" s="1"/>
       <c r="AM130" s="1"/>
@@ -11074,7 +12091,7 @@
       <c r="AG131" s="1"/>
       <c r="AH131" s="1"/>
       <c r="AI131" s="1"/>
-      <c r="AJ131" s="1"/>
+      <c r="AJ131" s="15"/>
       <c r="AK131" s="1"/>
       <c r="AL131" s="1"/>
       <c r="AM131" s="1"/>
@@ -11126,7 +12143,7 @@
       <c r="AG132" s="1"/>
       <c r="AH132" s="1"/>
       <c r="AI132" s="1"/>
-      <c r="AJ132" s="1"/>
+      <c r="AJ132" s="15"/>
       <c r="AK132" s="1"/>
       <c r="AL132" s="1"/>
       <c r="AM132" s="1"/>
@@ -11178,7 +12195,7 @@
       <c r="AG133" s="1"/>
       <c r="AH133" s="1"/>
       <c r="AI133" s="1"/>
-      <c r="AJ133" s="1"/>
+      <c r="AJ133" s="15"/>
       <c r="AK133" s="1"/>
       <c r="AL133" s="1"/>
       <c r="AM133" s="1"/>
@@ -11230,7 +12247,7 @@
       <c r="AG134" s="1"/>
       <c r="AH134" s="1"/>
       <c r="AI134" s="1"/>
-      <c r="AJ134" s="1"/>
+      <c r="AJ134" s="15"/>
       <c r="AK134" s="1"/>
       <c r="AL134" s="1"/>
       <c r="AM134" s="1"/>
@@ -11282,7 +12299,7 @@
       <c r="AG135" s="1"/>
       <c r="AH135" s="1"/>
       <c r="AI135" s="1"/>
-      <c r="AJ135" s="1"/>
+      <c r="AJ135" s="15"/>
       <c r="AK135" s="1"/>
       <c r="AL135" s="1"/>
       <c r="AM135" s="1"/>
@@ -11334,7 +12351,7 @@
       <c r="AG136" s="1"/>
       <c r="AH136" s="1"/>
       <c r="AI136" s="1"/>
-      <c r="AJ136" s="1"/>
+      <c r="AJ136" s="15"/>
       <c r="AK136" s="1"/>
       <c r="AL136" s="1"/>
       <c r="AM136" s="1"/>
@@ -11386,7 +12403,7 @@
       <c r="AG137" s="1"/>
       <c r="AH137" s="1"/>
       <c r="AI137" s="1"/>
-      <c r="AJ137" s="1"/>
+      <c r="AJ137" s="15"/>
       <c r="AK137" s="1"/>
       <c r="AL137" s="1"/>
       <c r="AM137" s="1"/>
@@ -11438,7 +12455,7 @@
       <c r="AG138" s="1"/>
       <c r="AH138" s="1"/>
       <c r="AI138" s="1"/>
-      <c r="AJ138" s="1"/>
+      <c r="AJ138" s="15"/>
       <c r="AK138" s="1"/>
       <c r="AL138" s="1"/>
       <c r="AM138" s="1"/>
@@ -11490,7 +12507,7 @@
       <c r="AG139" s="1"/>
       <c r="AH139" s="1"/>
       <c r="AI139" s="1"/>
-      <c r="AJ139" s="1"/>
+      <c r="AJ139" s="15"/>
       <c r="AK139" s="1"/>
       <c r="AL139" s="1"/>
       <c r="AM139" s="1"/>
@@ -11542,7 +12559,7 @@
       <c r="AG140" s="1"/>
       <c r="AH140" s="1"/>
       <c r="AI140" s="1"/>
-      <c r="AJ140" s="1"/>
+      <c r="AJ140" s="15"/>
       <c r="AK140" s="1"/>
       <c r="AL140" s="1"/>
       <c r="AM140" s="1"/>
@@ -11594,7 +12611,7 @@
       <c r="AG141" s="1"/>
       <c r="AH141" s="1"/>
       <c r="AI141" s="1"/>
-      <c r="AJ141" s="1"/>
+      <c r="AJ141" s="15"/>
       <c r="AK141" s="1"/>
       <c r="AL141" s="1"/>
       <c r="AM141" s="1"/>
@@ -11646,7 +12663,7 @@
       <c r="AG142" s="1"/>
       <c r="AH142" s="1"/>
       <c r="AI142" s="1"/>
-      <c r="AJ142" s="1"/>
+      <c r="AJ142" s="15"/>
       <c r="AK142" s="1"/>
       <c r="AL142" s="1"/>
       <c r="AM142" s="1"/>
@@ -11698,7 +12715,7 @@
       <c r="AG143" s="1"/>
       <c r="AH143" s="1"/>
       <c r="AI143" s="1"/>
-      <c r="AJ143" s="1"/>
+      <c r="AJ143" s="15"/>
       <c r="AK143" s="1"/>
       <c r="AL143" s="1"/>
       <c r="AM143" s="1"/>
@@ -11750,7 +12767,7 @@
       <c r="AG144" s="1"/>
       <c r="AH144" s="1"/>
       <c r="AI144" s="1"/>
-      <c r="AJ144" s="1"/>
+      <c r="AJ144" s="15"/>
       <c r="AK144" s="1"/>
       <c r="AL144" s="1"/>
       <c r="AM144" s="1"/>
@@ -11802,7 +12819,7 @@
       <c r="AG145" s="1"/>
       <c r="AH145" s="1"/>
       <c r="AI145" s="1"/>
-      <c r="AJ145" s="1"/>
+      <c r="AJ145" s="15"/>
       <c r="AK145" s="1"/>
       <c r="AL145" s="1"/>
       <c r="AM145" s="1"/>
@@ -11854,7 +12871,7 @@
       <c r="AG146" s="1"/>
       <c r="AH146" s="1"/>
       <c r="AI146" s="1"/>
-      <c r="AJ146" s="1"/>
+      <c r="AJ146" s="15"/>
       <c r="AK146" s="1"/>
       <c r="AL146" s="1"/>
       <c r="AM146" s="1"/>
@@ -11906,7 +12923,7 @@
       <c r="AG147" s="1"/>
       <c r="AH147" s="1"/>
       <c r="AI147" s="1"/>
-      <c r="AJ147" s="1"/>
+      <c r="AJ147" s="15"/>
       <c r="AK147" s="1"/>
       <c r="AL147" s="1"/>
       <c r="AM147" s="1"/>
@@ -11958,7 +12975,7 @@
       <c r="AG148" s="1"/>
       <c r="AH148" s="1"/>
       <c r="AI148" s="1"/>
-      <c r="AJ148" s="1"/>
+      <c r="AJ148" s="15"/>
       <c r="AK148" s="1"/>
       <c r="AL148" s="1"/>
       <c r="AM148" s="1"/>
@@ -12010,7 +13027,7 @@
       <c r="AG149" s="1"/>
       <c r="AH149" s="1"/>
       <c r="AI149" s="1"/>
-      <c r="AJ149" s="1"/>
+      <c r="AJ149" s="15"/>
       <c r="AK149" s="1"/>
       <c r="AL149" s="1"/>
       <c r="AM149" s="1"/>
@@ -12062,7 +13079,7 @@
       <c r="AG150" s="1"/>
       <c r="AH150" s="1"/>
       <c r="AI150" s="1"/>
-      <c r="AJ150" s="1"/>
+      <c r="AJ150" s="15"/>
       <c r="AK150" s="1"/>
       <c r="AL150" s="1"/>
       <c r="AM150" s="1"/>
@@ -12114,7 +13131,7 @@
       <c r="AG151" s="1"/>
       <c r="AH151" s="1"/>
       <c r="AI151" s="1"/>
-      <c r="AJ151" s="1"/>
+      <c r="AJ151" s="15"/>
       <c r="AK151" s="1"/>
       <c r="AL151" s="1"/>
       <c r="AM151" s="1"/>
@@ -12166,7 +13183,7 @@
       <c r="AG152" s="1"/>
       <c r="AH152" s="1"/>
       <c r="AI152" s="1"/>
-      <c r="AJ152" s="1"/>
+      <c r="AJ152" s="15"/>
       <c r="AK152" s="1"/>
       <c r="AL152" s="1"/>
       <c r="AM152" s="1"/>
@@ -12218,7 +13235,7 @@
       <c r="AG153" s="1"/>
       <c r="AH153" s="1"/>
       <c r="AI153" s="1"/>
-      <c r="AJ153" s="1"/>
+      <c r="AJ153" s="15"/>
       <c r="AK153" s="1"/>
       <c r="AL153" s="1"/>
       <c r="AM153" s="1"/>
@@ -12270,7 +13287,7 @@
       <c r="AG154" s="1"/>
       <c r="AH154" s="1"/>
       <c r="AI154" s="1"/>
-      <c r="AJ154" s="1"/>
+      <c r="AJ154" s="15"/>
       <c r="AK154" s="1"/>
       <c r="AL154" s="1"/>
       <c r="AM154" s="1"/>
@@ -12322,7 +13339,7 @@
       <c r="AG155" s="1"/>
       <c r="AH155" s="1"/>
       <c r="AI155" s="1"/>
-      <c r="AJ155" s="1"/>
+      <c r="AJ155" s="15"/>
       <c r="AK155" s="1"/>
       <c r="AL155" s="1"/>
       <c r="AM155" s="1"/>
@@ -12374,7 +13391,7 @@
       <c r="AG156" s="1"/>
       <c r="AH156" s="1"/>
       <c r="AI156" s="1"/>
-      <c r="AJ156" s="1"/>
+      <c r="AJ156" s="15"/>
       <c r="AK156" s="1"/>
       <c r="AL156" s="1"/>
       <c r="AM156" s="1"/>
@@ -12426,7 +13443,7 @@
       <c r="AG157" s="1"/>
       <c r="AH157" s="1"/>
       <c r="AI157" s="1"/>
-      <c r="AJ157" s="1"/>
+      <c r="AJ157" s="15"/>
       <c r="AK157" s="1"/>
       <c r="AL157" s="1"/>
       <c r="AM157" s="1"/>
@@ -12478,7 +13495,7 @@
       <c r="AG158" s="1"/>
       <c r="AH158" s="1"/>
       <c r="AI158" s="1"/>
-      <c r="AJ158" s="1"/>
+      <c r="AJ158" s="15"/>
       <c r="AK158" s="1"/>
       <c r="AL158" s="1"/>
       <c r="AM158" s="1"/>
@@ -12530,7 +13547,7 @@
       <c r="AG159" s="1"/>
       <c r="AH159" s="1"/>
       <c r="AI159" s="1"/>
-      <c r="AJ159" s="1"/>
+      <c r="AJ159" s="15"/>
       <c r="AK159" s="1"/>
       <c r="AL159" s="1"/>
       <c r="AM159" s="1"/>
@@ -12582,7 +13599,7 @@
       <c r="AG160" s="1"/>
       <c r="AH160" s="1"/>
       <c r="AI160" s="1"/>
-      <c r="AJ160" s="1"/>
+      <c r="AJ160" s="15"/>
       <c r="AK160" s="1"/>
       <c r="AL160" s="1"/>
       <c r="AM160" s="1"/>
@@ -12634,7 +13651,7 @@
       <c r="AG161" s="1"/>
       <c r="AH161" s="1"/>
       <c r="AI161" s="1"/>
-      <c r="AJ161" s="1"/>
+      <c r="AJ161" s="15"/>
       <c r="AK161" s="1"/>
       <c r="AL161" s="1"/>
       <c r="AM161" s="1"/>
@@ -12686,7 +13703,7 @@
       <c r="AG162" s="1"/>
       <c r="AH162" s="1"/>
       <c r="AI162" s="1"/>
-      <c r="AJ162" s="1"/>
+      <c r="AJ162" s="15"/>
       <c r="AK162" s="1"/>
       <c r="AL162" s="1"/>
       <c r="AM162" s="1"/>
@@ -12738,7 +13755,7 @@
       <c r="AG163" s="1"/>
       <c r="AH163" s="1"/>
       <c r="AI163" s="1"/>
-      <c r="AJ163" s="1"/>
+      <c r="AJ163" s="15"/>
       <c r="AK163" s="1"/>
       <c r="AL163" s="1"/>
       <c r="AM163" s="1"/>
@@ -12790,7 +13807,7 @@
       <c r="AG164" s="1"/>
       <c r="AH164" s="1"/>
       <c r="AI164" s="1"/>
-      <c r="AJ164" s="1"/>
+      <c r="AJ164" s="15"/>
       <c r="AK164" s="1"/>
       <c r="AL164" s="1"/>
       <c r="AM164" s="1"/>
@@ -12842,7 +13859,7 @@
       <c r="AG165" s="1"/>
       <c r="AH165" s="1"/>
       <c r="AI165" s="1"/>
-      <c r="AJ165" s="1"/>
+      <c r="AJ165" s="15"/>
       <c r="AK165" s="1"/>
       <c r="AL165" s="1"/>
       <c r="AM165" s="1"/>
@@ -12894,7 +13911,7 @@
       <c r="AG166" s="1"/>
       <c r="AH166" s="1"/>
       <c r="AI166" s="1"/>
-      <c r="AJ166" s="1"/>
+      <c r="AJ166" s="15"/>
       <c r="AK166" s="1"/>
       <c r="AL166" s="1"/>
       <c r="AM166" s="1"/>
@@ -12946,7 +13963,7 @@
       <c r="AG167" s="1"/>
       <c r="AH167" s="1"/>
       <c r="AI167" s="1"/>
-      <c r="AJ167" s="1"/>
+      <c r="AJ167" s="15"/>
       <c r="AK167" s="1"/>
       <c r="AL167" s="1"/>
       <c r="AM167" s="1"/>
@@ -12998,7 +14015,7 @@
       <c r="AG168" s="1"/>
       <c r="AH168" s="1"/>
       <c r="AI168" s="1"/>
-      <c r="AJ168" s="1"/>
+      <c r="AJ168" s="15"/>
       <c r="AK168" s="1"/>
       <c r="AL168" s="1"/>
       <c r="AM168" s="1"/>
@@ -13050,7 +14067,7 @@
       <c r="AG169" s="1"/>
       <c r="AH169" s="1"/>
       <c r="AI169" s="1"/>
-      <c r="AJ169" s="1"/>
+      <c r="AJ169" s="15"/>
       <c r="AK169" s="1"/>
       <c r="AL169" s="1"/>
       <c r="AM169" s="1"/>
@@ -13102,7 +14119,7 @@
       <c r="AG170" s="1"/>
       <c r="AH170" s="1"/>
       <c r="AI170" s="1"/>
-      <c r="AJ170" s="1"/>
+      <c r="AJ170" s="15"/>
       <c r="AK170" s="1"/>
       <c r="AL170" s="1"/>
       <c r="AM170" s="1"/>
@@ -13154,7 +14171,7 @@
       <c r="AG171" s="1"/>
       <c r="AH171" s="1"/>
       <c r="AI171" s="1"/>
-      <c r="AJ171" s="1"/>
+      <c r="AJ171" s="15"/>
       <c r="AK171" s="1"/>
       <c r="AL171" s="1"/>
       <c r="AM171" s="1"/>
@@ -13206,7 +14223,7 @@
       <c r="AG172" s="1"/>
       <c r="AH172" s="1"/>
       <c r="AI172" s="1"/>
-      <c r="AJ172" s="1"/>
+      <c r="AJ172" s="15"/>
       <c r="AK172" s="1"/>
       <c r="AL172" s="1"/>
       <c r="AM172" s="1"/>
@@ -13258,7 +14275,7 @@
       <c r="AG173" s="1"/>
       <c r="AH173" s="1"/>
       <c r="AI173" s="1"/>
-      <c r="AJ173" s="1"/>
+      <c r="AJ173" s="15"/>
       <c r="AK173" s="1"/>
       <c r="AL173" s="1"/>
       <c r="AM173" s="1"/>
@@ -13310,7 +14327,7 @@
       <c r="AG174" s="1"/>
       <c r="AH174" s="1"/>
       <c r="AI174" s="1"/>
-      <c r="AJ174" s="1"/>
+      <c r="AJ174" s="15"/>
       <c r="AK174" s="1"/>
       <c r="AL174" s="1"/>
       <c r="AM174" s="1"/>
@@ -13362,7 +14379,7 @@
       <c r="AG175" s="1"/>
       <c r="AH175" s="1"/>
       <c r="AI175" s="1"/>
-      <c r="AJ175" s="1"/>
+      <c r="AJ175" s="15"/>
       <c r="AK175" s="1"/>
       <c r="AL175" s="1"/>
       <c r="AM175" s="1"/>
@@ -13414,7 +14431,7 @@
       <c r="AG176" s="1"/>
       <c r="AH176" s="1"/>
       <c r="AI176" s="1"/>
-      <c r="AJ176" s="1"/>
+      <c r="AJ176" s="15"/>
       <c r="AK176" s="1"/>
       <c r="AL176" s="1"/>
       <c r="AM176" s="1"/>
@@ -13466,7 +14483,7 @@
       <c r="AG177" s="1"/>
       <c r="AH177" s="1"/>
       <c r="AI177" s="1"/>
-      <c r="AJ177" s="1"/>
+      <c r="AJ177" s="15"/>
       <c r="AK177" s="1"/>
       <c r="AL177" s="1"/>
       <c r="AM177" s="1"/>
@@ -13518,7 +14535,7 @@
       <c r="AG178" s="1"/>
       <c r="AH178" s="1"/>
       <c r="AI178" s="1"/>
-      <c r="AJ178" s="1"/>
+      <c r="AJ178" s="15"/>
       <c r="AK178" s="1"/>
       <c r="AL178" s="1"/>
       <c r="AM178" s="1"/>
@@ -13570,7 +14587,7 @@
       <c r="AG179" s="1"/>
       <c r="AH179" s="1"/>
       <c r="AI179" s="1"/>
-      <c r="AJ179" s="1"/>
+      <c r="AJ179" s="15"/>
       <c r="AK179" s="1"/>
       <c r="AL179" s="1"/>
       <c r="AM179" s="1"/>
@@ -13622,7 +14639,7 @@
       <c r="AG180" s="1"/>
       <c r="AH180" s="1"/>
       <c r="AI180" s="1"/>
-      <c r="AJ180" s="1"/>
+      <c r="AJ180" s="15"/>
       <c r="AK180" s="1"/>
       <c r="AL180" s="1"/>
       <c r="AM180" s="1"/>
@@ -13674,7 +14691,7 @@
       <c r="AG181" s="1"/>
       <c r="AH181" s="1"/>
       <c r="AI181" s="1"/>
-      <c r="AJ181" s="1"/>
+      <c r="AJ181" s="15"/>
       <c r="AK181" s="1"/>
       <c r="AL181" s="1"/>
       <c r="AM181" s="1"/>
@@ -13726,7 +14743,7 @@
       <c r="AG182" s="1"/>
       <c r="AH182" s="1"/>
       <c r="AI182" s="1"/>
-      <c r="AJ182" s="1"/>
+      <c r="AJ182" s="15"/>
       <c r="AK182" s="1"/>
       <c r="AL182" s="1"/>
       <c r="AM182" s="1"/>
@@ -13778,7 +14795,7 @@
       <c r="AG183" s="1"/>
       <c r="AH183" s="1"/>
       <c r="AI183" s="1"/>
-      <c r="AJ183" s="1"/>
+      <c r="AJ183" s="15"/>
       <c r="AK183" s="1"/>
       <c r="AL183" s="1"/>
       <c r="AM183" s="1"/>
@@ -13830,7 +14847,7 @@
       <c r="AG184" s="1"/>
       <c r="AH184" s="1"/>
       <c r="AI184" s="1"/>
-      <c r="AJ184" s="1"/>
+      <c r="AJ184" s="15"/>
       <c r="AK184" s="1"/>
       <c r="AL184" s="1"/>
       <c r="AM184" s="1"/>
@@ -13882,7 +14899,7 @@
       <c r="AG185" s="1"/>
       <c r="AH185" s="1"/>
       <c r="AI185" s="1"/>
-      <c r="AJ185" s="1"/>
+      <c r="AJ185" s="15"/>
       <c r="AK185" s="1"/>
       <c r="AL185" s="1"/>
       <c r="AM185" s="1"/>
@@ -13934,7 +14951,7 @@
       <c r="AG186" s="1"/>
       <c r="AH186" s="1"/>
       <c r="AI186" s="1"/>
-      <c r="AJ186" s="1"/>
+      <c r="AJ186" s="15"/>
       <c r="AK186" s="1"/>
       <c r="AL186" s="1"/>
       <c r="AM186" s="1"/>
@@ -13986,7 +15003,7 @@
       <c r="AG187" s="1"/>
       <c r="AH187" s="1"/>
       <c r="AI187" s="1"/>
-      <c r="AJ187" s="1"/>
+      <c r="AJ187" s="15"/>
       <c r="AK187" s="1"/>
       <c r="AL187" s="1"/>
       <c r="AM187" s="1"/>
@@ -14038,7 +15055,7 @@
       <c r="AG188" s="1"/>
       <c r="AH188" s="1"/>
       <c r="AI188" s="1"/>
-      <c r="AJ188" s="1"/>
+      <c r="AJ188" s="15"/>
       <c r="AK188" s="1"/>
       <c r="AL188" s="1"/>
       <c r="AM188" s="1"/>
@@ -14090,7 +15107,7 @@
       <c r="AG189" s="1"/>
       <c r="AH189" s="1"/>
       <c r="AI189" s="1"/>
-      <c r="AJ189" s="1"/>
+      <c r="AJ189" s="15"/>
       <c r="AK189" s="1"/>
       <c r="AL189" s="1"/>
       <c r="AM189" s="1"/>
@@ -14142,7 +15159,7 @@
       <c r="AG190" s="1"/>
       <c r="AH190" s="1"/>
       <c r="AI190" s="1"/>
-      <c r="AJ190" s="1"/>
+      <c r="AJ190" s="15"/>
       <c r="AK190" s="1"/>
       <c r="AL190" s="1"/>
       <c r="AM190" s="1"/>
@@ -14194,7 +15211,7 @@
       <c r="AG191" s="1"/>
       <c r="AH191" s="1"/>
       <c r="AI191" s="1"/>
-      <c r="AJ191" s="1"/>
+      <c r="AJ191" s="15"/>
       <c r="AK191" s="1"/>
       <c r="AL191" s="1"/>
       <c r="AM191" s="1"/>
@@ -14246,7 +15263,7 @@
       <c r="AG192" s="1"/>
       <c r="AH192" s="1"/>
       <c r="AI192" s="1"/>
-      <c r="AJ192" s="1"/>
+      <c r="AJ192" s="15"/>
       <c r="AK192" s="1"/>
       <c r="AL192" s="1"/>
       <c r="AM192" s="1"/>
@@ -14298,7 +15315,7 @@
       <c r="AG193" s="1"/>
       <c r="AH193" s="1"/>
       <c r="AI193" s="1"/>
-      <c r="AJ193" s="1"/>
+      <c r="AJ193" s="15"/>
       <c r="AK193" s="1"/>
       <c r="AL193" s="1"/>
       <c r="AM193" s="1"/>
@@ -14350,7 +15367,7 @@
       <c r="AG194" s="1"/>
       <c r="AH194" s="1"/>
       <c r="AI194" s="1"/>
-      <c r="AJ194" s="1"/>
+      <c r="AJ194" s="15"/>
       <c r="AK194" s="1"/>
       <c r="AL194" s="1"/>
       <c r="AM194" s="1"/>
@@ -14402,7 +15419,7 @@
       <c r="AG195" s="1"/>
       <c r="AH195" s="1"/>
       <c r="AI195" s="1"/>
-      <c r="AJ195" s="1"/>
+      <c r="AJ195" s="15"/>
       <c r="AK195" s="1"/>
       <c r="AL195" s="1"/>
       <c r="AM195" s="1"/>
@@ -14454,7 +15471,7 @@
       <c r="AG196" s="1"/>
       <c r="AH196" s="1"/>
       <c r="AI196" s="1"/>
-      <c r="AJ196" s="1"/>
+      <c r="AJ196" s="15"/>
       <c r="AK196" s="1"/>
       <c r="AL196" s="1"/>
       <c r="AM196" s="1"/>
@@ -14506,7 +15523,7 @@
       <c r="AG197" s="1"/>
       <c r="AH197" s="1"/>
       <c r="AI197" s="1"/>
-      <c r="AJ197" s="1"/>
+      <c r="AJ197" s="15"/>
       <c r="AK197" s="1"/>
       <c r="AL197" s="1"/>
       <c r="AM197" s="1"/>
@@ -14558,7 +15575,7 @@
       <c r="AG198" s="1"/>
       <c r="AH198" s="1"/>
       <c r="AI198" s="1"/>
-      <c r="AJ198" s="1"/>
+      <c r="AJ198" s="15"/>
       <c r="AK198" s="1"/>
       <c r="AL198" s="1"/>
       <c r="AM198" s="1"/>
@@ -14610,7 +15627,7 @@
       <c r="AG199" s="1"/>
       <c r="AH199" s="1"/>
       <c r="AI199" s="1"/>
-      <c r="AJ199" s="1"/>
+      <c r="AJ199" s="15"/>
       <c r="AK199" s="1"/>
       <c r="AL199" s="1"/>
       <c r="AM199" s="1"/>
@@ -14662,7 +15679,7 @@
       <c r="AG200" s="1"/>
       <c r="AH200" s="1"/>
       <c r="AI200" s="1"/>
-      <c r="AJ200" s="1"/>
+      <c r="AJ200" s="15"/>
       <c r="AK200" s="1"/>
       <c r="AL200" s="1"/>
       <c r="AM200" s="1"/>
@@ -14714,7 +15731,7 @@
       <c r="AG201" s="1"/>
       <c r="AH201" s="1"/>
       <c r="AI201" s="1"/>
-      <c r="AJ201" s="1"/>
+      <c r="AJ201" s="15"/>
       <c r="AK201" s="1"/>
       <c r="AL201" s="1"/>
       <c r="AM201" s="1"/>
@@ -14766,7 +15783,7 @@
       <c r="AG202" s="1"/>
       <c r="AH202" s="1"/>
       <c r="AI202" s="1"/>
-      <c r="AJ202" s="1"/>
+      <c r="AJ202" s="15"/>
       <c r="AK202" s="1"/>
       <c r="AL202" s="1"/>
       <c r="AM202" s="1"/>
@@ -14818,7 +15835,7 @@
       <c r="AG203" s="1"/>
       <c r="AH203" s="1"/>
       <c r="AI203" s="1"/>
-      <c r="AJ203" s="1"/>
+      <c r="AJ203" s="15"/>
       <c r="AK203" s="1"/>
       <c r="AL203" s="1"/>
       <c r="AM203" s="1"/>
@@ -14870,7 +15887,7 @@
       <c r="AG204" s="1"/>
       <c r="AH204" s="1"/>
       <c r="AI204" s="1"/>
-      <c r="AJ204" s="1"/>
+      <c r="AJ204" s="15"/>
       <c r="AK204" s="1"/>
       <c r="AL204" s="1"/>
       <c r="AM204" s="1"/>
@@ -14922,7 +15939,7 @@
       <c r="AG205" s="1"/>
       <c r="AH205" s="1"/>
       <c r="AI205" s="1"/>
-      <c r="AJ205" s="1"/>
+      <c r="AJ205" s="15"/>
       <c r="AK205" s="1"/>
       <c r="AL205" s="1"/>
       <c r="AM205" s="1"/>
@@ -14974,7 +15991,7 @@
       <c r="AG206" s="1"/>
       <c r="AH206" s="1"/>
       <c r="AI206" s="1"/>
-      <c r="AJ206" s="1"/>
+      <c r="AJ206" s="15"/>
       <c r="AK206" s="1"/>
       <c r="AL206" s="1"/>
       <c r="AM206" s="1"/>
@@ -15026,7 +16043,7 @@
       <c r="AG207" s="1"/>
       <c r="AH207" s="1"/>
       <c r="AI207" s="1"/>
-      <c r="AJ207" s="1"/>
+      <c r="AJ207" s="15"/>
       <c r="AK207" s="1"/>
       <c r="AL207" s="1"/>
       <c r="AM207" s="1"/>
@@ -15078,7 +16095,7 @@
       <c r="AG208" s="1"/>
       <c r="AH208" s="1"/>
       <c r="AI208" s="1"/>
-      <c r="AJ208" s="1"/>
+      <c r="AJ208" s="15"/>
       <c r="AK208" s="1"/>
       <c r="AL208" s="1"/>
       <c r="AM208" s="1"/>
@@ -15130,7 +16147,7 @@
       <c r="AG209" s="1"/>
       <c r="AH209" s="1"/>
       <c r="AI209" s="1"/>
-      <c r="AJ209" s="1"/>
+      <c r="AJ209" s="15"/>
       <c r="AK209" s="1"/>
       <c r="AL209" s="1"/>
       <c r="AM209" s="1"/>
@@ -15182,7 +16199,7 @@
       <c r="AG210" s="1"/>
       <c r="AH210" s="1"/>
       <c r="AI210" s="1"/>
-      <c r="AJ210" s="1"/>
+      <c r="AJ210" s="15"/>
       <c r="AK210" s="1"/>
       <c r="AL210" s="1"/>
       <c r="AM210" s="1"/>
@@ -15234,7 +16251,7 @@
       <c r="AG211" s="1"/>
       <c r="AH211" s="1"/>
       <c r="AI211" s="1"/>
-      <c r="AJ211" s="1"/>
+      <c r="AJ211" s="15"/>
       <c r="AK211" s="1"/>
       <c r="AL211" s="1"/>
       <c r="AM211" s="1"/>
@@ -15286,7 +16303,7 @@
       <c r="AG212" s="1"/>
       <c r="AH212" s="1"/>
       <c r="AI212" s="1"/>
-      <c r="AJ212" s="1"/>
+      <c r="AJ212" s="15"/>
       <c r="AK212" s="1"/>
       <c r="AL212" s="1"/>
       <c r="AM212" s="1"/>
@@ -15338,7 +16355,7 @@
       <c r="AG213" s="1"/>
       <c r="AH213" s="1"/>
       <c r="AI213" s="1"/>
-      <c r="AJ213" s="1"/>
+      <c r="AJ213" s="15"/>
       <c r="AK213" s="1"/>
       <c r="AL213" s="1"/>
       <c r="AM213" s="1"/>
@@ -15390,7 +16407,7 @@
       <c r="AG214" s="1"/>
       <c r="AH214" s="1"/>
       <c r="AI214" s="1"/>
-      <c r="AJ214" s="1"/>
+      <c r="AJ214" s="15"/>
       <c r="AK214" s="1"/>
       <c r="AL214" s="1"/>
       <c r="AM214" s="1"/>
@@ -15442,7 +16459,7 @@
       <c r="AG215" s="1"/>
       <c r="AH215" s="1"/>
       <c r="AI215" s="1"/>
-      <c r="AJ215" s="1"/>
+      <c r="AJ215" s="15"/>
       <c r="AK215" s="1"/>
       <c r="AL215" s="1"/>
       <c r="AM215" s="1"/>
@@ -15494,7 +16511,7 @@
       <c r="AG216" s="1"/>
       <c r="AH216" s="1"/>
       <c r="AI216" s="1"/>
-      <c r="AJ216" s="1"/>
+      <c r="AJ216" s="15"/>
       <c r="AK216" s="1"/>
       <c r="AL216" s="1"/>
       <c r="AM216" s="1"/>
@@ -15546,7 +16563,7 @@
       <c r="AG217" s="1"/>
       <c r="AH217" s="1"/>
       <c r="AI217" s="1"/>
-      <c r="AJ217" s="1"/>
+      <c r="AJ217" s="15"/>
       <c r="AK217" s="1"/>
       <c r="AL217" s="1"/>
       <c r="AM217" s="1"/>
@@ -15598,7 +16615,7 @@
       <c r="AG218" s="1"/>
       <c r="AH218" s="1"/>
       <c r="AI218" s="1"/>
-      <c r="AJ218" s="1"/>
+      <c r="AJ218" s="15"/>
       <c r="AK218" s="1"/>
       <c r="AL218" s="1"/>
       <c r="AM218" s="1"/>
@@ -15650,7 +16667,7 @@
       <c r="AG219" s="1"/>
       <c r="AH219" s="1"/>
       <c r="AI219" s="1"/>
-      <c r="AJ219" s="1"/>
+      <c r="AJ219" s="15"/>
       <c r="AK219" s="1"/>
       <c r="AL219" s="1"/>
       <c r="AM219" s="1"/>
@@ -15702,7 +16719,7 @@
       <c r="AG220" s="1"/>
       <c r="AH220" s="1"/>
       <c r="AI220" s="1"/>
-      <c r="AJ220" s="1"/>
+      <c r="AJ220" s="15"/>
       <c r="AK220" s="1"/>
       <c r="AL220" s="1"/>
       <c r="AM220" s="1"/>
@@ -15754,7 +16771,7 @@
       <c r="AG221" s="1"/>
       <c r="AH221" s="1"/>
       <c r="AI221" s="1"/>
-      <c r="AJ221" s="1"/>
+      <c r="AJ221" s="15"/>
       <c r="AK221" s="1"/>
       <c r="AL221" s="1"/>
       <c r="AM221" s="1"/>
@@ -15806,7 +16823,7 @@
       <c r="AG222" s="1"/>
       <c r="AH222" s="1"/>
       <c r="AI222" s="1"/>
-      <c r="AJ222" s="1"/>
+      <c r="AJ222" s="15"/>
       <c r="AK222" s="1"/>
       <c r="AL222" s="1"/>
       <c r="AM222" s="1"/>
@@ -15858,7 +16875,7 @@
       <c r="AG223" s="1"/>
       <c r="AH223" s="1"/>
       <c r="AI223" s="1"/>
-      <c r="AJ223" s="1"/>
+      <c r="AJ223" s="15"/>
       <c r="AK223" s="1"/>
       <c r="AL223" s="1"/>
       <c r="AM223" s="1"/>
@@ -15910,7 +16927,7 @@
       <c r="AG224" s="1"/>
       <c r="AH224" s="1"/>
       <c r="AI224" s="1"/>
-      <c r="AJ224" s="1"/>
+      <c r="AJ224" s="15"/>
       <c r="AK224" s="1"/>
       <c r="AL224" s="1"/>
       <c r="AM224" s="1"/>
@@ -15962,7 +16979,7 @@
       <c r="AG225" s="1"/>
       <c r="AH225" s="1"/>
       <c r="AI225" s="1"/>
-      <c r="AJ225" s="1"/>
+      <c r="AJ225" s="15"/>
       <c r="AK225" s="1"/>
       <c r="AL225" s="1"/>
       <c r="AM225" s="1"/>
@@ -16014,7 +17031,7 @@
       <c r="AG226" s="1"/>
       <c r="AH226" s="1"/>
       <c r="AI226" s="1"/>
-      <c r="AJ226" s="1"/>
+      <c r="AJ226" s="15"/>
       <c r="AK226" s="1"/>
       <c r="AL226" s="1"/>
       <c r="AM226" s="1"/>
@@ -16066,7 +17083,7 @@
       <c r="AG227" s="1"/>
       <c r="AH227" s="1"/>
       <c r="AI227" s="1"/>
-      <c r="AJ227" s="1"/>
+      <c r="AJ227" s="15"/>
       <c r="AK227" s="1"/>
       <c r="AL227" s="1"/>
       <c r="AM227" s="1"/>
@@ -16118,7 +17135,7 @@
       <c r="AG228" s="1"/>
       <c r="AH228" s="1"/>
       <c r="AI228" s="1"/>
-      <c r="AJ228" s="1"/>
+      <c r="AJ228" s="15"/>
       <c r="AK228" s="1"/>
       <c r="AL228" s="1"/>
       <c r="AM228" s="1"/>
@@ -16170,7 +17187,7 @@
       <c r="AG229" s="1"/>
       <c r="AH229" s="1"/>
       <c r="AI229" s="1"/>
-      <c r="AJ229" s="1"/>
+      <c r="AJ229" s="15"/>
       <c r="AK229" s="1"/>
       <c r="AL229" s="1"/>
       <c r="AM229" s="1"/>
@@ -16222,7 +17239,7 @@
       <c r="AG230" s="1"/>
       <c r="AH230" s="1"/>
       <c r="AI230" s="1"/>
-      <c r="AJ230" s="1"/>
+      <c r="AJ230" s="15"/>
       <c r="AK230" s="1"/>
       <c r="AL230" s="1"/>
       <c r="AM230" s="1"/>
@@ -16274,7 +17291,7 @@
       <c r="AG231" s="1"/>
       <c r="AH231" s="1"/>
       <c r="AI231" s="1"/>
-      <c r="AJ231" s="1"/>
+      <c r="AJ231" s="15"/>
       <c r="AK231" s="1"/>
       <c r="AL231" s="1"/>
       <c r="AM231" s="1"/>
@@ -16326,7 +17343,7 @@
       <c r="AG232" s="1"/>
       <c r="AH232" s="1"/>
       <c r="AI232" s="1"/>
-      <c r="AJ232" s="1"/>
+      <c r="AJ232" s="15"/>
       <c r="AK232" s="1"/>
       <c r="AL232" s="1"/>
       <c r="AM232" s="1"/>
@@ -16378,7 +17395,7 @@
       <c r="AG233" s="1"/>
       <c r="AH233" s="1"/>
       <c r="AI233" s="1"/>
-      <c r="AJ233" s="1"/>
+      <c r="AJ233" s="15"/>
       <c r="AK233" s="1"/>
       <c r="AL233" s="1"/>
       <c r="AM233" s="1"/>
@@ -16430,7 +17447,7 @@
       <c r="AG234" s="1"/>
       <c r="AH234" s="1"/>
       <c r="AI234" s="1"/>
-      <c r="AJ234" s="1"/>
+      <c r="AJ234" s="15"/>
       <c r="AK234" s="1"/>
       <c r="AL234" s="1"/>
       <c r="AM234" s="1"/>
@@ -16482,7 +17499,7 @@
       <c r="AG235" s="1"/>
       <c r="AH235" s="1"/>
       <c r="AI235" s="1"/>
-      <c r="AJ235" s="1"/>
+      <c r="AJ235" s="15"/>
       <c r="AK235" s="1"/>
       <c r="AL235" s="1"/>
       <c r="AM235" s="1"/>
@@ -16534,7 +17551,7 @@
       <c r="AG236" s="1"/>
       <c r="AH236" s="1"/>
       <c r="AI236" s="1"/>
-      <c r="AJ236" s="1"/>
+      <c r="AJ236" s="15"/>
       <c r="AK236" s="1"/>
       <c r="AL236" s="1"/>
       <c r="AM236" s="1"/>
@@ -16586,7 +17603,7 @@
       <c r="AG237" s="1"/>
       <c r="AH237" s="1"/>
       <c r="AI237" s="1"/>
-      <c r="AJ237" s="1"/>
+      <c r="AJ237" s="15"/>
       <c r="AK237" s="1"/>
       <c r="AL237" s="1"/>
       <c r="AM237" s="1"/>
@@ -16638,7 +17655,7 @@
       <c r="AG238" s="1"/>
       <c r="AH238" s="1"/>
       <c r="AI238" s="1"/>
-      <c r="AJ238" s="1"/>
+      <c r="AJ238" s="15"/>
       <c r="AK238" s="1"/>
       <c r="AL238" s="1"/>
       <c r="AM238" s="1"/>
@@ -16690,7 +17707,7 @@
       <c r="AG239" s="1"/>
       <c r="AH239" s="1"/>
       <c r="AI239" s="1"/>
-      <c r="AJ239" s="1"/>
+      <c r="AJ239" s="15"/>
       <c r="AK239" s="1"/>
       <c r="AL239" s="1"/>
       <c r="AM239" s="1"/>
@@ -16742,7 +17759,7 @@
       <c r="AG240" s="1"/>
       <c r="AH240" s="1"/>
       <c r="AI240" s="1"/>
-      <c r="AJ240" s="1"/>
+      <c r="AJ240" s="15"/>
       <c r="AK240" s="1"/>
       <c r="AL240" s="1"/>
       <c r="AM240" s="1"/>
@@ -16794,7 +17811,7 @@
       <c r="AG241" s="1"/>
       <c r="AH241" s="1"/>
       <c r="AI241" s="1"/>
-      <c r="AJ241" s="1"/>
+      <c r="AJ241" s="15"/>
       <c r="AK241" s="1"/>
       <c r="AL241" s="1"/>
       <c r="AM241" s="1"/>
@@ -16846,7 +17863,7 @@
       <c r="AG242" s="1"/>
       <c r="AH242" s="1"/>
       <c r="AI242" s="1"/>
-      <c r="AJ242" s="1"/>
+      <c r="AJ242" s="15"/>
       <c r="AK242" s="1"/>
       <c r="AL242" s="1"/>
       <c r="AM242" s="1"/>
@@ -16898,7 +17915,7 @@
       <c r="AG243" s="1"/>
       <c r="AH243" s="1"/>
       <c r="AI243" s="1"/>
-      <c r="AJ243" s="1"/>
+      <c r="AJ243" s="15"/>
       <c r="AK243" s="1"/>
       <c r="AL243" s="1"/>
       <c r="AM243" s="1"/>
@@ -16950,7 +17967,7 @@
       <c r="AG244" s="1"/>
       <c r="AH244" s="1"/>
       <c r="AI244" s="1"/>
-      <c r="AJ244" s="1"/>
+      <c r="AJ244" s="15"/>
       <c r="AK244" s="1"/>
       <c r="AL244" s="1"/>
       <c r="AM244" s="1"/>
@@ -17002,7 +18019,7 @@
       <c r="AG245" s="1"/>
       <c r="AH245" s="1"/>
       <c r="AI245" s="1"/>
-      <c r="AJ245" s="1"/>
+      <c r="AJ245" s="15"/>
       <c r="AK245" s="1"/>
       <c r="AL245" s="1"/>
       <c r="AM245" s="1"/>
@@ -17054,7 +18071,7 @@
       <c r="AG246" s="1"/>
       <c r="AH246" s="1"/>
       <c r="AI246" s="1"/>
-      <c r="AJ246" s="1"/>
+      <c r="AJ246" s="15"/>
       <c r="AK246" s="1"/>
       <c r="AL246" s="1"/>
       <c r="AM246" s="1"/>
@@ -17106,7 +18123,7 @@
       <c r="AG247" s="1"/>
       <c r="AH247" s="1"/>
       <c r="AI247" s="1"/>
-      <c r="AJ247" s="1"/>
+      <c r="AJ247" s="15"/>
       <c r="AK247" s="1"/>
       <c r="AL247" s="1"/>
       <c r="AM247" s="1"/>
@@ -17158,7 +18175,7 @@
       <c r="AG248" s="1"/>
       <c r="AH248" s="1"/>
       <c r="AI248" s="1"/>
-      <c r="AJ248" s="1"/>
+      <c r="AJ248" s="15"/>
       <c r="AK248" s="1"/>
       <c r="AL248" s="1"/>
       <c r="AM248" s="1"/>
@@ -17210,7 +18227,7 @@
       <c r="AG249" s="1"/>
       <c r="AH249" s="1"/>
       <c r="AI249" s="1"/>
-      <c r="AJ249" s="1"/>
+      <c r="AJ249" s="15"/>
       <c r="AK249" s="1"/>
       <c r="AL249" s="1"/>
       <c r="AM249" s="1"/>
@@ -17262,7 +18279,7 @@
       <c r="AG250" s="1"/>
       <c r="AH250" s="1"/>
       <c r="AI250" s="1"/>
-      <c r="AJ250" s="1"/>
+      <c r="AJ250" s="15"/>
       <c r="AK250" s="1"/>
       <c r="AL250" s="1"/>
       <c r="AM250" s="1"/>
@@ -17314,7 +18331,7 @@
       <c r="AG251" s="1"/>
       <c r="AH251" s="1"/>
       <c r="AI251" s="1"/>
-      <c r="AJ251" s="1"/>
+      <c r="AJ251" s="15"/>
       <c r="AK251" s="1"/>
       <c r="AL251" s="1"/>
       <c r="AM251" s="1"/>
@@ -17366,7 +18383,7 @@
       <c r="AG252" s="1"/>
       <c r="AH252" s="1"/>
       <c r="AI252" s="1"/>
-      <c r="AJ252" s="1"/>
+      <c r="AJ252" s="15"/>
       <c r="AK252" s="1"/>
       <c r="AL252" s="1"/>
       <c r="AM252" s="1"/>
@@ -17418,7 +18435,7 @@
       <c r="AG253" s="1"/>
       <c r="AH253" s="1"/>
       <c r="AI253" s="1"/>
-      <c r="AJ253" s="1"/>
+      <c r="AJ253" s="15"/>
       <c r="AK253" s="1"/>
       <c r="AL253" s="1"/>
       <c r="AM253" s="1"/>
@@ -17470,7 +18487,7 @@
       <c r="AG254" s="1"/>
       <c r="AH254" s="1"/>
       <c r="AI254" s="1"/>
-      <c r="AJ254" s="1"/>
+      <c r="AJ254" s="15"/>
       <c r="AK254" s="1"/>
       <c r="AL254" s="1"/>
       <c r="AM254" s="1"/>
@@ -17522,7 +18539,7 @@
       <c r="AG255" s="1"/>
       <c r="AH255" s="1"/>
       <c r="AI255" s="1"/>
-      <c r="AJ255" s="1"/>
+      <c r="AJ255" s="15"/>
       <c r="AK255" s="1"/>
       <c r="AL255" s="1"/>
       <c r="AM255" s="1"/>
@@ -17574,7 +18591,7 @@
       <c r="AG256" s="1"/>
       <c r="AH256" s="1"/>
       <c r="AI256" s="1"/>
-      <c r="AJ256" s="1"/>
+      <c r="AJ256" s="15"/>
       <c r="AK256" s="1"/>
       <c r="AL256" s="1"/>
       <c r="AM256" s="1"/>
@@ -17626,7 +18643,7 @@
       <c r="AG257" s="1"/>
       <c r="AH257" s="1"/>
       <c r="AI257" s="1"/>
-      <c r="AJ257" s="1"/>
+      <c r="AJ257" s="15"/>
       <c r="AK257" s="1"/>
       <c r="AL257" s="1"/>
       <c r="AM257" s="1"/>
@@ -17678,7 +18695,7 @@
       <c r="AG258" s="1"/>
       <c r="AH258" s="1"/>
       <c r="AI258" s="1"/>
-      <c r="AJ258" s="1"/>
+      <c r="AJ258" s="15"/>
       <c r="AK258" s="1"/>
       <c r="AL258" s="1"/>
       <c r="AM258" s="1"/>
@@ -17730,7 +18747,7 @@
       <c r="AG259" s="1"/>
       <c r="AH259" s="1"/>
       <c r="AI259" s="1"/>
-      <c r="AJ259" s="1"/>
+      <c r="AJ259" s="15"/>
       <c r="AK259" s="1"/>
       <c r="AL259" s="1"/>
       <c r="AM259" s="1"/>
@@ -17782,7 +18799,7 @@
       <c r="AG260" s="1"/>
       <c r="AH260" s="1"/>
       <c r="AI260" s="1"/>
-      <c r="AJ260" s="1"/>
+      <c r="AJ260" s="15"/>
       <c r="AK260" s="1"/>
       <c r="AL260" s="1"/>
       <c r="AM260" s="1"/>
@@ -17834,7 +18851,7 @@
       <c r="AG261" s="1"/>
       <c r="AH261" s="1"/>
       <c r="AI261" s="1"/>
-      <c r="AJ261" s="1"/>
+      <c r="AJ261" s="15"/>
       <c r="AK261" s="1"/>
       <c r="AL261" s="1"/>
       <c r="AM261" s="1"/>
@@ -17886,7 +18903,7 @@
       <c r="AG262" s="1"/>
       <c r="AH262" s="1"/>
       <c r="AI262" s="1"/>
-      <c r="AJ262" s="1"/>
+      <c r="AJ262" s="15"/>
       <c r="AK262" s="1"/>
       <c r="AL262" s="1"/>
       <c r="AM262" s="1"/>
@@ -17938,7 +18955,7 @@
       <c r="AG263" s="1"/>
       <c r="AH263" s="1"/>
       <c r="AI263" s="1"/>
-      <c r="AJ263" s="1"/>
+      <c r="AJ263" s="15"/>
       <c r="AK263" s="1"/>
       <c r="AL263" s="1"/>
       <c r="AM263" s="1"/>
@@ -17990,7 +19007,7 @@
       <c r="AG264" s="1"/>
       <c r="AH264" s="1"/>
       <c r="AI264" s="1"/>
-      <c r="AJ264" s="1"/>
+      <c r="AJ264" s="15"/>
       <c r="AK264" s="1"/>
       <c r="AL264" s="1"/>
       <c r="AM264" s="1"/>
@@ -18042,7 +19059,7 @@
       <c r="AG265" s="1"/>
       <c r="AH265" s="1"/>
       <c r="AI265" s="1"/>
-      <c r="AJ265" s="1"/>
+      <c r="AJ265" s="15"/>
       <c r="AK265" s="1"/>
       <c r="AL265" s="1"/>
       <c r="AM265" s="1"/>
@@ -18094,7 +19111,7 @@
       <c r="AG266" s="1"/>
       <c r="AH266" s="1"/>
       <c r="AI266" s="1"/>
-      <c r="AJ266" s="1"/>
+      <c r="AJ266" s="15"/>
       <c r="AK266" s="1"/>
       <c r="AL266" s="1"/>
       <c r="AM266" s="1"/>
@@ -18146,7 +19163,7 @@
       <c r="AG267" s="1"/>
       <c r="AH267" s="1"/>
       <c r="AI267" s="1"/>
-      <c r="AJ267" s="1"/>
+      <c r="AJ267" s="15"/>
       <c r="AK267" s="1"/>
       <c r="AL267" s="1"/>
       <c r="AM267" s="1"/>
@@ -18198,7 +19215,7 @@
       <c r="AG268" s="1"/>
       <c r="AH268" s="1"/>
       <c r="AI268" s="1"/>
-      <c r="AJ268" s="1"/>
+      <c r="AJ268" s="15"/>
       <c r="AK268" s="1"/>
       <c r="AL268" s="1"/>
       <c r="AM268" s="1"/>
@@ -18250,7 +19267,7 @@
       <c r="AG269" s="1"/>
       <c r="AH269" s="1"/>
       <c r="AI269" s="1"/>
-      <c r="AJ269" s="1"/>
+      <c r="AJ269" s="15"/>
       <c r="AK269" s="1"/>
       <c r="AL269" s="1"/>
       <c r="AM269" s="1"/>
@@ -18302,7 +19319,7 @@
       <c r="AG270" s="1"/>
       <c r="AH270" s="1"/>
       <c r="AI270" s="1"/>
-      <c r="AJ270" s="1"/>
+      <c r="AJ270" s="15"/>
       <c r="AK270" s="1"/>
       <c r="AL270" s="1"/>
       <c r="AM270" s="1"/>
@@ -18354,7 +19371,7 @@
       <c r="AG271" s="1"/>
       <c r="AH271" s="1"/>
       <c r="AI271" s="1"/>
-      <c r="AJ271" s="1"/>
+      <c r="AJ271" s="15"/>
       <c r="AK271" s="1"/>
       <c r="AL271" s="1"/>
       <c r="AM271" s="1"/>
@@ -18406,7 +19423,7 @@
       <c r="AG272" s="1"/>
       <c r="AH272" s="1"/>
       <c r="AI272" s="1"/>
-      <c r="AJ272" s="1"/>
+      <c r="AJ272" s="15"/>
       <c r="AK272" s="1"/>
       <c r="AL272" s="1"/>
       <c r="AM272" s="1"/>
@@ -18458,7 +19475,7 @@
       <c r="AG273" s="1"/>
       <c r="AH273" s="1"/>
       <c r="AI273" s="1"/>
-      <c r="AJ273" s="1"/>
+      <c r="AJ273" s="15"/>
       <c r="AK273" s="1"/>
       <c r="AL273" s="1"/>
       <c r="AM273" s="1"/>
@@ -18510,7 +19527,7 @@
       <c r="AG274" s="1"/>
       <c r="AH274" s="1"/>
       <c r="AI274" s="1"/>
-      <c r="AJ274" s="1"/>
+      <c r="AJ274" s="15"/>
       <c r="AK274" s="1"/>
       <c r="AL274" s="1"/>
       <c r="AM274" s="1"/>
@@ -18562,7 +19579,7 @@
       <c r="AG275" s="1"/>
       <c r="AH275" s="1"/>
       <c r="AI275" s="1"/>
-      <c r="AJ275" s="1"/>
+      <c r="AJ275" s="15"/>
       <c r="AK275" s="1"/>
       <c r="AL275" s="1"/>
       <c r="AM275" s="1"/>
@@ -18614,7 +19631,7 @@
       <c r="AG276" s="1"/>
       <c r="AH276" s="1"/>
       <c r="AI276" s="1"/>
-      <c r="AJ276" s="1"/>
+      <c r="AJ276" s="15"/>
       <c r="AK276" s="1"/>
       <c r="AL276" s="1"/>
       <c r="AM276" s="1"/>
@@ -18666,7 +19683,7 @@
       <c r="AG277" s="1"/>
       <c r="AH277" s="1"/>
       <c r="AI277" s="1"/>
-      <c r="AJ277" s="1"/>
+      <c r="AJ277" s="15"/>
       <c r="AK277" s="1"/>
       <c r="AL277" s="1"/>
       <c r="AM277" s="1"/>
@@ -18718,7 +19735,7 @@
       <c r="AG278" s="1"/>
       <c r="AH278" s="1"/>
       <c r="AI278" s="1"/>
-      <c r="AJ278" s="1"/>
+      <c r="AJ278" s="15"/>
       <c r="AK278" s="1"/>
       <c r="AL278" s="1"/>
       <c r="AM278" s="1"/>
@@ -18770,7 +19787,7 @@
       <c r="AG279" s="1"/>
       <c r="AH279" s="1"/>
       <c r="AI279" s="1"/>
-      <c r="AJ279" s="1"/>
+      <c r="AJ279" s="15"/>
       <c r="AK279" s="1"/>
       <c r="AL279" s="1"/>
       <c r="AM279" s="1"/>
@@ -18822,7 +19839,7 @@
       <c r="AG280" s="1"/>
       <c r="AH280" s="1"/>
       <c r="AI280" s="1"/>
-      <c r="AJ280" s="1"/>
+      <c r="AJ280" s="15"/>
       <c r="AK280" s="1"/>
       <c r="AL280" s="1"/>
       <c r="AM280" s="1"/>
@@ -18874,7 +19891,7 @@
       <c r="AG281" s="1"/>
       <c r="AH281" s="1"/>
       <c r="AI281" s="1"/>
-      <c r="AJ281" s="1"/>
+      <c r="AJ281" s="15"/>
       <c r="AK281" s="1"/>
       <c r="AL281" s="1"/>
       <c r="AM281" s="1"/>
@@ -18926,7 +19943,7 @@
       <c r="AG282" s="1"/>
       <c r="AH282" s="1"/>
       <c r="AI282" s="1"/>
-      <c r="AJ282" s="1"/>
+      <c r="AJ282" s="15"/>
       <c r="AK282" s="1"/>
       <c r="AL282" s="1"/>
       <c r="AM282" s="1"/>
@@ -18978,7 +19995,7 @@
       <c r="AG283" s="1"/>
       <c r="AH283" s="1"/>
       <c r="AI283" s="1"/>
-      <c r="AJ283" s="1"/>
+      <c r="AJ283" s="15"/>
       <c r="AK283" s="1"/>
       <c r="AL283" s="1"/>
       <c r="AM283" s="1"/>
@@ -19030,7 +20047,7 @@
       <c r="AG284" s="1"/>
       <c r="AH284" s="1"/>
       <c r="AI284" s="1"/>
-      <c r="AJ284" s="1"/>
+      <c r="AJ284" s="15"/>
       <c r="AK284" s="1"/>
       <c r="AL284" s="1"/>
       <c r="AM284" s="1"/>
@@ -19082,7 +20099,7 @@
       <c r="AG285" s="1"/>
       <c r="AH285" s="1"/>
       <c r="AI285" s="1"/>
-      <c r="AJ285" s="1"/>
+      <c r="AJ285" s="15"/>
       <c r="AK285" s="1"/>
       <c r="AL285" s="1"/>
       <c r="AM285" s="1"/>
@@ -19134,7 +20151,7 @@
       <c r="AG286" s="1"/>
       <c r="AH286" s="1"/>
       <c r="AI286" s="1"/>
-      <c r="AJ286" s="1"/>
+      <c r="AJ286" s="15"/>
       <c r="AK286" s="1"/>
       <c r="AL286" s="1"/>
       <c r="AM286" s="1"/>
@@ -19186,7 +20203,7 @@
       <c r="AG287" s="1"/>
       <c r="AH287" s="1"/>
       <c r="AI287" s="1"/>
-      <c r="AJ287" s="1"/>
+      <c r="AJ287" s="15"/>
       <c r="AK287" s="1"/>
       <c r="AL287" s="1"/>
       <c r="AM287" s="1"/>
@@ -19238,7 +20255,7 @@
       <c r="AG288" s="1"/>
       <c r="AH288" s="1"/>
       <c r="AI288" s="1"/>
-      <c r="AJ288" s="1"/>
+      <c r="AJ288" s="15"/>
       <c r="AK288" s="1"/>
       <c r="AL288" s="1"/>
       <c r="AM288" s="1"/>
@@ -19290,7 +20307,7 @@
       <c r="AG289" s="1"/>
       <c r="AH289" s="1"/>
       <c r="AI289" s="1"/>
-      <c r="AJ289" s="1"/>
+      <c r="AJ289" s="15"/>
       <c r="AK289" s="1"/>
       <c r="AL289" s="1"/>
       <c r="AM289" s="1"/>
@@ -19342,7 +20359,7 @@
       <c r="AG290" s="1"/>
       <c r="AH290" s="1"/>
       <c r="AI290" s="1"/>
-      <c r="AJ290" s="1"/>
+      <c r="AJ290" s="15"/>
       <c r="AK290" s="1"/>
       <c r="AL290" s="1"/>
       <c r="AM290" s="1"/>
@@ -19394,7 +20411,7 @@
       <c r="AG291" s="1"/>
       <c r="AH291" s="1"/>
       <c r="AI291" s="1"/>
-      <c r="AJ291" s="1"/>
+      <c r="AJ291" s="15"/>
       <c r="AK291" s="1"/>
       <c r="AL291" s="1"/>
       <c r="AM291" s="1"/>
@@ -19446,7 +20463,7 @@
       <c r="AG292" s="1"/>
       <c r="AH292" s="1"/>
       <c r="AI292" s="1"/>
-      <c r="AJ292" s="1"/>
+      <c r="AJ292" s="15"/>
       <c r="AK292" s="1"/>
       <c r="AL292" s="1"/>
       <c r="AM292" s="1"/>
@@ -19498,7 +20515,7 @@
       <c r="AG293" s="1"/>
       <c r="AH293" s="1"/>
       <c r="AI293" s="1"/>
-      <c r="AJ293" s="1"/>
+      <c r="AJ293" s="15"/>
       <c r="AK293" s="1"/>
       <c r="AL293" s="1"/>
       <c r="AM293" s="1"/>
@@ -19550,7 +20567,7 @@
       <c r="AG294" s="1"/>
       <c r="AH294" s="1"/>
       <c r="AI294" s="1"/>
-      <c r="AJ294" s="1"/>
+      <c r="AJ294" s="15"/>
       <c r="AK294" s="1"/>
       <c r="AL294" s="1"/>
       <c r="AM294" s="1"/>
@@ -19602,7 +20619,7 @@
       <c r="AG295" s="1"/>
       <c r="AH295" s="1"/>
       <c r="AI295" s="1"/>
-      <c r="AJ295" s="1"/>
+      <c r="AJ295" s="15"/>
       <c r="AK295" s="1"/>
       <c r="AL295" s="1"/>
       <c r="AM295" s="1"/>
@@ -19654,7 +20671,7 @@
       <c r="AG296" s="1"/>
       <c r="AH296" s="1"/>
       <c r="AI296" s="1"/>
-      <c r="AJ296" s="1"/>
+      <c r="AJ296" s="15"/>
       <c r="AK296" s="1"/>
       <c r="AL296" s="1"/>
       <c r="AM296" s="1"/>
@@ -19706,7 +20723,7 @@
       <c r="AG297" s="1"/>
       <c r="AH297" s="1"/>
       <c r="AI297" s="1"/>
-      <c r="AJ297" s="1"/>
+      <c r="AJ297" s="15"/>
       <c r="AK297" s="1"/>
       <c r="AL297" s="1"/>
       <c r="AM297" s="1"/>
@@ -19758,7 +20775,7 @@
       <c r="AG298" s="1"/>
       <c r="AH298" s="1"/>
       <c r="AI298" s="1"/>
-      <c r="AJ298" s="1"/>
+      <c r="AJ298" s="15"/>
       <c r="AK298" s="1"/>
       <c r="AL298" s="1"/>
       <c r="AM298" s="1"/>
@@ -19810,7 +20827,7 @@
       <c r="AG299" s="1"/>
       <c r="AH299" s="1"/>
       <c r="AI299" s="1"/>
-      <c r="AJ299" s="1"/>
+      <c r="AJ299" s="15"/>
       <c r="AK299" s="1"/>
       <c r="AL299" s="1"/>
       <c r="AM299" s="1"/>
@@ -19862,7 +20879,7 @@
       <c r="AG300" s="1"/>
       <c r="AH300" s="1"/>
       <c r="AI300" s="1"/>
-      <c r="AJ300" s="1"/>
+      <c r="AJ300" s="15"/>
       <c r="AK300" s="1"/>
       <c r="AL300" s="1"/>
       <c r="AM300" s="1"/>
@@ -19914,7 +20931,7 @@
       <c r="AG301" s="1"/>
       <c r="AH301" s="1"/>
       <c r="AI301" s="1"/>
-      <c r="AJ301" s="1"/>
+      <c r="AJ301" s="15"/>
       <c r="AK301" s="1"/>
       <c r="AL301" s="1"/>
       <c r="AM301" s="1"/>
@@ -19966,7 +20983,7 @@
       <c r="AG302" s="1"/>
       <c r="AH302" s="1"/>
       <c r="AI302" s="1"/>
-      <c r="AJ302" s="1"/>
+      <c r="AJ302" s="15"/>
       <c r="AK302" s="1"/>
       <c r="AL302" s="1"/>
       <c r="AM302" s="1"/>
@@ -20018,7 +21035,7 @@
       <c r="AG303" s="1"/>
       <c r="AH303" s="1"/>
       <c r="AI303" s="1"/>
-      <c r="AJ303" s="1"/>
+      <c r="AJ303" s="15"/>
       <c r="AK303" s="1"/>
       <c r="AL303" s="1"/>
       <c r="AM303" s="1"/>
@@ -20070,7 +21087,7 @@
       <c r="AG304" s="1"/>
       <c r="AH304" s="1"/>
       <c r="AI304" s="1"/>
-      <c r="AJ304" s="1"/>
+      <c r="AJ304" s="15"/>
       <c r="AK304" s="1"/>
       <c r="AL304" s="1"/>
       <c r="AM304" s="1"/>
@@ -20122,7 +21139,7 @@
       <c r="AG305" s="1"/>
       <c r="AH305" s="1"/>
       <c r="AI305" s="1"/>
-      <c r="AJ305" s="1"/>
+      <c r="AJ305" s="15"/>
       <c r="AK305" s="1"/>
       <c r="AL305" s="1"/>
       <c r="AM305" s="1"/>
@@ -20174,7 +21191,7 @@
       <c r="AG306" s="1"/>
       <c r="AH306" s="1"/>
       <c r="AI306" s="1"/>
-      <c r="AJ306" s="1"/>
+      <c r="AJ306" s="15"/>
       <c r="AK306" s="1"/>
       <c r="AL306" s="1"/>
       <c r="AM306" s="1"/>
@@ -20226,7 +21243,7 @@
       <c r="AG307" s="1"/>
       <c r="AH307" s="1"/>
       <c r="AI307" s="1"/>
-      <c r="AJ307" s="1"/>
+      <c r="AJ307" s="15"/>
       <c r="AK307" s="1"/>
       <c r="AL307" s="1"/>
       <c r="AM307" s="1"/>
@@ -20278,7 +21295,7 @@
       <c r="AG308" s="1"/>
       <c r="AH308" s="1"/>
       <c r="AI308" s="1"/>
-      <c r="AJ308" s="1"/>
+      <c r="AJ308" s="15"/>
       <c r="AK308" s="1"/>
       <c r="AL308" s="1"/>
       <c r="AM308" s="1"/>
@@ -20330,7 +21347,7 @@
       <c r="AG309" s="1"/>
       <c r="AH309" s="1"/>
       <c r="AI309" s="1"/>
-      <c r="AJ309" s="1"/>
+      <c r="AJ309" s="15"/>
       <c r="AK309" s="1"/>
       <c r="AL309" s="1"/>
       <c r="AM309" s="1"/>
@@ -20382,7 +21399,7 @@
       <c r="AG310" s="1"/>
       <c r="AH310" s="1"/>
       <c r="AI310" s="1"/>
-      <c r="AJ310" s="1"/>
+      <c r="AJ310" s="15"/>
       <c r="AK310" s="1"/>
       <c r="AL310" s="1"/>
       <c r="AM310" s="1"/>
@@ -20434,7 +21451,7 @@
       <c r="AG311" s="1"/>
       <c r="AH311" s="1"/>
       <c r="AI311" s="1"/>
-      <c r="AJ311" s="1"/>
+      <c r="AJ311" s="15"/>
       <c r="AK311" s="1"/>
       <c r="AL311" s="1"/>
       <c r="AM311" s="1"/>
@@ -20486,7 +21503,7 @@
       <c r="AG312" s="1"/>
       <c r="AH312" s="1"/>
       <c r="AI312" s="1"/>
-      <c r="AJ312" s="1"/>
+      <c r="AJ312" s="15"/>
       <c r="AK312" s="1"/>
       <c r="AL312" s="1"/>
       <c r="AM312" s="1"/>
@@ -20538,7 +21555,7 @@
       <c r="AG313" s="1"/>
       <c r="AH313" s="1"/>
       <c r="AI313" s="1"/>
-      <c r="AJ313" s="1"/>
+      <c r="AJ313" s="15"/>
       <c r="AK313" s="1"/>
       <c r="AL313" s="1"/>
       <c r="AM313" s="1"/>
@@ -20590,7 +21607,7 @@
       <c r="AG314" s="1"/>
       <c r="AH314" s="1"/>
       <c r="AI314" s="1"/>
-      <c r="AJ314" s="1"/>
+      <c r="AJ314" s="15"/>
       <c r="AK314" s="1"/>
       <c r="AL314" s="1"/>
       <c r="AM314" s="1"/>
@@ -20642,7 +21659,7 @@
       <c r="AG315" s="1"/>
       <c r="AH315" s="1"/>
       <c r="AI315" s="1"/>
-      <c r="AJ315" s="1"/>
+      <c r="AJ315" s="15"/>
       <c r="AK315" s="1"/>
       <c r="AL315" s="1"/>
       <c r="AM315" s="1"/>
@@ -20694,7 +21711,7 @@
       <c r="AG316" s="1"/>
       <c r="AH316" s="1"/>
       <c r="AI316" s="1"/>
-      <c r="AJ316" s="1"/>
+      <c r="AJ316" s="15"/>
       <c r="AK316" s="1"/>
       <c r="AL316" s="1"/>
       <c r="AM316" s="1"/>
@@ -20746,7 +21763,7 @@
       <c r="AG317" s="1"/>
       <c r="AH317" s="1"/>
       <c r="AI317" s="1"/>
-      <c r="AJ317" s="1"/>
+      <c r="AJ317" s="15"/>
       <c r="AK317" s="1"/>
       <c r="AL317" s="1"/>
       <c r="AM317" s="1"/>
@@ -20798,7 +21815,7 @@
       <c r="AG318" s="1"/>
       <c r="AH318" s="1"/>
       <c r="AI318" s="1"/>
-      <c r="AJ318" s="1"/>
+      <c r="AJ318" s="15"/>
       <c r="AK318" s="1"/>
       <c r="AL318" s="1"/>
       <c r="AM318" s="1"/>
@@ -20850,7 +21867,7 @@
       <c r="AG319" s="1"/>
       <c r="AH319" s="1"/>
       <c r="AI319" s="1"/>
-      <c r="AJ319" s="1"/>
+      <c r="AJ319" s="15"/>
       <c r="AK319" s="1"/>
       <c r="AL319" s="1"/>
       <c r="AM319" s="1"/>
@@ -20902,7 +21919,7 @@
       <c r="AG320" s="1"/>
       <c r="AH320" s="1"/>
       <c r="AI320" s="1"/>
-      <c r="AJ320" s="1"/>
+      <c r="AJ320" s="15"/>
       <c r="AK320" s="1"/>
       <c r="AL320" s="1"/>
       <c r="AM320" s="1"/>
@@ -20954,7 +21971,7 @@
       <c r="AG321" s="1"/>
       <c r="AH321" s="1"/>
       <c r="AI321" s="1"/>
-      <c r="AJ321" s="1"/>
+      <c r="AJ321" s="15"/>
       <c r="AK321" s="1"/>
       <c r="AL321" s="1"/>
       <c r="AM321" s="1"/>
@@ -21006,7 +22023,7 @@
       <c r="AG322" s="1"/>
       <c r="AH322" s="1"/>
       <c r="AI322" s="1"/>
-      <c r="AJ322" s="1"/>
+      <c r="AJ322" s="15"/>
       <c r="AK322" s="1"/>
       <c r="AL322" s="1"/>
       <c r="AM322" s="1"/>
@@ -21058,7 +22075,7 @@
       <c r="AG323" s="1"/>
       <c r="AH323" s="1"/>
       <c r="AI323" s="1"/>
-      <c r="AJ323" s="1"/>
+      <c r="AJ323" s="15"/>
       <c r="AK323" s="1"/>
       <c r="AL323" s="1"/>
       <c r="AM323" s="1"/>
@@ -21110,7 +22127,7 @@
       <c r="AG324" s="1"/>
       <c r="AH324" s="1"/>
       <c r="AI324" s="1"/>
-      <c r="AJ324" s="1"/>
+      <c r="AJ324" s="15"/>
       <c r="AK324" s="1"/>
       <c r="AL324" s="1"/>
       <c r="AM324" s="1"/>
@@ -21162,7 +22179,7 @@
       <c r="AG325" s="1"/>
       <c r="AH325" s="1"/>
       <c r="AI325" s="1"/>
-      <c r="AJ325" s="1"/>
+      <c r="AJ325" s="15"/>
       <c r="AK325" s="1"/>
       <c r="AL325" s="1"/>
       <c r="AM325" s="1"/>
@@ -21214,7 +22231,7 @@
       <c r="AG326" s="1"/>
       <c r="AH326" s="1"/>
       <c r="AI326" s="1"/>
-      <c r="AJ326" s="1"/>
+      <c r="AJ326" s="15"/>
       <c r="AK326" s="1"/>
       <c r="AL326" s="1"/>
       <c r="AM326" s="1"/>
@@ -21266,7 +22283,7 @@
       <c r="AG327" s="1"/>
       <c r="AH327" s="1"/>
       <c r="AI327" s="1"/>
-      <c r="AJ327" s="1"/>
+      <c r="AJ327" s="15"/>
       <c r="AK327" s="1"/>
       <c r="AL327" s="1"/>
       <c r="AM327" s="1"/>
@@ -21318,7 +22335,7 @@
       <c r="AG328" s="1"/>
       <c r="AH328" s="1"/>
       <c r="AI328" s="1"/>
-      <c r="AJ328" s="1"/>
+      <c r="AJ328" s="15"/>
       <c r="AK328" s="1"/>
       <c r="AL328" s="1"/>
       <c r="AM328" s="1"/>
@@ -21370,7 +22387,7 @@
       <c r="AG329" s="1"/>
       <c r="AH329" s="1"/>
       <c r="AI329" s="1"/>
-      <c r="AJ329" s="1"/>
+      <c r="AJ329" s="15"/>
       <c r="AK329" s="1"/>
       <c r="AL329" s="1"/>
       <c r="AM329" s="1"/>
@@ -21422,7 +22439,7 @@
       <c r="AG330" s="1"/>
       <c r="AH330" s="1"/>
       <c r="AI330" s="1"/>
-      <c r="AJ330" s="1"/>
+      <c r="AJ330" s="15"/>
       <c r="AK330" s="1"/>
       <c r="AL330" s="1"/>
       <c r="AM330" s="1"/>
@@ -21474,7 +22491,7 @@
       <c r="AG331" s="1"/>
       <c r="AH331" s="1"/>
       <c r="AI331" s="1"/>
-      <c r="AJ331" s="1"/>
+      <c r="AJ331" s="15"/>
       <c r="AK331" s="1"/>
       <c r="AL331" s="1"/>
       <c r="AM331" s="1"/>
@@ -21526,7 +22543,7 @@
       <c r="AG332" s="1"/>
       <c r="AH332" s="1"/>
       <c r="AI332" s="1"/>
-      <c r="AJ332" s="1"/>
+      <c r="AJ332" s="15"/>
       <c r="AK332" s="1"/>
       <c r="AL332" s="1"/>
       <c r="AM332" s="1"/>
@@ -21578,7 +22595,7 @@
       <c r="AG333" s="1"/>
       <c r="AH333" s="1"/>
       <c r="AI333" s="1"/>
-      <c r="AJ333" s="1"/>
+      <c r="AJ333" s="15"/>
       <c r="AK333" s="1"/>
       <c r="AL333" s="1"/>
       <c r="AM333" s="1"/>
@@ -21630,7 +22647,7 @@
       <c r="AG334" s="1"/>
       <c r="AH334" s="1"/>
       <c r="AI334" s="1"/>
-      <c r="AJ334" s="1"/>
+      <c r="AJ334" s="15"/>
       <c r="AK334" s="1"/>
       <c r="AL334" s="1"/>
       <c r="AM334" s="1"/>
@@ -21682,7 +22699,7 @@
       <c r="AG335" s="1"/>
       <c r="AH335" s="1"/>
       <c r="AI335" s="1"/>
-      <c r="AJ335" s="1"/>
+      <c r="AJ335" s="15"/>
       <c r="AK335" s="1"/>
       <c r="AL335" s="1"/>
       <c r="AM335" s="1"/>
@@ -21734,7 +22751,7 @@
       <c r="AG336" s="1"/>
       <c r="AH336" s="1"/>
       <c r="AI336" s="1"/>
-      <c r="AJ336" s="1"/>
+      <c r="AJ336" s="15"/>
       <c r="AK336" s="1"/>
       <c r="AL336" s="1"/>
       <c r="AM336" s="1"/>
@@ -21786,7 +22803,7 @@
       <c r="AG337" s="1"/>
       <c r="AH337" s="1"/>
       <c r="AI337" s="1"/>
-      <c r="AJ337" s="1"/>
+      <c r="AJ337" s="15"/>
       <c r="AK337" s="1"/>
       <c r="AL337" s="1"/>
       <c r="AM337" s="1"/>
@@ -21838,7 +22855,7 @@
       <c r="AG338" s="1"/>
       <c r="AH338" s="1"/>
       <c r="AI338" s="1"/>
-      <c r="AJ338" s="1"/>
+      <c r="AJ338" s="15"/>
       <c r="AK338" s="1"/>
       <c r="AL338" s="1"/>
       <c r="AM338" s="1"/>
@@ -21890,7 +22907,7 @@
       <c r="AG339" s="1"/>
       <c r="AH339" s="1"/>
       <c r="AI339" s="1"/>
-      <c r="AJ339" s="1"/>
+      <c r="AJ339" s="15"/>
       <c r="AK339" s="1"/>
       <c r="AL339" s="1"/>
       <c r="AM339" s="1"/>
@@ -21942,7 +22959,7 @@
       <c r="AG340" s="1"/>
       <c r="AH340" s="1"/>
       <c r="AI340" s="1"/>
-      <c r="AJ340" s="1"/>
+      <c r="AJ340" s="15"/>
       <c r="AK340" s="1"/>
       <c r="AL340" s="1"/>
       <c r="AM340" s="1"/>
@@ -21994,7 +23011,7 @@
       <c r="AG341" s="1"/>
       <c r="AH341" s="1"/>
       <c r="AI341" s="1"/>
-      <c r="AJ341" s="1"/>
+      <c r="AJ341" s="15"/>
       <c r="AK341" s="1"/>
       <c r="AL341" s="1"/>
       <c r="AM341" s="1"/>
@@ -22046,7 +23063,7 @@
       <c r="AG342" s="1"/>
       <c r="AH342" s="1"/>
       <c r="AI342" s="1"/>
-      <c r="AJ342" s="1"/>
+      <c r="AJ342" s="15"/>
       <c r="AK342" s="1"/>
       <c r="AL342" s="1"/>
       <c r="AM342" s="1"/>
@@ -22098,7 +23115,7 @@
       <c r="AG343" s="1"/>
       <c r="AH343" s="1"/>
       <c r="AI343" s="1"/>
-      <c r="AJ343" s="1"/>
+      <c r="AJ343" s="15"/>
       <c r="AK343" s="1"/>
       <c r="AL343" s="1"/>
       <c r="AM343" s="1"/>
@@ -22150,7 +23167,7 @@
       <c r="AG344" s="1"/>
       <c r="AH344" s="1"/>
       <c r="AI344" s="1"/>
-      <c r="AJ344" s="1"/>
+      <c r="AJ344" s="15"/>
       <c r="AK344" s="1"/>
       <c r="AL344" s="1"/>
       <c r="AM344" s="1"/>
@@ -22202,7 +23219,7 @@
       <c r="AG345" s="1"/>
       <c r="AH345" s="1"/>
       <c r="AI345" s="1"/>
-      <c r="AJ345" s="1"/>
+      <c r="AJ345" s="15"/>
       <c r="AK345" s="1"/>
       <c r="AL345" s="1"/>
       <c r="AM345" s="1"/>
@@ -22254,7 +23271,7 @@
       <c r="AG346" s="1"/>
       <c r="AH346" s="1"/>
       <c r="AI346" s="1"/>
-      <c r="AJ346" s="1"/>
+      <c r="AJ346" s="15"/>
       <c r="AK346" s="1"/>
       <c r="AL346" s="1"/>
       <c r="AM346" s="1"/>
@@ -22306,7 +23323,7 @@
       <c r="AG347" s="1"/>
       <c r="AH347" s="1"/>
       <c r="AI347" s="1"/>
-      <c r="AJ347" s="1"/>
+      <c r="AJ347" s="15"/>
       <c r="AK347" s="1"/>
       <c r="AL347" s="1"/>
       <c r="AM347" s="1"/>
@@ -22358,7 +23375,7 @@
       <c r="AG348" s="1"/>
       <c r="AH348" s="1"/>
       <c r="AI348" s="1"/>
-      <c r="AJ348" s="1"/>
+      <c r="AJ348" s="15"/>
       <c r="AK348" s="1"/>
       <c r="AL348" s="1"/>
       <c r="AM348" s="1"/>
@@ -22410,7 +23427,7 @@
       <c r="AG349" s="1"/>
       <c r="AH349" s="1"/>
       <c r="AI349" s="1"/>
-      <c r="AJ349" s="1"/>
+      <c r="AJ349" s="15"/>
       <c r="AK349" s="1"/>
       <c r="AL349" s="1"/>
       <c r="AM349" s="1"/>
@@ -22462,7 +23479,7 @@
       <c r="AG350" s="1"/>
       <c r="AH350" s="1"/>
       <c r="AI350" s="1"/>
-      <c r="AJ350" s="1"/>
+      <c r="AJ350" s="15"/>
       <c r="AK350" s="1"/>
       <c r="AL350" s="1"/>
       <c r="AM350" s="1"/>
@@ -22514,7 +23531,7 @@
       <c r="AG351" s="1"/>
       <c r="AH351" s="1"/>
       <c r="AI351" s="1"/>
-      <c r="AJ351" s="1"/>
+      <c r="AJ351" s="15"/>
       <c r="AK351" s="1"/>
       <c r="AL351" s="1"/>
       <c r="AM351" s="1"/>
@@ -22566,7 +23583,7 @@
       <c r="AG352" s="1"/>
       <c r="AH352" s="1"/>
       <c r="AI352" s="1"/>
-      <c r="AJ352" s="1"/>
+      <c r="AJ352" s="15"/>
       <c r="AK352" s="1"/>
       <c r="AL352" s="1"/>
       <c r="AM352" s="1"/>
@@ -22618,7 +23635,7 @@
       <c r="AG353" s="1"/>
       <c r="AH353" s="1"/>
       <c r="AI353" s="1"/>
-      <c r="AJ353" s="1"/>
+      <c r="AJ353" s="15"/>
       <c r="AK353" s="1"/>
       <c r="AL353" s="1"/>
       <c r="AM353" s="1"/>
@@ -22670,7 +23687,7 @@
       <c r="AG354" s="1"/>
       <c r="AH354" s="1"/>
       <c r="AI354" s="1"/>
-      <c r="AJ354" s="1"/>
+      <c r="AJ354" s="15"/>
       <c r="AK354" s="1"/>
       <c r="AL354" s="1"/>
       <c r="AM354" s="1"/>
@@ -22722,7 +23739,7 @@
       <c r="AG355" s="1"/>
       <c r="AH355" s="1"/>
       <c r="AI355" s="1"/>
-      <c r="AJ355" s="1"/>
+      <c r="AJ355" s="15"/>
       <c r="AK355" s="1"/>
       <c r="AL355" s="1"/>
       <c r="AM355" s="1"/>
@@ -22774,7 +23791,7 @@
       <c r="AG356" s="1"/>
       <c r="AH356" s="1"/>
       <c r="AI356" s="1"/>
-      <c r="AJ356" s="1"/>
+      <c r="AJ356" s="15"/>
       <c r="AK356" s="1"/>
       <c r="AL356" s="1"/>
       <c r="AM356" s="1"/>
@@ -22826,7 +23843,7 @@
       <c r="AG357" s="1"/>
       <c r="AH357" s="1"/>
       <c r="AI357" s="1"/>
-      <c r="AJ357" s="1"/>
+      <c r="AJ357" s="15"/>
       <c r="AK357" s="1"/>
       <c r="AL357" s="1"/>
       <c r="AM357" s="1"/>
@@ -22878,7 +23895,7 @@
       <c r="AG358" s="1"/>
       <c r="AH358" s="1"/>
       <c r="AI358" s="1"/>
-      <c r="AJ358" s="1"/>
+      <c r="AJ358" s="15"/>
       <c r="AK358" s="1"/>
       <c r="AL358" s="1"/>
       <c r="AM358" s="1"/>
@@ -22930,7 +23947,7 @@
       <c r="AG359" s="1"/>
       <c r="AH359" s="1"/>
       <c r="AI359" s="1"/>
-      <c r="AJ359" s="1"/>
+      <c r="AJ359" s="15"/>
       <c r="AK359" s="1"/>
       <c r="AL359" s="1"/>
       <c r="AM359" s="1"/>
@@ -22982,7 +23999,7 @@
       <c r="AG360" s="1"/>
       <c r="AH360" s="1"/>
       <c r="AI360" s="1"/>
-      <c r="AJ360" s="1"/>
+      <c r="AJ360" s="15"/>
       <c r="AK360" s="1"/>
       <c r="AL360" s="1"/>
       <c r="AM360" s="1"/>
@@ -23034,7 +24051,7 @@
       <c r="AG361" s="1"/>
       <c r="AH361" s="1"/>
       <c r="AI361" s="1"/>
-      <c r="AJ361" s="1"/>
+      <c r="AJ361" s="15"/>
       <c r="AK361" s="1"/>
       <c r="AL361" s="1"/>
       <c r="AM361" s="1"/>
@@ -23086,7 +24103,7 @@
       <c r="AG362" s="1"/>
       <c r="AH362" s="1"/>
       <c r="AI362" s="1"/>
-      <c r="AJ362" s="1"/>
+      <c r="AJ362" s="15"/>
       <c r="AK362" s="1"/>
       <c r="AL362" s="1"/>
       <c r="AM362" s="1"/>
@@ -23138,7 +24155,7 @@
       <c r="AG363" s="1"/>
       <c r="AH363" s="1"/>
       <c r="AI363" s="1"/>
-      <c r="AJ363" s="1"/>
+      <c r="AJ363" s="15"/>
       <c r="AK363" s="1"/>
       <c r="AL363" s="1"/>
       <c r="AM363" s="1"/>
@@ -23190,7 +24207,7 @@
       <c r="AG364" s="1"/>
       <c r="AH364" s="1"/>
       <c r="AI364" s="1"/>
-      <c r="AJ364" s="1"/>
+      <c r="AJ364" s="15"/>
       <c r="AK364" s="1"/>
       <c r="AL364" s="1"/>
       <c r="AM364" s="1"/>
@@ -23242,7 +24259,7 @@
       <c r="AG365" s="1"/>
       <c r="AH365" s="1"/>
       <c r="AI365" s="1"/>
-      <c r="AJ365" s="1"/>
+      <c r="AJ365" s="15"/>
       <c r="AK365" s="1"/>
       <c r="AL365" s="1"/>
       <c r="AM365" s="1"/>
@@ -23294,7 +24311,7 @@
       <c r="AG366" s="1"/>
       <c r="AH366" s="1"/>
       <c r="AI366" s="1"/>
-      <c r="AJ366" s="1"/>
+      <c r="AJ366" s="15"/>
       <c r="AK366" s="1"/>
       <c r="AL366" s="1"/>
       <c r="AM366" s="1"/>
@@ -23346,7 +24363,7 @@
       <c r="AG367" s="1"/>
       <c r="AH367" s="1"/>
       <c r="AI367" s="1"/>
-      <c r="AJ367" s="1"/>
+      <c r="AJ367" s="15"/>
       <c r="AK367" s="1"/>
       <c r="AL367" s="1"/>
       <c r="AM367" s="1"/>
@@ -23398,7 +24415,7 @@
       <c r="AG368" s="1"/>
       <c r="AH368" s="1"/>
       <c r="AI368" s="1"/>
-      <c r="AJ368" s="1"/>
+      <c r="AJ368" s="15"/>
       <c r="AK368" s="1"/>
       <c r="AL368" s="1"/>
       <c r="AM368" s="1"/>
@@ -23450,7 +24467,7 @@
       <c r="AG369" s="1"/>
       <c r="AH369" s="1"/>
       <c r="AI369" s="1"/>
-      <c r="AJ369" s="1"/>
+      <c r="AJ369" s="15"/>
       <c r="AK369" s="1"/>
       <c r="AL369" s="1"/>
       <c r="AM369" s="1"/>
@@ -23502,7 +24519,7 @@
       <c r="AG370" s="1"/>
       <c r="AH370" s="1"/>
       <c r="AI370" s="1"/>
-      <c r="AJ370" s="1"/>
+      <c r="AJ370" s="15"/>
       <c r="AK370" s="1"/>
       <c r="AL370" s="1"/>
       <c r="AM370" s="1"/>
@@ -23554,7 +24571,7 @@
       <c r="AG371" s="1"/>
       <c r="AH371" s="1"/>
       <c r="AI371" s="1"/>
-      <c r="AJ371" s="1"/>
+      <c r="AJ371" s="15"/>
       <c r="AK371" s="1"/>
       <c r="AL371" s="1"/>
       <c r="AM371" s="1"/>
@@ -23606,7 +24623,7 @@
       <c r="AG372" s="1"/>
       <c r="AH372" s="1"/>
       <c r="AI372" s="1"/>
-      <c r="AJ372" s="1"/>
+      <c r="AJ372" s="15"/>
       <c r="AK372" s="1"/>
       <c r="AL372" s="1"/>
       <c r="AM372" s="1"/>
@@ -23658,7 +24675,7 @@
       <c r="AG373" s="1"/>
       <c r="AH373" s="1"/>
       <c r="AI373" s="1"/>
-      <c r="AJ373" s="1"/>
+      <c r="AJ373" s="15"/>
       <c r="AK373" s="1"/>
       <c r="AL373" s="1"/>
       <c r="AM373" s="1"/>
@@ -23710,7 +24727,7 @@
       <c r="AG374" s="1"/>
       <c r="AH374" s="1"/>
       <c r="AI374" s="1"/>
-      <c r="AJ374" s="1"/>
+      <c r="AJ374" s="15"/>
       <c r="AK374" s="1"/>
       <c r="AL374" s="1"/>
       <c r="AM374" s="1"/>
@@ -23762,7 +24779,7 @@
       <c r="AG375" s="1"/>
       <c r="AH375" s="1"/>
       <c r="AI375" s="1"/>
-      <c r="AJ375" s="1"/>
+      <c r="AJ375" s="15"/>
       <c r="AK375" s="1"/>
       <c r="AL375" s="1"/>
       <c r="AM375" s="1"/>
@@ -23814,7 +24831,7 @@
       <c r="AG376" s="1"/>
       <c r="AH376" s="1"/>
       <c r="AI376" s="1"/>
-      <c r="AJ376" s="1"/>
+      <c r="AJ376" s="15"/>
       <c r="AK376" s="1"/>
       <c r="AL376" s="1"/>
       <c r="AM376" s="1"/>
@@ -23866,7 +24883,7 @@
       <c r="AG377" s="1"/>
       <c r="AH377" s="1"/>
       <c r="AI377" s="1"/>
-      <c r="AJ377" s="1"/>
+      <c r="AJ377" s="15"/>
       <c r="AK377" s="1"/>
       <c r="AL377" s="1"/>
       <c r="AM377" s="1"/>
@@ -23918,7 +24935,7 @@
       <c r="AG378" s="1"/>
       <c r="AH378" s="1"/>
       <c r="AI378" s="1"/>
-      <c r="AJ378" s="1"/>
+      <c r="AJ378" s="15"/>
       <c r="AK378" s="1"/>
       <c r="AL378" s="1"/>
       <c r="AM378" s="1"/>
@@ -23970,7 +24987,7 @@
       <c r="AG379" s="1"/>
       <c r="AH379" s="1"/>
       <c r="AI379" s="1"/>
-      <c r="AJ379" s="1"/>
+      <c r="AJ379" s="15"/>
       <c r="AK379" s="1"/>
       <c r="AL379" s="1"/>
       <c r="AM379" s="1"/>
@@ -24022,7 +25039,7 @@
       <c r="AG380" s="1"/>
       <c r="AH380" s="1"/>
       <c r="AI380" s="1"/>
-      <c r="AJ380" s="1"/>
+      <c r="AJ380" s="15"/>
       <c r="AK380" s="1"/>
       <c r="AL380" s="1"/>
       <c r="AM380" s="1"/>
@@ -24074,7 +25091,7 @@
       <c r="AG381" s="1"/>
       <c r="AH381" s="1"/>
       <c r="AI381" s="1"/>
-      <c r="AJ381" s="1"/>
+      <c r="AJ381" s="15"/>
       <c r="AK381" s="1"/>
       <c r="AL381" s="1"/>
       <c r="AM381" s="1"/>
@@ -24126,7 +25143,7 @@
       <c r="AG382" s="1"/>
       <c r="AH382" s="1"/>
       <c r="AI382" s="1"/>
-      <c r="AJ382" s="1"/>
+      <c r="AJ382" s="15"/>
       <c r="AK382" s="1"/>
       <c r="AL382" s="1"/>
       <c r="AM382" s="1"/>
@@ -24178,7 +25195,7 @@
       <c r="AG383" s="1"/>
       <c r="AH383" s="1"/>
       <c r="AI383" s="1"/>
-      <c r="AJ383" s="1"/>
+      <c r="AJ383" s="15"/>
       <c r="AK383" s="1"/>
       <c r="AL383" s="1"/>
       <c r="AM383" s="1"/>
@@ -24230,7 +25247,7 @@
       <c r="AG384" s="1"/>
       <c r="AH384" s="1"/>
       <c r="AI384" s="1"/>
-      <c r="AJ384" s="1"/>
+      <c r="AJ384" s="15"/>
       <c r="AK384" s="1"/>
       <c r="AL384" s="1"/>
       <c r="AM384" s="1"/>
@@ -24282,7 +25299,7 @@
       <c r="AG385" s="1"/>
       <c r="AH385" s="1"/>
       <c r="AI385" s="1"/>
-      <c r="AJ385" s="1"/>
+      <c r="AJ385" s="15"/>
       <c r="AK385" s="1"/>
       <c r="AL385" s="1"/>
       <c r="AM385" s="1"/>
@@ -24334,7 +25351,7 @@
       <c r="AG386" s="1"/>
       <c r="AH386" s="1"/>
       <c r="AI386" s="1"/>
-      <c r="AJ386" s="1"/>
+      <c r="AJ386" s="15"/>
       <c r="AK386" s="1"/>
       <c r="AL386" s="1"/>
       <c r="AM386" s="1"/>
@@ -24386,7 +25403,7 @@
       <c r="AG387" s="1"/>
       <c r="AH387" s="1"/>
       <c r="AI387" s="1"/>
-      <c r="AJ387" s="1"/>
+      <c r="AJ387" s="15"/>
       <c r="AK387" s="1"/>
       <c r="AL387" s="1"/>
       <c r="AM387" s="1"/>
@@ -24438,7 +25455,7 @@
       <c r="AG388" s="1"/>
       <c r="AH388" s="1"/>
       <c r="AI388" s="1"/>
-      <c r="AJ388" s="1"/>
+      <c r="AJ388" s="15"/>
       <c r="AK388" s="1"/>
       <c r="AL388" s="1"/>
       <c r="AM388" s="1"/>
@@ -24490,7 +25507,7 @@
       <c r="AG389" s="1"/>
       <c r="AH389" s="1"/>
       <c r="AI389" s="1"/>
-      <c r="AJ389" s="1"/>
+      <c r="AJ389" s="15"/>
       <c r="AK389" s="1"/>
       <c r="AL389" s="1"/>
       <c r="AM389" s="1"/>
@@ -24542,7 +25559,7 @@
       <c r="AG390" s="1"/>
       <c r="AH390" s="1"/>
       <c r="AI390" s="1"/>
-      <c r="AJ390" s="1"/>
+      <c r="AJ390" s="15"/>
       <c r="AK390" s="1"/>
       <c r="AL390" s="1"/>
       <c r="AM390" s="1"/>
@@ -24594,7 +25611,7 @@
       <c r="AG391" s="1"/>
       <c r="AH391" s="1"/>
       <c r="AI391" s="1"/>
-      <c r="AJ391" s="1"/>
+      <c r="AJ391" s="15"/>
       <c r="AK391" s="1"/>
       <c r="AL391" s="1"/>
       <c r="AM391" s="1"/>
@@ -24646,7 +25663,7 @@
       <c r="AG392" s="1"/>
       <c r="AH392" s="1"/>
       <c r="AI392" s="1"/>
-      <c r="AJ392" s="1"/>
+      <c r="AJ392" s="15"/>
       <c r="AK392" s="1"/>
       <c r="AL392" s="1"/>
       <c r="AM392" s="1"/>
@@ -24698,7 +25715,7 @@
       <c r="AG393" s="1"/>
       <c r="AH393" s="1"/>
       <c r="AI393" s="1"/>
-      <c r="AJ393" s="1"/>
+      <c r="AJ393" s="15"/>
       <c r="AK393" s="1"/>
       <c r="AL393" s="1"/>
       <c r="AM393" s="1"/>
@@ -24750,7 +25767,7 @@
       <c r="AG394" s="1"/>
       <c r="AH394" s="1"/>
       <c r="AI394" s="1"/>
-      <c r="AJ394" s="1"/>
+      <c r="AJ394" s="15"/>
       <c r="AK394" s="1"/>
       <c r="AL394" s="1"/>
       <c r="AM394" s="1"/>
@@ -24802,7 +25819,7 @@
       <c r="AG395" s="1"/>
       <c r="AH395" s="1"/>
       <c r="AI395" s="1"/>
-      <c r="AJ395" s="1"/>
+      <c r="AJ395" s="15"/>
       <c r="AK395" s="1"/>
       <c r="AL395" s="1"/>
       <c r="AM395" s="1"/>
@@ -24854,7 +25871,7 @@
       <c r="AG396" s="1"/>
       <c r="AH396" s="1"/>
       <c r="AI396" s="1"/>
-      <c r="AJ396" s="1"/>
+      <c r="AJ396" s="15"/>
       <c r="AK396" s="1"/>
       <c r="AL396" s="1"/>
       <c r="AM396" s="1"/>
@@ -24906,7 +25923,7 @@
       <c r="AG397" s="1"/>
       <c r="AH397" s="1"/>
       <c r="AI397" s="1"/>
-      <c r="AJ397" s="1"/>
+      <c r="AJ397" s="15"/>
       <c r="AK397" s="1"/>
       <c r="AL397" s="1"/>
       <c r="AM397" s="1"/>
@@ -24958,7 +25975,7 @@
       <c r="AG398" s="1"/>
       <c r="AH398" s="1"/>
       <c r="AI398" s="1"/>
-      <c r="AJ398" s="1"/>
+      <c r="AJ398" s="15"/>
       <c r="AK398" s="1"/>
       <c r="AL398" s="1"/>
       <c r="AM398" s="1"/>
@@ -25010,7 +26027,7 @@
       <c r="AG399" s="1"/>
       <c r="AH399" s="1"/>
       <c r="AI399" s="1"/>
-      <c r="AJ399" s="1"/>
+      <c r="AJ399" s="15"/>
       <c r="AK399" s="1"/>
       <c r="AL399" s="1"/>
       <c r="AM399" s="1"/>
@@ -25062,7 +26079,7 @@
       <c r="AG400" s="1"/>
       <c r="AH400" s="1"/>
       <c r="AI400" s="1"/>
-      <c r="AJ400" s="1"/>
+      <c r="AJ400" s="15"/>
       <c r="AK400" s="1"/>
       <c r="AL400" s="1"/>
       <c r="AM400" s="1"/>
@@ -25114,7 +26131,7 @@
       <c r="AG401" s="1"/>
       <c r="AH401" s="1"/>
       <c r="AI401" s="1"/>
-      <c r="AJ401" s="1"/>
+      <c r="AJ401" s="15"/>
       <c r="AK401" s="1"/>
       <c r="AL401" s="1"/>
       <c r="AM401" s="1"/>
@@ -25166,7 +26183,7 @@
       <c r="AG402" s="1"/>
       <c r="AH402" s="1"/>
       <c r="AI402" s="1"/>
-      <c r="AJ402" s="1"/>
+      <c r="AJ402" s="15"/>
       <c r="AK402" s="1"/>
       <c r="AL402" s="1"/>
       <c r="AM402" s="1"/>
@@ -25218,7 +26235,7 @@
       <c r="AG403" s="1"/>
       <c r="AH403" s="1"/>
       <c r="AI403" s="1"/>
-      <c r="AJ403" s="1"/>
+      <c r="AJ403" s="15"/>
       <c r="AK403" s="1"/>
       <c r="AL403" s="1"/>
       <c r="AM403" s="1"/>
@@ -25270,7 +26287,7 @@
       <c r="AG404" s="1"/>
       <c r="AH404" s="1"/>
       <c r="AI404" s="1"/>
-      <c r="AJ404" s="1"/>
+      <c r="AJ404" s="15"/>
       <c r="AK404" s="1"/>
       <c r="AL404" s="1"/>
       <c r="AM404" s="1"/>
@@ -25322,7 +26339,7 @@
       <c r="AG405" s="1"/>
       <c r="AH405" s="1"/>
       <c r="AI405" s="1"/>
-      <c r="AJ405" s="1"/>
+      <c r="AJ405" s="15"/>
       <c r="AK405" s="1"/>
       <c r="AL405" s="1"/>
       <c r="AM405" s="1"/>
@@ -25374,7 +26391,7 @@
       <c r="AG406" s="1"/>
       <c r="AH406" s="1"/>
       <c r="AI406" s="1"/>
-      <c r="AJ406" s="1"/>
+      <c r="AJ406" s="15"/>
       <c r="AK406" s="1"/>
       <c r="AL406" s="1"/>
       <c r="AM406" s="1"/>
@@ -25426,7 +26443,7 @@
       <c r="AG407" s="1"/>
       <c r="AH407" s="1"/>
       <c r="AI407" s="1"/>
-      <c r="AJ407" s="1"/>
+      <c r="AJ407" s="15"/>
       <c r="AK407" s="1"/>
       <c r="AL407" s="1"/>
       <c r="AM407" s="1"/>
@@ -25478,7 +26495,7 @@
       <c r="AG408" s="1"/>
       <c r="AH408" s="1"/>
       <c r="AI408" s="1"/>
-      <c r="AJ408" s="1"/>
+      <c r="AJ408" s="15"/>
       <c r="AK408" s="1"/>
       <c r="AL408" s="1"/>
       <c r="AM408" s="1"/>
@@ -25530,7 +26547,7 @@
       <c r="AG409" s="1"/>
       <c r="AH409" s="1"/>
       <c r="AI409" s="1"/>
-      <c r="AJ409" s="1"/>
+      <c r="AJ409" s="15"/>
       <c r="AK409" s="1"/>
       <c r="AL409" s="1"/>
       <c r="AM409" s="1"/>
@@ -25582,7 +26599,7 @@
       <c r="AG410" s="1"/>
       <c r="AH410" s="1"/>
       <c r="AI410" s="1"/>
-      <c r="AJ410" s="1"/>
+      <c r="AJ410" s="15"/>
       <c r="AK410" s="1"/>
       <c r="AL410" s="1"/>
       <c r="AM410" s="1"/>
@@ -25634,7 +26651,7 @@
       <c r="AG411" s="1"/>
       <c r="AH411" s="1"/>
       <c r="AI411" s="1"/>
-      <c r="AJ411" s="1"/>
+      <c r="AJ411" s="15"/>
       <c r="AK411" s="1"/>
       <c r="AL411" s="1"/>
       <c r="AM411" s="1"/>
@@ -25686,7 +26703,7 @@
       <c r="AG412" s="1"/>
       <c r="AH412" s="1"/>
       <c r="AI412" s="1"/>
-      <c r="AJ412" s="1"/>
+      <c r="AJ412" s="15"/>
       <c r="AK412" s="1"/>
       <c r="AL412" s="1"/>
       <c r="AM412" s="1"/>
@@ -25738,7 +26755,7 @@
       <c r="AG413" s="1"/>
       <c r="AH413" s="1"/>
       <c r="AI413" s="1"/>
-      <c r="AJ413" s="1"/>
+      <c r="AJ413" s="15"/>
       <c r="AK413" s="1"/>
       <c r="AL413" s="1"/>
       <c r="AM413" s="1"/>
@@ -25790,7 +26807,7 @@
       <c r="AG414" s="1"/>
       <c r="AH414" s="1"/>
       <c r="AI414" s="1"/>
-      <c r="AJ414" s="1"/>
+      <c r="AJ414" s="15"/>
       <c r="AK414" s="1"/>
       <c r="AL414" s="1"/>
       <c r="AM414" s="1"/>
@@ -25842,7 +26859,7 @@
       <c r="AG415" s="1"/>
       <c r="AH415" s="1"/>
       <c r="AI415" s="1"/>
-      <c r="AJ415" s="1"/>
+      <c r="AJ415" s="15"/>
       <c r="AK415" s="1"/>
       <c r="AL415" s="1"/>
       <c r="AM415" s="1"/>
@@ -25894,7 +26911,7 @@
       <c r="AG416" s="1"/>
       <c r="AH416" s="1"/>
       <c r="AI416" s="1"/>
-      <c r="AJ416" s="1"/>
+      <c r="AJ416" s="15"/>
       <c r="AK416" s="1"/>
       <c r="AL416" s="1"/>
       <c r="AM416" s="1"/>
@@ -25946,7 +26963,7 @@
       <c r="AG417" s="1"/>
       <c r="AH417" s="1"/>
       <c r="AI417" s="1"/>
-      <c r="AJ417" s="1"/>
+      <c r="AJ417" s="15"/>
       <c r="AK417" s="1"/>
       <c r="AL417" s="1"/>
       <c r="AM417" s="1"/>
@@ -25998,7 +27015,7 @@
       <c r="AG418" s="1"/>
       <c r="AH418" s="1"/>
       <c r="AI418" s="1"/>
-      <c r="AJ418" s="1"/>
+      <c r="AJ418" s="15"/>
       <c r="AK418" s="1"/>
       <c r="AL418" s="1"/>
       <c r="AM418" s="1"/>
@@ -26050,7 +27067,7 @@
       <c r="AG419" s="1"/>
       <c r="AH419" s="1"/>
       <c r="AI419" s="1"/>
-      <c r="AJ419" s="1"/>
+      <c r="AJ419" s="15"/>
       <c r="AK419" s="1"/>
       <c r="AL419" s="1"/>
       <c r="AM419" s="1"/>
@@ -26102,7 +27119,7 @@
       <c r="AG420" s="1"/>
       <c r="AH420" s="1"/>
       <c r="AI420" s="1"/>
-      <c r="AJ420" s="1"/>
+      <c r="AJ420" s="15"/>
       <c r="AK420" s="1"/>
       <c r="AL420" s="1"/>
       <c r="AM420" s="1"/>
@@ -26154,7 +27171,7 @@
       <c r="AG421" s="1"/>
       <c r="AH421" s="1"/>
       <c r="AI421" s="1"/>
-      <c r="AJ421" s="1"/>
+      <c r="AJ421" s="15"/>
       <c r="AK421" s="1"/>
       <c r="AL421" s="1"/>
       <c r="AM421" s="1"/>
@@ -26206,7 +27223,7 @@
       <c r="AG422" s="1"/>
       <c r="AH422" s="1"/>
       <c r="AI422" s="1"/>
-      <c r="AJ422" s="1"/>
+      <c r="AJ422" s="15"/>
       <c r="AK422" s="1"/>
       <c r="AL422" s="1"/>
       <c r="AM422" s="1"/>
@@ -26258,7 +27275,7 @@
       <c r="AG423" s="1"/>
       <c r="AH423" s="1"/>
       <c r="AI423" s="1"/>
-      <c r="AJ423" s="1"/>
+      <c r="AJ423" s="15"/>
       <c r="AK423" s="1"/>
       <c r="AL423" s="1"/>
       <c r="AM423" s="1"/>
@@ -26310,7 +27327,7 @@
       <c r="AG424" s="1"/>
       <c r="AH424" s="1"/>
       <c r="AI424" s="1"/>
-      <c r="AJ424" s="1"/>
+      <c r="AJ424" s="15"/>
       <c r="AK424" s="1"/>
       <c r="AL424" s="1"/>
       <c r="AM424" s="1"/>
@@ -26362,7 +27379,7 @@
       <c r="AG425" s="1"/>
       <c r="AH425" s="1"/>
       <c r="AI425" s="1"/>
-      <c r="AJ425" s="1"/>
+      <c r="AJ425" s="15"/>
       <c r="AK425" s="1"/>
       <c r="AL425" s="1"/>
       <c r="AM425" s="1"/>
@@ -26414,7 +27431,7 @@
       <c r="AG426" s="1"/>
       <c r="AH426" s="1"/>
       <c r="AI426" s="1"/>
-      <c r="AJ426" s="1"/>
+      <c r="AJ426" s="15"/>
       <c r="AK426" s="1"/>
       <c r="AL426" s="1"/>
       <c r="AM426" s="1"/>
@@ -26466,7 +27483,7 @@
       <c r="AG427" s="1"/>
       <c r="AH427" s="1"/>
       <c r="AI427" s="1"/>
-      <c r="AJ427" s="1"/>
+      <c r="AJ427" s="15"/>
       <c r="AK427" s="1"/>
       <c r="AL427" s="1"/>
       <c r="AM427" s="1"/>
@@ -26518,7 +27535,7 @@
       <c r="AG428" s="1"/>
       <c r="AH428" s="1"/>
       <c r="AI428" s="1"/>
-      <c r="AJ428" s="1"/>
+      <c r="AJ428" s="15"/>
       <c r="AK428" s="1"/>
       <c r="AL428" s="1"/>
       <c r="AM428" s="1"/>
@@ -26570,7 +27587,7 @@
       <c r="AG429" s="1"/>
       <c r="AH429" s="1"/>
       <c r="AI429" s="1"/>
-      <c r="AJ429" s="1"/>
+      <c r="AJ429" s="15"/>
       <c r="AK429" s="1"/>
       <c r="AL429" s="1"/>
       <c r="AM429" s="1"/>
@@ -26622,7 +27639,7 @@
       <c r="AG430" s="1"/>
       <c r="AH430" s="1"/>
       <c r="AI430" s="1"/>
-      <c r="AJ430" s="1"/>
+      <c r="AJ430" s="15"/>
       <c r="AK430" s="1"/>
       <c r="AL430" s="1"/>
       <c r="AM430" s="1"/>
@@ -26674,7 +27691,7 @@
       <c r="AG431" s="1"/>
       <c r="AH431" s="1"/>
       <c r="AI431" s="1"/>
-      <c r="AJ431" s="1"/>
+      <c r="AJ431" s="15"/>
       <c r="AK431" s="1"/>
       <c r="AL431" s="1"/>
       <c r="AM431" s="1"/>
@@ -26726,7 +27743,7 @@
       <c r="AG432" s="1"/>
       <c r="AH432" s="1"/>
       <c r="AI432" s="1"/>
-      <c r="AJ432" s="1"/>
+      <c r="AJ432" s="15"/>
       <c r="AK432" s="1"/>
       <c r="AL432" s="1"/>
       <c r="AM432" s="1"/>
@@ -26778,7 +27795,7 @@
       <c r="AG433" s="1"/>
       <c r="AH433" s="1"/>
       <c r="AI433" s="1"/>
-      <c r="AJ433" s="1"/>
+      <c r="AJ433" s="15"/>
       <c r="AK433" s="1"/>
       <c r="AL433" s="1"/>
       <c r="AM433" s="1"/>
@@ -26830,7 +27847,7 @@
       <c r="AG434" s="1"/>
       <c r="AH434" s="1"/>
       <c r="AI434" s="1"/>
-      <c r="AJ434" s="1"/>
+      <c r="AJ434" s="15"/>
       <c r="AK434" s="1"/>
       <c r="AL434" s="1"/>
       <c r="AM434" s="1"/>
@@ -26882,7 +27899,7 @@
       <c r="AG435" s="1"/>
       <c r="AH435" s="1"/>
       <c r="AI435" s="1"/>
-      <c r="AJ435" s="1"/>
+      <c r="AJ435" s="15"/>
       <c r="AK435" s="1"/>
       <c r="AL435" s="1"/>
       <c r="AM435" s="1"/>
@@ -26934,7 +27951,7 @@
       <c r="AG436" s="1"/>
       <c r="AH436" s="1"/>
       <c r="AI436" s="1"/>
-      <c r="AJ436" s="1"/>
+      <c r="AJ436" s="15"/>
       <c r="AK436" s="1"/>
       <c r="AL436" s="1"/>
       <c r="AM436" s="1"/>
@@ -26986,7 +28003,7 @@
       <c r="AG437" s="1"/>
       <c r="AH437" s="1"/>
       <c r="AI437" s="1"/>
-      <c r="AJ437" s="1"/>
+      <c r="AJ437" s="15"/>
       <c r="AK437" s="1"/>
       <c r="AL437" s="1"/>
       <c r="AM437" s="1"/>
@@ -27038,7 +28055,7 @@
       <c r="AG438" s="1"/>
       <c r="AH438" s="1"/>
       <c r="AI438" s="1"/>
-      <c r="AJ438" s="1"/>
+      <c r="AJ438" s="15"/>
       <c r="AK438" s="1"/>
       <c r="AL438" s="1"/>
       <c r="AM438" s="1"/>
@@ -27090,7 +28107,7 @@
       <c r="AG439" s="1"/>
       <c r="AH439" s="1"/>
       <c r="AI439" s="1"/>
-      <c r="AJ439" s="1"/>
+      <c r="AJ439" s="15"/>
       <c r="AK439" s="1"/>
       <c r="AL439" s="1"/>
       <c r="AM439" s="1"/>
@@ -27142,7 +28159,7 @@
       <c r="AG440" s="1"/>
       <c r="AH440" s="1"/>
       <c r="AI440" s="1"/>
-      <c r="AJ440" s="1"/>
+      <c r="AJ440" s="15"/>
       <c r="AK440" s="1"/>
       <c r="AL440" s="1"/>
       <c r="AM440" s="1"/>
@@ -27194,7 +28211,7 @@
       <c r="AG441" s="1"/>
       <c r="AH441" s="1"/>
       <c r="AI441" s="1"/>
-      <c r="AJ441" s="1"/>
+      <c r="AJ441" s="15"/>
       <c r="AK441" s="1"/>
       <c r="AL441" s="1"/>
       <c r="AM441" s="1"/>
@@ -27246,7 +28263,7 @@
       <c r="AG442" s="1"/>
       <c r="AH442" s="1"/>
       <c r="AI442" s="1"/>
-      <c r="AJ442" s="1"/>
+      <c r="AJ442" s="15"/>
       <c r="AK442" s="1"/>
       <c r="AL442" s="1"/>
       <c r="AM442" s="1"/>
@@ -27298,7 +28315,7 @@
       <c r="AG443" s="1"/>
       <c r="AH443" s="1"/>
       <c r="AI443" s="1"/>
-      <c r="AJ443" s="1"/>
+      <c r="AJ443" s="15"/>
       <c r="AK443" s="1"/>
       <c r="AL443" s="1"/>
       <c r="AM443" s="1"/>
@@ -27350,7 +28367,7 @@
       <c r="AG444" s="1"/>
       <c r="AH444" s="1"/>
       <c r="AI444" s="1"/>
-      <c r="AJ444" s="1"/>
+      <c r="AJ444" s="15"/>
       <c r="AK444" s="1"/>
       <c r="AL444" s="1"/>
       <c r="AM444" s="1"/>
@@ -27402,7 +28419,7 @@
       <c r="AG445" s="1"/>
       <c r="AH445" s="1"/>
       <c r="AI445" s="1"/>
-      <c r="AJ445" s="1"/>
+      <c r="AJ445" s="15"/>
       <c r="AK445" s="1"/>
       <c r="AL445" s="1"/>
       <c r="AM445" s="1"/>
@@ -27454,7 +28471,7 @@
       <c r="AG446" s="1"/>
       <c r="AH446" s="1"/>
       <c r="AI446" s="1"/>
-      <c r="AJ446" s="1"/>
+      <c r="AJ446" s="15"/>
       <c r="AK446" s="1"/>
       <c r="AL446" s="1"/>
       <c r="AM446" s="1"/>
@@ -27506,7 +28523,7 @@
       <c r="AG447" s="1"/>
       <c r="AH447" s="1"/>
       <c r="AI447" s="1"/>
-      <c r="AJ447" s="1"/>
+      <c r="AJ447" s="15"/>
       <c r="AK447" s="1"/>
       <c r="AL447" s="1"/>
       <c r="AM447" s="1"/>
@@ -27558,7 +28575,7 @@
       <c r="AG448" s="1"/>
       <c r="AH448" s="1"/>
       <c r="AI448" s="1"/>
-      <c r="AJ448" s="1"/>
+      <c r="AJ448" s="15"/>
       <c r="AK448" s="1"/>
       <c r="AL448" s="1"/>
       <c r="AM448" s="1"/>
@@ -27610,7 +28627,7 @@
       <c r="AG449" s="1"/>
       <c r="AH449" s="1"/>
       <c r="AI449" s="1"/>
-      <c r="AJ449" s="1"/>
+      <c r="AJ449" s="15"/>
       <c r="AK449" s="1"/>
       <c r="AL449" s="1"/>
       <c r="AM449" s="1"/>
@@ -27662,7 +28679,7 @@
       <c r="AG450" s="1"/>
       <c r="AH450" s="1"/>
       <c r="AI450" s="1"/>
-      <c r="AJ450" s="1"/>
+      <c r="AJ450" s="15"/>
       <c r="AK450" s="1"/>
       <c r="AL450" s="1"/>
       <c r="AM450" s="1"/>
@@ -27714,7 +28731,7 @@
       <c r="AG451" s="1"/>
       <c r="AH451" s="1"/>
       <c r="AI451" s="1"/>
-      <c r="AJ451" s="1"/>
+      <c r="AJ451" s="15"/>
       <c r="AK451" s="1"/>
       <c r="AL451" s="1"/>
       <c r="AM451" s="1"/>
@@ -27766,7 +28783,7 @@
       <c r="AG452" s="1"/>
       <c r="AH452" s="1"/>
       <c r="AI452" s="1"/>
-      <c r="AJ452" s="1"/>
+      <c r="AJ452" s="15"/>
       <c r="AK452" s="1"/>
       <c r="AL452" s="1"/>
       <c r="AM452" s="1"/>
@@ -27818,7 +28835,7 @@
       <c r="AG453" s="1"/>
       <c r="AH453" s="1"/>
       <c r="AI453" s="1"/>
-      <c r="AJ453" s="1"/>
+      <c r="AJ453" s="15"/>
       <c r="AK453" s="1"/>
       <c r="AL453" s="1"/>
       <c r="AM453" s="1"/>
@@ -27870,7 +28887,7 @@
       <c r="AG454" s="1"/>
       <c r="AH454" s="1"/>
       <c r="AI454" s="1"/>
-      <c r="AJ454" s="1"/>
+      <c r="AJ454" s="15"/>
       <c r="AK454" s="1"/>
       <c r="AL454" s="1"/>
       <c r="AM454" s="1"/>
@@ -27922,7 +28939,7 @@
       <c r="AG455" s="1"/>
       <c r="AH455" s="1"/>
       <c r="AI455" s="1"/>
-      <c r="AJ455" s="1"/>
+      <c r="AJ455" s="15"/>
       <c r="AK455" s="1"/>
       <c r="AL455" s="1"/>
       <c r="AM455" s="1"/>
@@ -27974,7 +28991,7 @@
       <c r="AG456" s="1"/>
       <c r="AH456" s="1"/>
       <c r="AI456" s="1"/>
-      <c r="AJ456" s="1"/>
+      <c r="AJ456" s="15"/>
       <c r="AK456" s="1"/>
       <c r="AL456" s="1"/>
       <c r="AM456" s="1"/>
@@ -28026,7 +29043,7 @@
       <c r="AG457" s="1"/>
       <c r="AH457" s="1"/>
       <c r="AI457" s="1"/>
-      <c r="AJ457" s="1"/>
+      <c r="AJ457" s="15"/>
       <c r="AK457" s="1"/>
       <c r="AL457" s="1"/>
       <c r="AM457" s="1"/>
@@ -28078,7 +29095,7 @@
       <c r="AG458" s="1"/>
       <c r="AH458" s="1"/>
       <c r="AI458" s="1"/>
-      <c r="AJ458" s="1"/>
+      <c r="AJ458" s="15"/>
       <c r="AK458" s="1"/>
       <c r="AL458" s="1"/>
       <c r="AM458" s="1"/>
@@ -28130,7 +29147,7 @@
       <c r="AG459" s="1"/>
       <c r="AH459" s="1"/>
       <c r="AI459" s="1"/>
-      <c r="AJ459" s="1"/>
+      <c r="AJ459" s="15"/>
       <c r="AK459" s="1"/>
       <c r="AL459" s="1"/>
       <c r="AM459" s="1"/>
@@ -28182,7 +29199,7 @@
       <c r="AG460" s="1"/>
       <c r="AH460" s="1"/>
       <c r="AI460" s="1"/>
-      <c r="AJ460" s="1"/>
+      <c r="AJ460" s="15"/>
       <c r="AK460" s="1"/>
       <c r="AL460" s="1"/>
       <c r="AM460" s="1"/>
@@ -28234,7 +29251,7 @@
       <c r="AG461" s="1"/>
       <c r="AH461" s="1"/>
       <c r="AI461" s="1"/>
-      <c r="AJ461" s="1"/>
+      <c r="AJ461" s="15"/>
       <c r="AK461" s="1"/>
       <c r="AL461" s="1"/>
       <c r="AM461" s="1"/>
@@ -28286,7 +29303,7 @@
       <c r="AG462" s="1"/>
       <c r="AH462" s="1"/>
       <c r="AI462" s="1"/>
-      <c r="AJ462" s="1"/>
+      <c r="AJ462" s="15"/>
       <c r="AK462" s="1"/>
       <c r="AL462" s="1"/>
       <c r="AM462" s="1"/>
@@ -28338,7 +29355,7 @@
       <c r="AG463" s="1"/>
       <c r="AH463" s="1"/>
       <c r="AI463" s="1"/>
-      <c r="AJ463" s="1"/>
+      <c r="AJ463" s="15"/>
       <c r="AK463" s="1"/>
       <c r="AL463" s="1"/>
       <c r="AM463" s="1"/>
@@ -28390,7 +29407,7 @@
       <c r="AG464" s="1"/>
       <c r="AH464" s="1"/>
       <c r="AI464" s="1"/>
-      <c r="AJ464" s="1"/>
+      <c r="AJ464" s="15"/>
       <c r="AK464" s="1"/>
       <c r="AL464" s="1"/>
       <c r="AM464" s="1"/>
@@ -28442,7 +29459,7 @@
       <c r="AG465" s="1"/>
       <c r="AH465" s="1"/>
       <c r="AI465" s="1"/>
-      <c r="AJ465" s="1"/>
+      <c r="AJ465" s="15"/>
       <c r="AK465" s="1"/>
       <c r="AL465" s="1"/>
       <c r="AM465" s="1"/>
@@ -28494,7 +29511,7 @@
       <c r="AG466" s="1"/>
       <c r="AH466" s="1"/>
       <c r="AI466" s="1"/>
-      <c r="AJ466" s="1"/>
+      <c r="AJ466" s="15"/>
       <c r="AK466" s="1"/>
       <c r="AL466" s="1"/>
       <c r="AM466" s="1"/>
@@ -28546,7 +29563,7 @@
       <c r="AG467" s="1"/>
       <c r="AH467" s="1"/>
       <c r="AI467" s="1"/>
-      <c r="AJ467" s="1"/>
+      <c r="AJ467" s="15"/>
       <c r="AK467" s="1"/>
       <c r="AL467" s="1"/>
       <c r="AM467" s="1"/>
@@ -28598,7 +29615,7 @@
       <c r="AG468" s="1"/>
       <c r="AH468" s="1"/>
       <c r="AI468" s="1"/>
-      <c r="AJ468" s="1"/>
+      <c r="AJ468" s="15"/>
       <c r="AK468" s="1"/>
       <c r="AL468" s="1"/>
       <c r="AM468" s="1"/>
@@ -28650,7 +29667,7 @@
       <c r="AG469" s="1"/>
       <c r="AH469" s="1"/>
       <c r="AI469" s="1"/>
-      <c r="AJ469" s="1"/>
+      <c r="AJ469" s="15"/>
       <c r="AK469" s="1"/>
       <c r="AL469" s="1"/>
       <c r="AM469" s="1"/>
@@ -28702,7 +29719,7 @@
       <c r="AG470" s="1"/>
       <c r="AH470" s="1"/>
       <c r="AI470" s="1"/>
-      <c r="AJ470" s="1"/>
+      <c r="AJ470" s="15"/>
       <c r="AK470" s="1"/>
       <c r="AL470" s="1"/>
       <c r="AM470" s="1"/>
@@ -28754,7 +29771,7 @@
       <c r="AG471" s="1"/>
       <c r="AH471" s="1"/>
       <c r="AI471" s="1"/>
-      <c r="AJ471" s="1"/>
+      <c r="AJ471" s="15"/>
       <c r="AK471" s="1"/>
       <c r="AL471" s="1"/>
       <c r="AM471" s="1"/>
@@ -28806,7 +29823,7 @@
       <c r="AG472" s="1"/>
       <c r="AH472" s="1"/>
       <c r="AI472" s="1"/>
-      <c r="AJ472" s="1"/>
+      <c r="AJ472" s="15"/>
       <c r="AK472" s="1"/>
       <c r="AL472" s="1"/>
       <c r="AM472" s="1"/>
@@ -28858,7 +29875,7 @@
       <c r="AG473" s="1"/>
       <c r="AH473" s="1"/>
       <c r="AI473" s="1"/>
-      <c r="AJ473" s="1"/>
+      <c r="AJ473" s="15"/>
       <c r="AK473" s="1"/>
       <c r="AL473" s="1"/>
       <c r="AM473" s="1"/>
@@ -28910,7 +29927,7 @@
       <c r="AG474" s="1"/>
       <c r="AH474" s="1"/>
       <c r="AI474" s="1"/>
-      <c r="AJ474" s="1"/>
+      <c r="AJ474" s="15"/>
       <c r="AK474" s="1"/>
       <c r="AL474" s="1"/>
       <c r="AM474" s="1"/>
@@ -28962,7 +29979,7 @@
       <c r="AG475" s="1"/>
       <c r="AH475" s="1"/>
       <c r="AI475" s="1"/>
-      <c r="AJ475" s="1"/>
+      <c r="AJ475" s="15"/>
       <c r="AK475" s="1"/>
       <c r="AL475" s="1"/>
       <c r="AM475" s="1"/>
@@ -29014,7 +30031,7 @@
       <c r="AG476" s="1"/>
       <c r="AH476" s="1"/>
       <c r="AI476" s="1"/>
-      <c r="AJ476" s="1"/>
+      <c r="AJ476" s="15"/>
       <c r="AK476" s="1"/>
       <c r="AL476" s="1"/>
       <c r="AM476" s="1"/>
@@ -29066,7 +30083,7 @@
       <c r="AG477" s="1"/>
       <c r="AH477" s="1"/>
       <c r="AI477" s="1"/>
-      <c r="AJ477" s="1"/>
+      <c r="AJ477" s="15"/>
       <c r="AK477" s="1"/>
       <c r="AL477" s="1"/>
       <c r="AM477" s="1"/>
@@ -29118,7 +30135,7 @@
       <c r="AG478" s="1"/>
       <c r="AH478" s="1"/>
       <c r="AI478" s="1"/>
-      <c r="AJ478" s="1"/>
+      <c r="AJ478" s="15"/>
       <c r="AK478" s="1"/>
       <c r="AL478" s="1"/>
       <c r="AM478" s="1"/>
@@ -29170,7 +30187,7 @@
       <c r="AG479" s="1"/>
       <c r="AH479" s="1"/>
       <c r="AI479" s="1"/>
-      <c r="AJ479" s="1"/>
+      <c r="AJ479" s="15"/>
       <c r="AK479" s="1"/>
       <c r="AL479" s="1"/>
       <c r="AM479" s="1"/>
@@ -29222,7 +30239,7 @@
       <c r="AG480" s="1"/>
       <c r="AH480" s="1"/>
       <c r="AI480" s="1"/>
-      <c r="AJ480" s="1"/>
+      <c r="AJ480" s="15"/>
       <c r="AK480" s="1"/>
       <c r="AL480" s="1"/>
       <c r="AM480" s="1"/>
@@ -29274,7 +30291,7 @@
       <c r="AG481" s="1"/>
       <c r="AH481" s="1"/>
       <c r="AI481" s="1"/>
-      <c r="AJ481" s="1"/>
+      <c r="AJ481" s="15"/>
       <c r="AK481" s="1"/>
       <c r="AL481" s="1"/>
       <c r="AM481" s="1"/>
@@ -29326,7 +30343,7 @@
       <c r="AG482" s="1"/>
       <c r="AH482" s="1"/>
       <c r="AI482" s="1"/>
-      <c r="AJ482" s="1"/>
+      <c r="AJ482" s="15"/>
       <c r="AK482" s="1"/>
       <c r="AL482" s="1"/>
       <c r="AM482" s="1"/>
@@ -29378,7 +30395,7 @@
       <c r="AG483" s="1"/>
       <c r="AH483" s="1"/>
       <c r="AI483" s="1"/>
-      <c r="AJ483" s="1"/>
+      <c r="AJ483" s="15"/>
       <c r="AK483" s="1"/>
       <c r="AL483" s="1"/>
       <c r="AM483" s="1"/>
@@ -29430,7 +30447,7 @@
       <c r="AG484" s="1"/>
       <c r="AH484" s="1"/>
       <c r="AI484" s="1"/>
-      <c r="AJ484" s="1"/>
+      <c r="AJ484" s="15"/>
       <c r="AK484" s="1"/>
       <c r="AL484" s="1"/>
       <c r="AM484" s="1"/>
@@ -29482,7 +30499,7 @@
       <c r="AG485" s="1"/>
       <c r="AH485" s="1"/>
       <c r="AI485" s="1"/>
-      <c r="AJ485" s="1"/>
+      <c r="AJ485" s="15"/>
       <c r="AK485" s="1"/>
       <c r="AL485" s="1"/>
       <c r="AM485" s="1"/>
@@ -29534,7 +30551,7 @@
       <c r="AG486" s="1"/>
       <c r="AH486" s="1"/>
       <c r="AI486" s="1"/>
-      <c r="AJ486" s="1"/>
+      <c r="AJ486" s="15"/>
       <c r="AK486" s="1"/>
       <c r="AL486" s="1"/>
       <c r="AM486" s="1"/>
@@ -29586,7 +30603,7 @@
       <c r="AG487" s="1"/>
       <c r="AH487" s="1"/>
       <c r="AI487" s="1"/>
-      <c r="AJ487" s="1"/>
+      <c r="AJ487" s="15"/>
       <c r="AK487" s="1"/>
       <c r="AL487" s="1"/>
       <c r="AM487" s="1"/>
@@ -29638,7 +30655,7 @@
       <c r="AG488" s="1"/>
       <c r="AH488" s="1"/>
       <c r="AI488" s="1"/>
-      <c r="AJ488" s="1"/>
+      <c r="AJ488" s="15"/>
       <c r="AK488" s="1"/>
       <c r="AL488" s="1"/>
       <c r="AM488" s="1"/>
@@ -29690,7 +30707,7 @@
       <c r="AG489" s="1"/>
       <c r="AH489" s="1"/>
       <c r="AI489" s="1"/>
-      <c r="AJ489" s="1"/>
+      <c r="AJ489" s="15"/>
       <c r="AK489" s="1"/>
       <c r="AL489" s="1"/>
       <c r="AM489" s="1"/>
@@ -29742,7 +30759,7 @@
       <c r="AG490" s="1"/>
       <c r="AH490" s="1"/>
       <c r="AI490" s="1"/>
-      <c r="AJ490" s="1"/>
+      <c r="AJ490" s="15"/>
       <c r="AK490" s="1"/>
       <c r="AL490" s="1"/>
       <c r="AM490" s="1"/>
@@ -29794,7 +30811,7 @@
       <c r="AG491" s="1"/>
       <c r="AH491" s="1"/>
       <c r="AI491" s="1"/>
-      <c r="AJ491" s="1"/>
+      <c r="AJ491" s="15"/>
       <c r="AK491" s="1"/>
       <c r="AL491" s="1"/>
       <c r="AM491" s="1"/>
@@ -29846,7 +30863,7 @@
       <c r="AG492" s="1"/>
       <c r="AH492" s="1"/>
       <c r="AI492" s="1"/>
-      <c r="AJ492" s="1"/>
+      <c r="AJ492" s="15"/>
       <c r="AK492" s="1"/>
       <c r="AL492" s="1"/>
       <c r="AM492" s="1"/>
@@ -29898,7 +30915,7 @@
       <c r="AG493" s="1"/>
       <c r="AH493" s="1"/>
       <c r="AI493" s="1"/>
-      <c r="AJ493" s="1"/>
+      <c r="AJ493" s="15"/>
       <c r="AK493" s="1"/>
       <c r="AL493" s="1"/>
       <c r="AM493" s="1"/>
@@ -29950,7 +30967,7 @@
       <c r="AG494" s="1"/>
       <c r="AH494" s="1"/>
       <c r="AI494" s="1"/>
-      <c r="AJ494" s="1"/>
+      <c r="AJ494" s="15"/>
       <c r="AK494" s="1"/>
       <c r="AL494" s="1"/>
       <c r="AM494" s="1"/>
@@ -30002,7 +31019,7 @@
       <c r="AG495" s="1"/>
       <c r="AH495" s="1"/>
       <c r="AI495" s="1"/>
-      <c r="AJ495" s="1"/>
+      <c r="AJ495" s="15"/>
       <c r="AK495" s="1"/>
       <c r="AL495" s="1"/>
       <c r="AM495" s="1"/>
@@ -30054,7 +31071,7 @@
       <c r="AG496" s="1"/>
       <c r="AH496" s="1"/>
       <c r="AI496" s="1"/>
-      <c r="AJ496" s="1"/>
+      <c r="AJ496" s="15"/>
       <c r="AK496" s="1"/>
       <c r="AL496" s="1"/>
       <c r="AM496" s="1"/>
@@ -30106,7 +31123,7 @@
       <c r="AG497" s="1"/>
       <c r="AH497" s="1"/>
       <c r="AI497" s="1"/>
-      <c r="AJ497" s="1"/>
+      <c r="AJ497" s="15"/>
       <c r="AK497" s="1"/>
       <c r="AL497" s="1"/>
       <c r="AM497" s="1"/>
